--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1406.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1406.xlsx
@@ -9325,22 +9325,22 @@
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03850395901542508</v>
+        <v>0.11758824</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007890743359378436</v>
+        <v>0.002326733640000001</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.06072309923682745</v>
+        <v>0.1775882400000001</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007724393909008228</v>
+        <v>0.002174517420560748</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0814726121430549</v>
+        <v>0.1392437952274905</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007672467550621344</v>
+        <v>0.001620767633059241</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0571961327389956</v>
+        <v>0.09153388192270953</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001551313713144094</v>
+        <v>0.002587418147419166</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.08301289169442874</v>
+        <v>0.1609879501504239</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001578148671875687</v>
+        <v>0.003234597079771361</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1179893241660599</v>
+        <v>0.2634008276260488</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001544878781801646</v>
+        <v>0.003230007646019424</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1649790071039057</v>
+        <v>0.23758824</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001534493510124269</v>
+        <v>0.002556850153846154</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.09153388192270953</v>
+        <v>0.1002073413522976</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002587418147419166</v>
+        <v>0.00478567276378899</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.11758824</v>
+        <v>0.2525972888791002</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002326733640000001</v>
+        <v>0.004851895619657042</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1775882400000001</v>
+        <v>0.4066503200323152</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002423680875000001</v>
+        <v>0.004845011469029136</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.23758824</v>
+        <v>0.4627115598014953</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002303696673267327</v>
+        <v>0.004862302899177723</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07893769374297754</v>
+        <v>0.1098382141266402</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003102627426288189</v>
+        <v>0.00638089701838532</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1489800748250993</v>
+        <v>0.3453045019049171</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003156297343751374</v>
+        <v>0.006980200920000002</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.214378828193428</v>
+        <v>0.515079255048797</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003089757563603291</v>
+        <v>0.006523552261682245</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2863168017442137</v>
+        <v>0.6015967263956896</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003068987020248538</v>
+        <v>0.006483070532236963</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.04358756282033788</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.09831798844744682</v>
+        <v>0.1111475622156641</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003878284282860236</v>
+        <v>0.00797612127298165</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1744953830779704</v>
+        <v>0.3687107343651068</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003945371679689218</v>
+        <v>0.008086492699428403</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2519984552836034</v>
+        <v>0.558088171452222</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003862196954504114</v>
+        <v>0.00807501911504856</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3412643831371225</v>
+        <v>0.6848540081926768</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003836233775310673</v>
+        <v>0.007670550461538464</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09740266012993534</v>
+        <v>0.1282636305939555</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004653941139432283</v>
+        <v>0.00957134552757798</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1988467598393928</v>
+        <v>0.3979415765582186</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004734446015627061</v>
+        <v>0.009703791239314084</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2906893578752806</v>
+        <v>0.6160174565331946</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004634636345404937</v>
+        <v>0.009690022938058273</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3978279635183832</v>
+        <v>0.7623107324290037</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004603480530372807</v>
+        <v>0.009724605798355445</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1081967590543959</v>
+        <v>0.1243146642361003</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005429597996004331</v>
+        <v>0.01116656978217431</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.2245362390784126</v>
+        <v>0.430787983817433</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005523520351564905</v>
+        <v>0.01132108977919976</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.3277566836992762</v>
+        <v>0.6553746236220714</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00540707573630576</v>
+        <v>0.01130502676106799</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.4464631780505676</v>
+        <v>0.8216371116137451</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005370727285434941</v>
+        <v>0.01134537343141469</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1167053354847813</v>
+        <v>0.1294289081166847</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006205254852576378</v>
+        <v>0.01276179403677064</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.2492658547640753</v>
+        <v>0.4617000341291587</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006312594687502749</v>
+        <v>0.01293838831908545</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.3574055804864076</v>
+        <v>0.7040263441846714</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006179515127206582</v>
+        <v>0.0129200305840777</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.4903256618962464</v>
+        <v>0.8818143373509302</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006137974040497075</v>
+        <v>0.01296614106447393</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1099334396850446</v>
+        <v>0.1387346072102947</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006980911709148424</v>
+        <v>0.01435701829136697</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.2694376408654271</v>
+        <v>0.4887278054798043</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007101669023440592</v>
+        <v>0.01455568685897113</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3924411959674912</v>
+        <v>0.7381392896868134</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006951954518107405</v>
+        <v>0.01453503440708741</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.5375710502179915</v>
+        <v>0.9326449243124584</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006905220795559211</v>
+        <v>0.01458690869753317</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1198861219191384</v>
+        <v>0.1433600064915165</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007756568565720472</v>
+        <v>0.0159522425459633</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.294053631351514</v>
+        <v>0.5095213758557783</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007890743359378435</v>
+        <v>0.01617298539885681</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4165686778733443</v>
+        <v>0.7684801315943161</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007724393909008228</v>
+        <v>0.01615003823009712</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.5873549781783735</v>
+        <v>0.9832313871702285</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007672467550621345</v>
+        <v>0.01620767633059241</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1205684324510158</v>
+        <v>0.1464333509349362</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00853222542229252</v>
+        <v>0.01754746680055963</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.3110158601913816</v>
+        <v>0.5291308232434894</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00867981769531628</v>
+        <v>0.01779028393874249</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4477931739347836</v>
+        <v>0.7989155413729988</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008496833299909051</v>
+        <v>0.01776504205310683</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.6206330809399638</v>
+        <v>1.030376240596139</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008439714305683479</v>
+        <v>0.01782844396365165</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1219854215446296</v>
+        <v>0.1540828855151397</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009307882278864567</v>
+        <v>0.01914269105515596</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3453045019049171</v>
+        <v>0.5437062256293458</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009760835177609291</v>
+        <v>0.01940758247862817</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4813198318826264</v>
+        <v>0.8289121904886795</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009269272690809873</v>
+        <v>0.01938004587611655</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6848540081926768</v>
+        <v>1.071181999262091</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009486375614425941</v>
+        <v>0.01944921159671089</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1371421394639326</v>
+        <v>0.1504368552067131</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01008353913543661</v>
+        <v>0.02073791530975229</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3523968139148204</v>
+        <v>0.5653976609997566</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01025796636719197</v>
+        <v>0.02102488101851385</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5150792550487969</v>
+        <v>0.8455367504071784</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01004239389122851</v>
+        <v>0.02099504969912626</v>
       </c>
       <c r="N78" t="n">
-        <v>0.704229646844545</v>
+        <v>1.09825117783998</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009974207815807748</v>
+        <v>0.02106997922977013</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1340436364728778</v>
+        <v>0.1546235049842426</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01085919599200866</v>
+        <v>0.02233313956434862</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3742352330933177</v>
+        <v>0.57495520734113</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01104704070312981</v>
+        <v>0.02264217955839953</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5375483409418197</v>
+        <v>0.865955892594313</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01081415147261152</v>
+        <v>0.02261005352213597</v>
       </c>
       <c r="N79" t="n">
-        <v>0.7417771494746608</v>
+        <v>1.130386291001708</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01074145457086988</v>
+        <v>0.02269074686282937</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1326949628354179</v>
+        <v>0.1457688320947348</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01163485284858071</v>
+        <v>0.02392836381894495</v>
       </c>
       <c r="J80" t="n">
-        <v>0.40004428907201</v>
+        <v>0.5930289426398748</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01183611503906765</v>
+        <v>0.02425947809828521</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5694748423380576</v>
+        <v>0.8814362885159027</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01158659086351234</v>
+        <v>0.02422505734514568</v>
       </c>
       <c r="N80" t="n">
-        <v>0.780159670075703</v>
+        <v>1.164889853419173</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01150870132593202</v>
+        <v>0.02431151449588861</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1521011688155058</v>
+        <v>0.1528890939540462</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01241050970515276</v>
+        <v>0.02552358807354128</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4168456746054044</v>
+        <v>0.5997689448823996</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0126251893750055</v>
+        <v>0.02587677663817089</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6051616892288593</v>
+        <v>0.9027446096377668</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01235903025441316</v>
+        <v>0.02584006116815539</v>
       </c>
       <c r="N81" t="n">
-        <v>0.8216760550684936</v>
+        <v>1.185464379764274</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01227594808099415</v>
+        <v>0.02593228212894785</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1432673046770945</v>
+        <v>0.1609475833030069</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0131861665617248</v>
+        <v>0.02711881232813761</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4380610824480087</v>
+        <v>0.6086252920551125</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01341426371094334</v>
+        <v>0.02749407517805657</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6365372666259425</v>
+        <v>0.9160475274257235</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01313146964531399</v>
+        <v>0.02745506499116511</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8643251508738552</v>
+        <v>1.201312384708911</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01304319483605629</v>
+        <v>0.02755304976200709</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1431984206841368</v>
+        <v>0.1559310487566273</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01396182341829685</v>
+        <v>0.02871403658273394</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4635122053543304</v>
+        <v>0.6214935000441533</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01420333804688118</v>
+        <v>0.02911137371794225</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6612299595410248</v>
+        <v>0.9265056389479825</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01390390903621481</v>
+        <v>0.02907006881417482</v>
       </c>
       <c r="N83" t="n">
-        <v>0.9107058039126092</v>
+        <v>1.225146397348104</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01381044159111842</v>
+        <v>0.02917381739506633</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1568995671005854</v>
+        <v>0.1588262389299176</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0147374802748689</v>
+        <v>0.03030926083733027</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4860207360788764</v>
+        <v>0.6278903126219392</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01499241238281903</v>
+        <v>0.03072867225782793</v>
       </c>
       <c r="L84" t="n">
-        <v>0.6949681529858236</v>
+        <v>0.9326233389688653</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01467634842711563</v>
+        <v>0.03068507263718454</v>
       </c>
       <c r="N84" t="n">
-        <v>0.9520168606055774</v>
+        <v>1.234917399930778</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01457768834618056</v>
+        <v>0.03079458502812557</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1623757941903936</v>
+        <v>0.171619902437888</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01551313713144094</v>
+        <v>0.0319044850919266</v>
       </c>
       <c r="J85" t="n">
-        <v>0.5041083673761545</v>
+        <v>0.6316214346894485</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01578148671875687</v>
+        <v>0.03234597079771361</v>
       </c>
       <c r="L85" t="n">
-        <v>0.7347802319720572</v>
+        <v>0.9495260515353411</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01544878781801646</v>
+        <v>0.03230007646019424</v>
       </c>
       <c r="N85" t="n">
-        <v>0.9905571673735831</v>
+        <v>1.247899249439977</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01534493510124269</v>
+        <v>0.03241535266118482</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1606321522175137</v>
+        <v>0.1692987878955488</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01628879398801299</v>
+        <v>0.03349970934652293</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5250967920006721</v>
+        <v>0.6436347723335237</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01657056105469472</v>
+        <v>0.03396326933759929</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7585945815114427</v>
+        <v>0.9620364001830993</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01622122720891728</v>
+        <v>0.03391508028320395</v>
       </c>
       <c r="N86" t="n">
-        <v>1.035225570637447</v>
+        <v>1.263887959982821</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01611218185630482</v>
+        <v>0.03403612029424406</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1546736914458991</v>
+        <v>0.1708496439179102</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01706445084458504</v>
+        <v>0.03509493360111926</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5440077027069367</v>
+        <v>0.6482782316410063</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01735963539063256</v>
+        <v>0.03558056787748497</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7906395866156976</v>
+        <v>0.9745770084478286</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0169936665998181</v>
+        <v>0.03553008410621367</v>
       </c>
       <c r="N87" t="n">
-        <v>1.072920916817992</v>
+        <v>1.283879545666434</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01687942861136696</v>
+        <v>0.03565688792730329</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1665054621395023</v>
+        <v>0.1722592191199825</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01784010770115708</v>
+        <v>0.03669015785571559</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5648627922494552</v>
+        <v>0.6528997186987384</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0181487097265704</v>
+        <v>0.03719786641737065</v>
       </c>
       <c r="L88" t="n">
-        <v>0.8184436322965402</v>
+        <v>0.9783704998652186</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01776610599071892</v>
+        <v>0.03714508792922339</v>
       </c>
       <c r="N88" t="n">
-        <v>1.113142052336039</v>
+        <v>1.297970020597934</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01764667536642909</v>
+        <v>0.03727765556036253</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1581325145622762</v>
+        <v>0.1625142621167759</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01861576455772913</v>
+        <v>0.03828538211031192</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5837837533827356</v>
+        <v>0.6584471395935622</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01893778406250824</v>
+        <v>0.03881516495725634</v>
       </c>
       <c r="L89" t="n">
-        <v>0.8502351035656875</v>
+        <v>0.9920394979709574</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01853854538161975</v>
+        <v>0.03876009175223309</v>
       </c>
       <c r="N89" t="n">
-        <v>1.143387823612412</v>
+        <v>1.309155398884444</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01841392212149123</v>
+        <v>0.03889842319342178</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1675598989781739</v>
+        <v>0.1646015215233008</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01939142141430118</v>
+        <v>0.03988060636490825</v>
       </c>
       <c r="J90" t="n">
-        <v>0.6024922788612852</v>
+        <v>0.667668400412319</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01972685839844609</v>
+        <v>0.04043246349714202</v>
       </c>
       <c r="L90" t="n">
-        <v>0.878242385434857</v>
+        <v>1.001706626300735</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01931098477252057</v>
+        <v>0.0403750955752428</v>
       </c>
       <c r="N90" t="n">
-        <v>1.178757077067931</v>
+        <v>1.317031694633083</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01918116887655336</v>
+        <v>0.04051919082648102</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.169792665651148</v>
+        <v>0.1785077459545673</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02016707827087323</v>
+        <v>0.04147583061950458</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6190100614396113</v>
+        <v>0.6717114072418512</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02051593273438393</v>
+        <v>0.0420497620370277</v>
       </c>
       <c r="L91" t="n">
-        <v>0.905793862915767</v>
+        <v>1.00009450839024</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02008342416342139</v>
+        <v>0.04199009939825252</v>
       </c>
       <c r="N91" t="n">
-        <v>1.206648659123419</v>
+        <v>1.328094921950974</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0199484156316155</v>
+        <v>0.04213995845954026</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1708358648451516</v>
+        <v>0.1652196840255856</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02094273512744528</v>
+        <v>0.04307105487410091</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6322587938722213</v>
+        <v>0.6757240661690008</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02130500707032178</v>
+        <v>0.04366706057691338</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9219179210201353</v>
+        <v>1.012525767775161</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02085586355432222</v>
+        <v>0.04360510322126223</v>
       </c>
       <c r="N92" t="n">
-        <v>1.243561416199698</v>
+        <v>1.342341094945236</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02071566238667763</v>
+        <v>0.0437607260925995</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1676945468241374</v>
+        <v>0.1667240843513661</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02171839198401732</v>
+        <v>0.04466627912869724</v>
       </c>
       <c r="J93" t="n">
-        <v>0.6471601689136226</v>
+        <v>0.6792542832806095</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02209408140625962</v>
+        <v>0.04528435911679906</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9504429447596791</v>
+        <v>1.013423027991189</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02162830294522304</v>
+        <v>0.04522010704427194</v>
       </c>
       <c r="N93" t="n">
-        <v>1.26329419471759</v>
+        <v>1.346266227722992</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02148290914173976</v>
+        <v>0.04538149372565874</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1733737618520584</v>
+        <v>0.1830677638454191</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02249404884058937</v>
+        <v>0.04626150338329357</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6579358793183229</v>
+        <v>0.6850499646635194</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02288315574219747</v>
+        <v>0.04690165765668474</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9657973191461159</v>
+        <v>1.019008912574011</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02240074233612386</v>
+        <v>0.04683511086728166</v>
       </c>
       <c r="N94" t="n">
-        <v>1.290145841097917</v>
+        <v>1.348666334391362</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0222501558968019</v>
+        <v>0.04700226135871798</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1738785601928673</v>
+        <v>0.1760626750808091</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02326970569716142</v>
+        <v>0.0478567276378899</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6600076178408291</v>
+        <v>0.6872590164045723</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02367223007813531</v>
+        <v>0.04851895619657042</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9778094291911631</v>
+        <v>1.021506045059316</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02317318172702468</v>
+        <v>0.04845011469029137</v>
       </c>
       <c r="N95" t="n">
-        <v>1.306815201761501</v>
+        <v>1.359437429057467</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02301740265186403</v>
+        <v>0.04862302899177722</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1712139921105171</v>
+        <v>0.1819705642814225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02404536255373347</v>
+        <v>0.04945195189248622</v>
       </c>
       <c r="J96" t="n">
-        <v>0.666997077235649</v>
+        <v>0.6906090038098344</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02446130441407315</v>
+        <v>0.0501362547364561</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9908076599065393</v>
+        <v>1.030158510097594</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02394562111792551</v>
+        <v>0.05006511851330107</v>
       </c>
       <c r="N96" t="n">
-        <v>1.317001123129164</v>
+        <v>1.369708016385353</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02378464940692617</v>
+        <v>0.05024379662483646</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1703851078689606</v>
+        <v>0.1737681797194116</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02482101941030551</v>
+        <v>0.05104717614708256</v>
       </c>
       <c r="J97" t="n">
-        <v>0.6731259502572899</v>
+        <v>0.6838088553084749</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02525037875001099</v>
+        <v>0.05175355327634178</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9988203963039611</v>
+        <v>1.023842002877159</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02471806050882633</v>
+        <v>0.05168012233631079</v>
       </c>
       <c r="N97" t="n">
-        <v>1.328702451621728</v>
+        <v>1.357776638811367</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0245518961619883</v>
+        <v>0.05186456425789571</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1733960026546558</v>
+        <v>0.1824625052568146</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02559667626687756</v>
+        <v>0.05264240040167888</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6737260894422921</v>
+        <v>0.6853901729433943</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02603945308594884</v>
+        <v>0.05337085181622746</v>
       </c>
       <c r="L98" t="n">
-        <v>1.003076023395147</v>
+        <v>1.020559160937438</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02549049989972715</v>
+        <v>0.0532951261593205</v>
       </c>
       <c r="N98" t="n">
-        <v>1.339318033660015</v>
+        <v>1.357730363167067</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02531914291705044</v>
+        <v>0.05348533189095495</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1652472046041084</v>
+        <v>0.17306052475567</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02637233312344961</v>
+        <v>0.05423762465627522</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6765119635434601</v>
+        <v>0.6885357784703612</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02682852742188668</v>
+        <v>0.05498815035611314</v>
       </c>
       <c r="L99" t="n">
-        <v>1.0104823074577</v>
+        <v>1.019937955788436</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02626293929062798</v>
+        <v>0.05491012998233021</v>
       </c>
       <c r="N99" t="n">
-        <v>1.338508024497091</v>
+        <v>1.36173083806806</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02608638967211257</v>
+        <v>0.05510609952401418</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1759513059014446</v>
+        <v>0.1635692220780162</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02714798998002165</v>
+        <v>0.05583284891087155</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6701160277145247</v>
+        <v>0.6886732025506405</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02761760175782453</v>
+        <v>0.05660544889599882</v>
       </c>
       <c r="L100" t="n">
-        <v>1.005624524878082</v>
+        <v>1.025819167058256</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0270353786815288</v>
+        <v>0.05652513380533992</v>
       </c>
       <c r="N100" t="n">
-        <v>1.336355821384153</v>
+        <v>1.361998921513606</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02685363642717471</v>
+        <v>0.05672686715707343</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1755231775929765</v>
+        <v>0.1759955810858914</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0279236468365937</v>
+        <v>0.05742807316546789</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6693351870951039</v>
+        <v>0.6805299001787714</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02840667609376237</v>
+        <v>0.0582227474358845</v>
       </c>
       <c r="L101" t="n">
-        <v>0.9975873063219317</v>
+        <v>1.022443574375005</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02780781807242962</v>
+        <v>0.05814013762834964</v>
       </c>
       <c r="N101" t="n">
-        <v>1.335247625362501</v>
+        <v>1.355689417068038</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02762088318223684</v>
+        <v>0.05834763479013266</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1609776907250156</v>
+        <v>0.180346585641334</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02869930369316575</v>
+        <v>0.0590232974200642</v>
       </c>
       <c r="J102" t="n">
-        <v>0.664866346824815</v>
+        <v>0.6801333263492936</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02919575042970021</v>
+        <v>0.05984004597577018</v>
       </c>
       <c r="L102" t="n">
-        <v>1.001672158001621</v>
+        <v>1.018951957366788</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02858025746333044</v>
+        <v>0.05975514145135935</v>
       </c>
       <c r="N102" t="n">
-        <v>1.334069852880213</v>
+        <v>1.350757128295691</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02838812993729898</v>
+        <v>0.0599684024231919</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1743297163438737</v>
+        <v>0.1656292196063824</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02947496054973779</v>
+        <v>0.06061852167466054</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6618064120432759</v>
+        <v>0.6832109360567465</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02998482476563806</v>
+        <v>0.06145734451565586</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9898805861295202</v>
+        <v>1.018185095661709</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02935269685423126</v>
+        <v>0.06137014527436907</v>
       </c>
       <c r="N103" t="n">
-        <v>1.317408920385367</v>
+        <v>1.348856858760899</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02915537669236111</v>
+        <v>0.06158917005625115</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1585941254958627</v>
+        <v>0.1758504668430749</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03025061740630984</v>
+        <v>0.06221374592925687</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6603522878901045</v>
+        <v>0.6805901842956696</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0307738991015759</v>
+        <v>0.06307464305554154</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9879140969180019</v>
+        <v>1.009683768887875</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03012513624513209</v>
+        <v>0.06298514909737878</v>
       </c>
       <c r="N104" t="n">
-        <v>1.312551244326041</v>
+        <v>1.343143412027996</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02992262344742325</v>
+        <v>0.06320993768931038</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1587857892272941</v>
+        <v>0.1710173112134499</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03102627426288189</v>
+        <v>0.0638089701838532</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6597008795049183</v>
+        <v>0.6773985260606022</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03156297343751374</v>
+        <v>0.06469194159542722</v>
       </c>
       <c r="L105" t="n">
-        <v>0.979774196579437</v>
+        <v>1.003088756673391</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03089757563603291</v>
+        <v>0.06460015292038848</v>
       </c>
       <c r="N105" t="n">
-        <v>1.303283241150315</v>
+        <v>1.335171591661317</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03068987020248538</v>
+        <v>0.06483070532236963</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1609195785844799</v>
+        <v>0.1761367365795458</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03180193111945393</v>
+        <v>0.06540419443844953</v>
       </c>
       <c r="J106" t="n">
-        <v>0.6561490920273352</v>
+        <v>0.6723634163460842</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03235204777345159</v>
+        <v>0.06630924013531291</v>
       </c>
       <c r="L106" t="n">
-        <v>0.9780623913261967</v>
+        <v>1.005140838646362</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03167001502693374</v>
+        <v>0.0662151567433982</v>
       </c>
       <c r="N106" t="n">
-        <v>1.297291327306265</v>
+        <v>1.337196201225195</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03145711695754751</v>
+        <v>0.06645147295542887</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1620103646137316</v>
+        <v>0.1662157268034008</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03257758797602599</v>
+        <v>0.06699941869304586</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6468938305969727</v>
+        <v>0.6653123101466545</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03314112210938943</v>
+        <v>0.06792653867519859</v>
       </c>
       <c r="L107" t="n">
-        <v>0.9719801873706534</v>
+        <v>0.9953807944348939</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03244245441783456</v>
+        <v>0.06783016056640791</v>
       </c>
       <c r="N107" t="n">
-        <v>1.28116191924197</v>
+        <v>1.324872044283964</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03222436371260964</v>
+        <v>0.06807224058848811</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1590730183613612</v>
+        <v>0.1682612657470534</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03335324483259803</v>
+        <v>0.06859464294764218</v>
       </c>
       <c r="J108" t="n">
-        <v>0.6437320003534488</v>
+        <v>0.668372662456853</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03393019644532727</v>
+        <v>0.06954383721508427</v>
       </c>
       <c r="L108" t="n">
-        <v>0.955929090925178</v>
+        <v>0.9931494036670917</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03321489380873538</v>
+        <v>0.06944516438941763</v>
       </c>
       <c r="N108" t="n">
-        <v>1.274881433405507</v>
+        <v>1.318553924401958</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03299161046767178</v>
+        <v>0.06969300822154735</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1611224108736803</v>
+        <v>0.1652803372725418</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03412890168917008</v>
+        <v>0.07018986720223852</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6387605064363809</v>
+        <v>0.6630719282712189</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03471927078126512</v>
+        <v>0.07116113575496995</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9552106082021418</v>
+        <v>0.9874874459710609</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0339873331996362</v>
+        <v>0.07106016821242733</v>
       </c>
       <c r="N109" t="n">
-        <v>1.264636286244956</v>
+        <v>1.321596645143513</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03375885722273392</v>
+        <v>0.07131377585460659</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1651734131970007</v>
+        <v>0.1692799252419046</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03490455854574213</v>
+        <v>0.07178509145683484</v>
       </c>
       <c r="J110" t="n">
-        <v>0.637976253985387</v>
+        <v>0.6610375625842917</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03550834511720297</v>
+        <v>0.07277843429485563</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9516262454139163</v>
+        <v>0.9756357009749069</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03475977259053703</v>
+        <v>0.07267517203543705</v>
       </c>
       <c r="N110" t="n">
-        <v>1.260712894208394</v>
+        <v>1.307055010072961</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03452610397779605</v>
+        <v>0.07293454348766584</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1522408963776341</v>
+        <v>0.1572670135171799</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03568021540231417</v>
+        <v>0.07338031571143118</v>
       </c>
       <c r="J111" t="n">
-        <v>0.6314761481400847</v>
+        <v>0.6569970203906108</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03629741945314081</v>
+        <v>0.07439573283474131</v>
       </c>
       <c r="L111" t="n">
-        <v>0.9381775087728731</v>
+        <v>0.9714349483067352</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03553221198143785</v>
+        <v>0.07429017585844677</v>
       </c>
       <c r="N111" t="n">
-        <v>1.2559976737439</v>
+        <v>1.299583822754638</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03529335073285818</v>
+        <v>0.07455531112072507</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1663397314618922</v>
+        <v>0.1622485859604062</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03645587225888623</v>
+        <v>0.0749755399660275</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6302570940400917</v>
+        <v>0.6506777566847161</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03708649378907865</v>
+        <v>0.07601303137462699</v>
       </c>
       <c r="L112" t="n">
-        <v>0.936565904491384</v>
+        <v>0.9728259675946508</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03630465137233867</v>
+        <v>0.07590517968145646</v>
       </c>
       <c r="N112" t="n">
-        <v>1.241577041299551</v>
+        <v>1.292937886752876</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03606059748792032</v>
+        <v>0.07617607875378431</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1664847894960869</v>
+        <v>0.1692316264336217</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03723152911545827</v>
+        <v>0.07657076422062384</v>
       </c>
       <c r="J113" t="n">
-        <v>0.6278159968250259</v>
+        <v>0.6502072264611463</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03787556812501649</v>
+        <v>0.07763032991451267</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9309929387818198</v>
+        <v>0.9666495384667592</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03707709076323949</v>
+        <v>0.07752018350446618</v>
       </c>
       <c r="N113" t="n">
-        <v>1.242837413323425</v>
+        <v>1.290072005632011</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03682784424298245</v>
+        <v>0.07779684638684356</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1606909415265299</v>
+        <v>0.166223118798865</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03800718597203032</v>
+        <v>0.07816598847522017</v>
       </c>
       <c r="J114" t="n">
-        <v>0.6295497616345048</v>
+        <v>0.6401128847144416</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03866464246095434</v>
+        <v>0.07924762845439835</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9326601178565525</v>
+        <v>0.9620464405511661</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03784953015414032</v>
+        <v>0.07913518732747589</v>
       </c>
       <c r="N114" t="n">
-        <v>1.241665206263602</v>
+        <v>1.280740982956376</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03759509099804459</v>
+        <v>0.0794176140199028</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1499730585995329</v>
+        <v>0.1632011558170653</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03878284282860236</v>
+        <v>0.0797612127298165</v>
       </c>
       <c r="J115" t="n">
-        <v>0.6221552936081463</v>
+        <v>0.6385221864391409</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03945371679689218</v>
+        <v>0.08086492699428403</v>
       </c>
       <c r="L115" t="n">
-        <v>0.928368947927953</v>
+        <v>0.9523574534759766</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03862196954504114</v>
+        <v>0.08075019115048561</v>
       </c>
       <c r="N115" t="n">
-        <v>1.238431847065071</v>
+        <v>1.274999622290305</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03836233775310673</v>
+        <v>0.08103838165296204</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1663460117614076</v>
+        <v>0.1530439899495421</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03955849968517441</v>
+        <v>0.08135643698441282</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6278294978855682</v>
+        <v>0.6370625866297842</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04024279113283002</v>
+        <v>0.08248222553416971</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9322976374328215</v>
+        <v>0.9419233568692961</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03939440893594196</v>
+        <v>0.08236519497349533</v>
       </c>
       <c r="N116" t="n">
-        <v>1.24108350872485</v>
+        <v>1.259802727198133</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03912958450816886</v>
+        <v>0.08265914928602128</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1638246720584659</v>
+        <v>0.1617567030302032</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04033415654174646</v>
+        <v>0.08295166123900916</v>
       </c>
       <c r="J117" t="n">
-        <v>0.6220564803619655</v>
+        <v>0.6336652389593462</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04103186546876787</v>
+        <v>0.0840995240740554</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9330358076120643</v>
+        <v>0.9363056626207339</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04016684832684279</v>
+        <v>0.08398019879650503</v>
       </c>
       <c r="N117" t="n">
-        <v>1.2368705962999</v>
+        <v>1.254274656747826</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03989683126323099</v>
+        <v>0.08427991691908052</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1524239105370194</v>
+        <v>0.161362049316387</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04110981339831851</v>
+        <v>0.08454688549360549</v>
       </c>
       <c r="J118" t="n">
-        <v>0.6241970171189839</v>
+        <v>0.6247543822838558</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04182093980470571</v>
+        <v>0.08571682261394108</v>
       </c>
       <c r="L118" t="n">
-        <v>0.9319484764233904</v>
+        <v>0.9349677095499181</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04093928771774361</v>
+        <v>0.08559520261951475</v>
       </c>
       <c r="N118" t="n">
-        <v>1.235063862936444</v>
+        <v>1.250460689579642</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04066407801829313</v>
+        <v>0.08590068455213977</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1551585982433799</v>
+        <v>0.1628827830654321</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04188547025489055</v>
+        <v>0.08614210974820181</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6288009887510909</v>
+        <v>0.6209371830310134</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04261001414064355</v>
+        <v>0.08733412115382676</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9305028388637314</v>
+        <v>0.9267041663717061</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04171172710864443</v>
+        <v>0.08721020644252446</v>
       </c>
       <c r="N119" t="n">
-        <v>1.243134061780703</v>
+        <v>1.237782364686847</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04143132477335526</v>
+        <v>0.08752145218519899</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1540436062238593</v>
+        <v>0.144341658534677</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0426611271114626</v>
+        <v>0.08773733400279815</v>
       </c>
       <c r="J120" t="n">
-        <v>0.6267280345105009</v>
+        <v>0.6193030928548674</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04339908847658139</v>
+        <v>0.08895141969371244</v>
       </c>
       <c r="L120" t="n">
-        <v>0.9418660899300196</v>
+        <v>0.9178478979890662</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04248416649954525</v>
+        <v>0.08882521026553417</v>
       </c>
       <c r="N120" t="n">
-        <v>1.2463519459789</v>
+        <v>1.230018238632996</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0421985715284174</v>
+        <v>0.08914221981825823</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1620967478320484</v>
+        <v>0.14476142998146</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04343678396803465</v>
+        <v>0.08933255825739447</v>
       </c>
       <c r="J121" t="n">
-        <v>0.632337793649429</v>
+        <v>0.6087415634094667</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04418816281251924</v>
+        <v>0.09056871823359812</v>
       </c>
       <c r="L121" t="n">
-        <v>0.937105424619186</v>
+        <v>0.9061317693049683</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04325660589044608</v>
+        <v>0.09044021408854389</v>
       </c>
       <c r="N121" t="n">
-        <v>1.254288268677259</v>
+        <v>1.210846867981646</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04296581828347953</v>
+        <v>0.09076298745131749</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1633229827182637</v>
+        <v>0.1421648516631197</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04421244082460669</v>
+        <v>0.09092778251199081</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6306899054200896</v>
+        <v>0.6025420463488596</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04497723714845708</v>
+        <v>0.0921860167734838</v>
       </c>
       <c r="L122" t="n">
-        <v>0.9462880379281623</v>
+        <v>0.8971886452223817</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0440290452813469</v>
+        <v>0.09205521791155359</v>
       </c>
       <c r="N122" t="n">
-        <v>1.244913783022</v>
+        <v>1.207446809296355</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04373306503854166</v>
+        <v>0.09238375508437673</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1547073533849445</v>
+        <v>0.1515746778369945</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04498809768117874</v>
+        <v>0.09252300676658713</v>
       </c>
       <c r="J123" t="n">
-        <v>0.632044009074698</v>
+        <v>0.5962939933270947</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04576631148439493</v>
+        <v>0.09380331531336948</v>
       </c>
       <c r="L123" t="n">
-        <v>0.94138112485388</v>
+        <v>0.8879513906442756</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04480148467224773</v>
+        <v>0.09367022173456331</v>
       </c>
       <c r="N123" t="n">
-        <v>1.255899242159347</v>
+        <v>1.197296619140679</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04450031179360379</v>
+        <v>0.09400452271743596</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1632344759758991</v>
+        <v>0.1550136627604229</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04576375453775079</v>
+        <v>0.09411823102118347</v>
       </c>
       <c r="J124" t="n">
-        <v>0.6361597438654688</v>
+        <v>0.5943868559982202</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04655538582033277</v>
+        <v>0.09542061385325516</v>
       </c>
       <c r="L124" t="n">
-        <v>0.9512518803932714</v>
+        <v>0.8853528704736194</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04557392406314855</v>
+        <v>0.09528522555757302</v>
       </c>
       <c r="N124" t="n">
-        <v>1.258115399235522</v>
+        <v>1.172774854078175</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04526755854866593</v>
+        <v>0.0956252903504952</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1668889666349356</v>
+        <v>0.1395045606907434</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04653941139432283</v>
+        <v>0.09571345527577979</v>
       </c>
       <c r="J125" t="n">
-        <v>0.638496749044617</v>
+        <v>0.5885100860162849</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04734446015627061</v>
+        <v>0.09703791239314084</v>
       </c>
       <c r="L125" t="n">
-        <v>0.9529674995432668</v>
+        <v>0.8741259496133819</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04634636345404937</v>
+        <v>0.09690022938058274</v>
       </c>
       <c r="N125" t="n">
-        <v>1.265133007396748</v>
+        <v>1.172860070672401</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04603480530372807</v>
+        <v>0.09724605798355444</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1616554415058625</v>
+        <v>0.1450643330543361</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04731506825089488</v>
+        <v>0.09730867953037613</v>
       </c>
       <c r="J126" t="n">
-        <v>0.6404146638643571</v>
+        <v>0.579353135035337</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04813353449220845</v>
+        <v>0.09865521093302652</v>
       </c>
       <c r="L126" t="n">
-        <v>0.9610951773007986</v>
+        <v>0.8658034929665334</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04711880284495019</v>
+        <v>0.09851523320359244</v>
       </c>
       <c r="N126" t="n">
-        <v>1.266022819789247</v>
+        <v>1.159730825486913</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0468020520587902</v>
+        <v>0.09886682561661368</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1665185167324879</v>
+        <v>0.1495466480279732</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04809072510746693</v>
+        <v>0.09890390378497245</v>
       </c>
       <c r="J127" t="n">
-        <v>0.6469731275769043</v>
+        <v>0.5767054547094255</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04892260882814631</v>
+        <v>0.1002725094729122</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9647021086627982</v>
+        <v>0.8514183654360422</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04789124223585101</v>
+        <v>0.1001302370266021</v>
       </c>
       <c r="N127" t="n">
-        <v>1.277555589559242</v>
+        <v>1.149165675085267</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04756929881385234</v>
+        <v>0.1004875932496729</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1634628084586202</v>
+        <v>0.1389033301983193</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04886638196403897</v>
+        <v>0.1004991280395688</v>
       </c>
       <c r="J128" t="n">
-        <v>0.6531317794344733</v>
+        <v>0.5717036602232809</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04971168316408415</v>
+        <v>0.1018898080127979</v>
       </c>
       <c r="L128" t="n">
-        <v>0.966755488626197</v>
+        <v>0.8455041415454506</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04866368162675184</v>
+        <v>0.1017452408496119</v>
       </c>
       <c r="N128" t="n">
-        <v>1.281302069852955</v>
+        <v>1.136342020540858</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04833654556891447</v>
+        <v>0.1021083608827322</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1684729328280675</v>
+        <v>0.1471669522914202</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04964203882061102</v>
+        <v>0.1020943522941651</v>
       </c>
       <c r="J129" t="n">
-        <v>0.6563502586892789</v>
+        <v>0.5638323609435894</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05050075750002199</v>
+        <v>0.1035071065526836</v>
       </c>
       <c r="L129" t="n">
-        <v>0.9719225121879275</v>
+        <v>0.8346089779648181</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04943612101765266</v>
+        <v>0.1033602446726216</v>
       </c>
       <c r="N129" t="n">
-        <v>1.288033013816609</v>
+        <v>1.118591873156561</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0491037923239766</v>
+        <v>0.1037291285157914</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1565335059846383</v>
+        <v>0.1403700870333217</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05041769567718307</v>
+        <v>0.1036895765487614</v>
       </c>
       <c r="J130" t="n">
-        <v>0.6609882045935358</v>
+        <v>0.5599905744146975</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05128983183595983</v>
+        <v>0.1051244050925692</v>
       </c>
       <c r="L130" t="n">
-        <v>0.9754703743449201</v>
+        <v>0.8326504773501312</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05020856040855348</v>
+        <v>0.1049752484956313</v>
       </c>
       <c r="N130" t="n">
-        <v>1.286219174596425</v>
+        <v>1.1078307274213</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04987103907903874</v>
+        <v>0.1053498961488506</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1626291440721407</v>
+        <v>0.1405453071500699</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05119335253375511</v>
+        <v>0.1052848008033578</v>
       </c>
       <c r="J131" t="n">
-        <v>0.6607052563994591</v>
+        <v>0.5520063507055806</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05207890617189768</v>
+        <v>0.1067417036324549</v>
       </c>
       <c r="L131" t="n">
-        <v>0.9825662700941068</v>
+        <v>0.8228188358489129</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05098099979945431</v>
+        <v>0.106590252318641</v>
       </c>
       <c r="N131" t="n">
-        <v>1.285331305338627</v>
+        <v>1.091414187108114</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05063828583410088</v>
+        <v>0.1069706637819099</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.161744463234383</v>
+        <v>0.1377251853677106</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05196900939032717</v>
+        <v>0.1068800250579541</v>
       </c>
       <c r="J132" t="n">
-        <v>0.6629610533592636</v>
+        <v>0.5440077398852138</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05286798050783552</v>
+        <v>0.1083590021723406</v>
       </c>
       <c r="L132" t="n">
-        <v>0.9833773944324192</v>
+        <v>0.8079042496086871</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05175343919035513</v>
+        <v>0.1082052561416507</v>
       </c>
       <c r="N132" t="n">
-        <v>1.297040159189437</v>
+        <v>1.081697855990046</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05140553258916301</v>
+        <v>0.1085914314149691</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1668640796151736</v>
+        <v>0.1219422944122897</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05274466624689921</v>
+        <v>0.1084752493125504</v>
       </c>
       <c r="J133" t="n">
-        <v>0.6653152347251639</v>
+        <v>0.5364227920225727</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05365705484377337</v>
+        <v>0.1099763007122263</v>
       </c>
       <c r="L133" t="n">
-        <v>0.9862709423567889</v>
+        <v>0.7946969147769768</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05252587858125595</v>
+        <v>0.1098202599646604</v>
       </c>
       <c r="N133" t="n">
-        <v>1.297916489295078</v>
+        <v>1.069837337840133</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05217277934422514</v>
+        <v>0.1102121990480284</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1699726093583206</v>
+        <v>0.1282292070098531</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05352032310347127</v>
+        <v>0.1100704735671468</v>
       </c>
       <c r="J134" t="n">
-        <v>0.674027439749375</v>
+        <v>0.5273795571866327</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0544461291797112</v>
+        <v>0.111593599252112</v>
       </c>
       <c r="L134" t="n">
-        <v>0.9885141088641477</v>
+        <v>0.783787027501306</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05329831797215678</v>
+        <v>0.1114352637876701</v>
       </c>
       <c r="N134" t="n">
-        <v>1.307231048801772</v>
+        <v>1.056488236431417</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05294002609928728</v>
+        <v>0.1118329666810876</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1770546686076324</v>
+        <v>0.1266184958864468</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0542959799600433</v>
+        <v>0.1116656978217431</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6715573076841118</v>
+        <v>0.5237060854463691</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05523520351564905</v>
+        <v>0.1132108977919976</v>
       </c>
       <c r="L135" t="n">
-        <v>0.992974088951427</v>
+        <v>0.7819647839291982</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05407075736305759</v>
+        <v>0.1130502676106798</v>
       </c>
       <c r="N135" t="n">
-        <v>1.317654590855741</v>
+        <v>1.037606155536937</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05370727285434942</v>
+        <v>0.1134537343141469</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1770948735069173</v>
+        <v>0.1321427337681167</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05507163681661536</v>
+        <v>0.1132609220763394</v>
       </c>
       <c r="J136" t="n">
-        <v>0.6803644777815889</v>
+        <v>0.5188304268707574</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0560242778515869</v>
+        <v>0.1148281963318833</v>
       </c>
       <c r="L136" t="n">
-        <v>1.002918077615558</v>
+        <v>0.7701203802081761</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05484319675395842</v>
+        <v>0.1146652714336896</v>
       </c>
       <c r="N136" t="n">
-        <v>1.318357868603208</v>
+        <v>1.026046698929735</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05447451960941155</v>
+        <v>0.1150745019472061</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1720778401999835</v>
+        <v>0.1328344933809086</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05584729367318739</v>
+        <v>0.1148561463309358</v>
       </c>
       <c r="J137" t="n">
-        <v>0.6825085892940214</v>
+        <v>0.5105806315287732</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05681335218752474</v>
+        <v>0.116445494871769</v>
       </c>
       <c r="L137" t="n">
-        <v>1.005413269853473</v>
+        <v>0.7599440124857645</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05561563614485924</v>
+        <v>0.1162802752566993</v>
       </c>
       <c r="N137" t="n">
-        <v>1.328711635190396</v>
+        <v>1.019265470382848</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05524176636447369</v>
+        <v>0.1166952695802653</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1769881848306392</v>
+        <v>0.1267263474508685</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05662295052975945</v>
+        <v>0.1164513705855321</v>
       </c>
       <c r="J138" t="n">
-        <v>0.678549281473624</v>
+        <v>0.5020847494893915</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05760242652346258</v>
+        <v>0.1180627934116547</v>
       </c>
       <c r="L138" t="n">
-        <v>1.006326860662103</v>
+        <v>0.7569258769094861</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05638807553576006</v>
+        <v>0.117895279079709</v>
       </c>
       <c r="N138" t="n">
-        <v>1.330286643763526</v>
+        <v>1.002318073669319</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05600901311953582</v>
+        <v>0.1183160372133246</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1748105235426928</v>
+        <v>0.1168508687040423</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0573986073863315</v>
+        <v>0.1180465948401284</v>
       </c>
       <c r="J139" t="n">
-        <v>0.6851461935726115</v>
+        <v>0.5004708308215878</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05839150085940042</v>
+        <v>0.1196800919515404</v>
       </c>
       <c r="L139" t="n">
-        <v>1.015326045038381</v>
+        <v>0.7463561696268645</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05716051492666088</v>
+        <v>0.1195102829027187</v>
       </c>
       <c r="N139" t="n">
-        <v>1.340653647468822</v>
+        <v>0.9928601125621865</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05677625987459795</v>
+        <v>0.1199368048463838</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1785294724799525</v>
+        <v>0.1142406298664759</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05817426424290354</v>
+        <v>0.1196418190947247</v>
       </c>
       <c r="J140" t="n">
-        <v>0.6851589648431988</v>
+        <v>0.4957669255943375</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05918057519533827</v>
+        <v>0.121297390491426</v>
       </c>
       <c r="L140" t="n">
-        <v>1.010778017979236</v>
+        <v>0.7435250867854236</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05793295431756171</v>
+        <v>0.1211252867257284</v>
       </c>
       <c r="N140" t="n">
-        <v>1.342683399452506</v>
+        <v>0.9855471908344913</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05754350662966009</v>
+        <v>0.1215575724794431</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1811296477862268</v>
+        <v>0.1179282036642151</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05894992109947559</v>
+        <v>0.1212370433493211</v>
       </c>
       <c r="J141" t="n">
-        <v>0.6879472345376009</v>
+        <v>0.4940010838766162</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05996964953127612</v>
+        <v>0.1229146890313117</v>
       </c>
       <c r="L141" t="n">
-        <v>1.020849974481601</v>
+        <v>0.737622824532686</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05870539370846253</v>
+        <v>0.1227402905487381</v>
       </c>
       <c r="N141" t="n">
-        <v>1.348446652860799</v>
+        <v>0.9802349122592733</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05831075338472223</v>
+        <v>0.1231783401125023</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1815956656053235</v>
+        <v>0.1299009416165351</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05972557795604763</v>
+        <v>0.1228322676039174</v>
       </c>
       <c r="J142" t="n">
-        <v>0.6906090038098344</v>
+        <v>0.4896013557373992</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06075872386721395</v>
+        <v>0.1245319875711974</v>
       </c>
       <c r="L142" t="n">
-        <v>1.020709109542408</v>
+        <v>0.7359395790161759</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05947783309936336</v>
+        <v>0.1243552943717478</v>
       </c>
       <c r="N142" t="n">
-        <v>1.356414160839926</v>
+        <v>0.9797788806095726</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05907800013978436</v>
+        <v>0.1247991077455615</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1719121420810514</v>
+        <v>0.1189522664488518</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06050123481261969</v>
+        <v>0.1244274918585137</v>
       </c>
       <c r="J143" t="n">
-        <v>0.6891079476625646</v>
+        <v>0.4933957912456617</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0615477982031518</v>
+        <v>0.1261492861110831</v>
       </c>
       <c r="L143" t="n">
-        <v>1.024422618158588</v>
+        <v>0.7365636564966743</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06025027249026418</v>
+        <v>0.1259702981947576</v>
       </c>
       <c r="N143" t="n">
-        <v>1.357456676536109</v>
+        <v>0.9661346996584299</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05984524689484649</v>
+        <v>0.1264198753786208</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1830677638454191</v>
+        <v>0.1160502097474138</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06127689166919174</v>
+        <v>0.1260227161131101</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6869864004715718</v>
+        <v>0.489859145745533</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06233687253908964</v>
+        <v>0.1277665846509688</v>
       </c>
       <c r="L144" t="n">
-        <v>1.030158510097594</v>
+        <v>0.7296197779328472</v>
       </c>
       <c r="M144" t="n">
-        <v>0.061022711881165</v>
+        <v>0.1275853020177673</v>
       </c>
       <c r="N144" t="n">
-        <v>1.363544953095569</v>
+        <v>0.9734143921846206</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06061249364990863</v>
+        <v>0.12804064301168</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1771144364068348</v>
+        <v>0.1221923780801762</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06205254852576378</v>
+        <v>0.1276179403677064</v>
       </c>
       <c r="J145" t="n">
-        <v>0.6852377865288599</v>
+        <v>0.4878182304591946</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06312594687502748</v>
+        <v>0.1293838831908544</v>
       </c>
       <c r="L145" t="n">
-        <v>1.029860508674412</v>
+        <v>0.7272515117254695</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06179515127206582</v>
+        <v>0.129200305840777</v>
       </c>
       <c r="N145" t="n">
-        <v>1.369708016385353</v>
+        <v>0.9738359069578348</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06137974040497076</v>
+        <v>0.1296614106447393</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1781626597484015</v>
+        <v>0.1143763780150947</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06282820538233583</v>
+        <v>0.1292131646223027</v>
       </c>
       <c r="J146" t="n">
-        <v>0.6838630401274849</v>
+        <v>0.4918548016000682</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06391502121096533</v>
+        <v>0.1310011817307401</v>
       </c>
       <c r="L146" t="n">
-        <v>1.029334352003384</v>
+        <v>0.7328448823309038</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06256759066296665</v>
+        <v>0.1308153096637867</v>
       </c>
       <c r="N146" t="n">
-        <v>1.367754579741002</v>
+        <v>0.9679157321144953</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06214698716003288</v>
+        <v>0.1312821782777985</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1772087695057259</v>
+        <v>0.1145998161201244</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06360386223890786</v>
+        <v>0.1308083888768991</v>
       </c>
       <c r="J147" t="n">
-        <v>0.6857630955605035</v>
+        <v>0.4931594500957303</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06470409554690318</v>
+        <v>0.1326184802706258</v>
       </c>
       <c r="L147" t="n">
-        <v>1.024207471080439</v>
+        <v>0.7291859142055125</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06334003005386747</v>
+        <v>0.1324303134867964</v>
       </c>
       <c r="N147" t="n">
-        <v>1.373970060582987</v>
+        <v>0.9693350859824672</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06291423391509503</v>
+        <v>0.1329029459108577</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1732527244331025</v>
+        <v>0.1278602989632207</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06437951909547993</v>
+        <v>0.1324036131314954</v>
       </c>
       <c r="J148" t="n">
-        <v>0.6866388871209715</v>
+        <v>0.4949227668737567</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06549316988284103</v>
+        <v>0.1342357788105115</v>
       </c>
       <c r="L148" t="n">
-        <v>1.035473707172424</v>
+        <v>0.7313606318056579</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0641124694447683</v>
+        <v>0.1340453173098061</v>
       </c>
       <c r="N148" t="n">
-        <v>1.380467544752655</v>
+        <v>0.9730751868896161</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06368148067015715</v>
+        <v>0.134523713543917</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1772944832848257</v>
+        <v>0.123155433112339</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06515517595205197</v>
+        <v>0.1339988373860917</v>
       </c>
       <c r="J149" t="n">
-        <v>0.6857913491019456</v>
+        <v>0.4967353428617239</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06628224421877886</v>
+        <v>0.1358530773503972</v>
       </c>
       <c r="L149" t="n">
-        <v>1.031826901546188</v>
+        <v>0.7334550595877024</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06488490883566912</v>
+        <v>0.1356603211328158</v>
       </c>
       <c r="N149" t="n">
-        <v>1.380217305808664</v>
+        <v>0.9736172531638068</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06444872742521929</v>
+        <v>0.1361444811769762</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1713340048151898</v>
+        <v>0.1314828251354347</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06593083280862401</v>
+        <v>0.135594061640688</v>
       </c>
       <c r="J150" t="n">
-        <v>0.6853214157964816</v>
+        <v>0.4962877689872082</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06707131855471671</v>
+        <v>0.1374703758902829</v>
       </c>
       <c r="L150" t="n">
-        <v>1.029460895468579</v>
+        <v>0.7394552220080083</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06565734822656993</v>
+        <v>0.1372753249558255</v>
       </c>
       <c r="N150" t="n">
-        <v>1.381389617309669</v>
+        <v>0.9742425031329052</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06521597418028142</v>
+        <v>0.1377652488100355</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1803712477784895</v>
+        <v>0.118840081600463</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06670648966519606</v>
+        <v>0.1371892858952844</v>
       </c>
       <c r="J151" t="n">
-        <v>0.6894300214976363</v>
+        <v>0.4937706361777858</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06786039289065454</v>
+        <v>0.1390876744301685</v>
       </c>
       <c r="L151" t="n">
-        <v>1.037069530206447</v>
+        <v>0.7427471435229379</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06642978761747076</v>
+        <v>0.1388903287788353</v>
       </c>
       <c r="N151" t="n">
-        <v>1.386654752814327</v>
+        <v>0.987232155124776</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06598322093534356</v>
+        <v>0.1393860164430947</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1764061709290189</v>
+        <v>0.1242248090753794</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06748214652176811</v>
+        <v>0.1387845101498807</v>
       </c>
       <c r="J152" t="n">
-        <v>0.6874181004984655</v>
+        <v>0.4960745353610329</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06864946722659239</v>
+        <v>0.1407049729700542</v>
       </c>
       <c r="L152" t="n">
-        <v>1.035146647026638</v>
+        <v>0.7378168485888538</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06720222700837158</v>
+        <v>0.1405053326018449</v>
       </c>
       <c r="N152" t="n">
-        <v>1.394082985881293</v>
+        <v>0.9849674274672851</v>
       </c>
       <c r="O152" t="n">
-        <v>0.0667504676904057</v>
+        <v>0.1410067840761539</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1704387330210726</v>
+        <v>0.1236346141281391</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06825780337834016</v>
+        <v>0.140379734404477</v>
       </c>
       <c r="J153" t="n">
-        <v>0.6876865870920258</v>
+        <v>0.4982900574645257</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06943854156253024</v>
+        <v>0.1423222715099399</v>
       </c>
       <c r="L153" t="n">
-        <v>1.037886087196002</v>
+        <v>0.7484503616621182</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06797466639927241</v>
+        <v>0.1421203364248547</v>
       </c>
       <c r="N153" t="n">
-        <v>1.405644590069224</v>
+        <v>0.9819295384882973</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06751771444546784</v>
+        <v>0.1426275517092132</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.166468892808945</v>
+        <v>0.124077828539385</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06903346023491221</v>
+        <v>0.1419749586590734</v>
       </c>
       <c r="J154" t="n">
-        <v>0.6847364155713734</v>
+        <v>0.4993077934158405</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07022761589846808</v>
+        <v>0.1439395700498256</v>
       </c>
       <c r="L154" t="n">
-        <v>1.037481691981389</v>
+        <v>0.7422337071990933</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06874710579017322</v>
+        <v>0.1437353402478644</v>
       </c>
       <c r="N154" t="n">
-        <v>1.405409838936775</v>
+        <v>0.9844997065156784</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06828496120052996</v>
+        <v>0.1442483193422724</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1694966090469305</v>
+        <v>0.1258260082298402</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06980911709148425</v>
+        <v>0.1435701829136697</v>
       </c>
       <c r="J155" t="n">
-        <v>0.6825685202295645</v>
+        <v>0.4987183341425536</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07101669023440593</v>
+        <v>0.1455568685897113</v>
       </c>
       <c r="L155" t="n">
-        <v>1.040927302649644</v>
+        <v>0.7475529096561416</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06951954518107406</v>
+        <v>0.1453503440708741</v>
       </c>
       <c r="N155" t="n">
-        <v>1.403749006042602</v>
+        <v>0.9971591498772931</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0690522079555921</v>
+        <v>0.1458690869753317</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1835218404893236</v>
+        <v>0.1329447432851948</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0705847739480563</v>
+        <v>0.145165407168266</v>
       </c>
       <c r="J156" t="n">
-        <v>0.6845838353596553</v>
+        <v>0.5059333889804075</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07180576457034377</v>
+        <v>0.1471741671295969</v>
       </c>
       <c r="L156" t="n">
-        <v>1.042216760467619</v>
+        <v>0.7473108721688843</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07029198457197487</v>
+        <v>0.1469653478938838</v>
       </c>
       <c r="N156" t="n">
-        <v>1.408932364945363</v>
+        <v>0.9997773680174757</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06981945471065423</v>
+        <v>0.1474898546083909</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1665445458904187</v>
+        <v>0.1213617817687752</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07136043080462834</v>
+        <v>0.1467606314228624</v>
       </c>
       <c r="J157" t="n">
-        <v>0.6861832952547022</v>
+        <v>0.5104553486316583</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07259483890628161</v>
+        <v>0.1487914656694826</v>
       </c>
       <c r="L157" t="n">
-        <v>1.03984390670216</v>
+        <v>0.7531267469480848</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0710644239628757</v>
+        <v>0.1485803517168935</v>
       </c>
       <c r="N157" t="n">
-        <v>1.422630189203712</v>
+        <v>1.005004296051212</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07058670146571637</v>
+        <v>0.1491106222414501</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1675646840045101</v>
+        <v>0.1330048717439075</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07213608766120039</v>
+        <v>0.1483558556774587</v>
       </c>
       <c r="J158" t="n">
-        <v>0.6857678342077617</v>
+        <v>0.5155686498882464</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07338391324221945</v>
+        <v>0.1504087642093683</v>
       </c>
       <c r="L158" t="n">
-        <v>1.050002582620116</v>
+        <v>0.7702992697229237</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07183686335377652</v>
+        <v>0.1501953555399032</v>
       </c>
       <c r="N158" t="n">
-        <v>1.425712752376306</v>
+        <v>1.02013323426317</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07135394822077851</v>
+        <v>0.1507313898745094</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1695822135858923</v>
+        <v>0.140801761273918</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07291174451777245</v>
+        <v>0.149951079932055</v>
       </c>
       <c r="J159" t="n">
-        <v>0.6834383865118897</v>
+        <v>0.5166892555633046</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0741729875781573</v>
+        <v>0.152026062749254</v>
       </c>
       <c r="L159" t="n">
-        <v>1.048286629488337</v>
+        <v>0.7768065525621576</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07260930274467735</v>
+        <v>0.1518103593629129</v>
       </c>
       <c r="N159" t="n">
-        <v>1.428150328021801</v>
+        <v>1.020897209302787</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07212119497584064</v>
+        <v>0.1523521575075686</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1715970933888598</v>
+        <v>0.1426801984221329</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07368740137434449</v>
+        <v>0.1515463041866514</v>
       </c>
       <c r="J160" t="n">
-        <v>0.6859958864601425</v>
+        <v>0.5223331284699657</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07496206191409514</v>
+        <v>0.1536433612891397</v>
       </c>
       <c r="L160" t="n">
-        <v>1.05248988857367</v>
+        <v>0.782626707534544</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07338174213557816</v>
+        <v>0.1534253631859227</v>
       </c>
       <c r="N160" t="n">
-        <v>1.436313189698852</v>
+        <v>1.032929247819498</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07288844173090277</v>
+        <v>0.1539729251406279</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1696092821677069</v>
+        <v>0.1315679312518786</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07446305823091653</v>
+        <v>0.1531415284412477</v>
       </c>
       <c r="J161" t="n">
-        <v>0.6816412683455766</v>
+        <v>0.5330162314213623</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07575113625003298</v>
+        <v>0.1552606598290253</v>
       </c>
       <c r="L161" t="n">
-        <v>1.053606201142963</v>
+        <v>0.7956378467088389</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07415418152647898</v>
+        <v>0.1550403670089324</v>
       </c>
       <c r="N161" t="n">
-        <v>1.441371610966117</v>
+        <v>1.047062376462739</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0736556884859649</v>
+        <v>0.1555936927736871</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1766187386767282</v>
+        <v>0.1303927078264812</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07523871508748858</v>
+        <v>0.154736752695844</v>
       </c>
       <c r="J162" t="n">
-        <v>0.6812754664612481</v>
+        <v>0.5361545272306271</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07654021058597082</v>
+        <v>0.156877958368911</v>
       </c>
       <c r="L162" t="n">
-        <v>1.047729408463066</v>
+        <v>0.8078180821537996</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07492662091737982</v>
+        <v>0.1566553708319421</v>
       </c>
       <c r="N162" t="n">
-        <v>1.44629586538225</v>
+        <v>1.071629621881945</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07442293524102704</v>
+        <v>0.1572144604067463</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.172625421670218</v>
+        <v>0.136082276209267</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07601437194406063</v>
+        <v>0.1563319769504403</v>
       </c>
       <c r="J163" t="n">
-        <v>0.6796994151002135</v>
+        <v>0.5480639787108929</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07732928492190867</v>
+        <v>0.1584952569087967</v>
       </c>
       <c r="L163" t="n">
-        <v>1.051653351800827</v>
+        <v>0.8154455259381822</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07569906030828064</v>
+        <v>0.1582703746549518</v>
       </c>
       <c r="N163" t="n">
-        <v>1.445856226505908</v>
+        <v>1.083364010726551</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07519018199608918</v>
+        <v>0.1588352280398056</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1826292899024706</v>
+        <v>0.1425643844635622</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07679002880063268</v>
+        <v>0.1579272012050366</v>
       </c>
       <c r="J164" t="n">
-        <v>0.6796140485555288</v>
+        <v>0.5545605486752919</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07811835925784652</v>
+        <v>0.1601125554486824</v>
       </c>
       <c r="L164" t="n">
-        <v>1.050671872423094</v>
+        <v>0.8238982901307444</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07647149969918146</v>
+        <v>0.1598853784779615</v>
       </c>
       <c r="N164" t="n">
-        <v>1.442022967895747</v>
+        <v>1.095198569645994</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07595742875115132</v>
+        <v>0.1604559956728648</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1736300564930552</v>
+        <v>0.1458915553535941</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07756568565720472</v>
+        <v>0.159522425459633</v>
       </c>
       <c r="J165" t="n">
-        <v>0.6816203011202503</v>
+        <v>0.5606601999369573</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07890743359378437</v>
+        <v>0.1617298539885681</v>
       </c>
       <c r="L165" t="n">
-        <v>1.051278811596716</v>
+        <v>0.8373544868002428</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07724393909008227</v>
+        <v>0.1615003823009712</v>
       </c>
       <c r="N165" t="n">
-        <v>1.449266363110423</v>
+        <v>1.102266325289708</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07672467550621345</v>
+        <v>0.1620767633059241</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1686138842334988</v>
+        <v>0.1381861638712299</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07834134251377678</v>
+        <v>0.1611176497142293</v>
       </c>
       <c r="J166" t="n">
-        <v>0.6807191070874347</v>
+        <v>0.5633586167802402</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0796965079297222</v>
+        <v>0.1633471525284537</v>
       </c>
       <c r="L166" t="n">
-        <v>1.05306801058854</v>
+        <v>0.8451060821971451</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07801637848098311</v>
+        <v>0.1631153861239809</v>
       </c>
       <c r="N166" t="n">
-        <v>1.450456685708593</v>
+        <v>1.118745976325977</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07749192226127559</v>
+        <v>0.1636975309389833</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1675733452081755</v>
+        <v>0.1474507221367054</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07911699937034881</v>
+        <v>0.1627128739688256</v>
       </c>
       <c r="J167" t="n">
-        <v>0.6792114007501376</v>
+        <v>0.5676522148478128</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08048558226566005</v>
+        <v>0.1649644510683394</v>
       </c>
       <c r="L167" t="n">
-        <v>1.048533310665417</v>
+        <v>0.8516188587978158</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07878881787188392</v>
+        <v>0.1647303899469907</v>
       </c>
       <c r="N167" t="n">
-        <v>1.460864209248912</v>
+        <v>1.121923158252857</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07825916901633771</v>
+        <v>0.1653182985720426</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1685091955876176</v>
+        <v>0.1436875221989147</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07989265622692086</v>
+        <v>0.164308098223422</v>
       </c>
       <c r="J168" t="n">
-        <v>0.6814981164014158</v>
+        <v>0.5735262497532675</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08127465660159788</v>
+        <v>0.1665817496082251</v>
       </c>
       <c r="L168" t="n">
-        <v>1.049968553094194</v>
+        <v>0.8526556373297208</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07956125726278475</v>
+        <v>0.1663453937700003</v>
       </c>
       <c r="N168" t="n">
-        <v>1.460859207290035</v>
+        <v>1.130558453901585</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07902641577139985</v>
+        <v>0.1669390662051018</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1794221915423581</v>
+        <v>0.1418988561067518</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08066831308349291</v>
+        <v>0.1659033224780183</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6782801883343254</v>
+        <v>0.5815897320110623</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08206373093753573</v>
+        <v>0.1681990481481108</v>
       </c>
       <c r="L169" t="n">
-        <v>1.04876757914172</v>
+        <v>0.8625298013478307</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08033369665368557</v>
+        <v>0.1679603975930101</v>
       </c>
       <c r="N169" t="n">
-        <v>1.46231195339062</v>
+        <v>1.147069849373306</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07979366252646199</v>
+        <v>0.168559833838161</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1703130892429291</v>
+        <v>0.1460870159091107</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08144396994006496</v>
+        <v>0.1674985467326147</v>
       </c>
       <c r="J170" t="n">
-        <v>0.6786585508419225</v>
+        <v>0.5814516721356551</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08285280527347358</v>
+        <v>0.1698163466879965</v>
       </c>
       <c r="L170" t="n">
-        <v>1.048361065356256</v>
+        <v>0.8716547344071152</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0811061360445864</v>
+        <v>0.1695754014160198</v>
       </c>
       <c r="N170" t="n">
-        <v>1.460492721109323</v>
+        <v>1.159175330769168</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08056090928152412</v>
+        <v>0.1701806014712203</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1651826448598635</v>
+        <v>0.1502542936548853</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08221962679663701</v>
+        <v>0.169093770987211</v>
       </c>
       <c r="J171" t="n">
-        <v>0.6825341382172638</v>
+        <v>0.5858210806415038</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08364187960941143</v>
+        <v>0.1714336452278822</v>
       </c>
       <c r="L171" t="n">
-        <v>1.056424936909536</v>
+        <v>0.8777438200625455</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08187857543548721</v>
+        <v>0.1711904052390295</v>
       </c>
       <c r="N171" t="n">
-        <v>1.456671784004798</v>
+        <v>1.168592884190318</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08132815603658626</v>
+        <v>0.1718013691042795</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1760316145636937</v>
+        <v>0.1584029813929696</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08299528365320905</v>
+        <v>0.1706889952418073</v>
       </c>
       <c r="J172" t="n">
-        <v>0.6756078847534052</v>
+        <v>0.5889069680430663</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08443095394534927</v>
+        <v>0.1730509437677678</v>
       </c>
       <c r="L172" t="n">
-        <v>1.055173302331796</v>
+        <v>0.8815104418690912</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08265101482638804</v>
+        <v>0.1728054090620392</v>
       </c>
       <c r="N172" t="n">
-        <v>1.452480069802172</v>
+        <v>1.174240495737903</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0820954027916484</v>
+        <v>0.1734221367373388</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1758607545249522</v>
+        <v>0.1445353711722577</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08377094050978111</v>
+        <v>0.1722842194964036</v>
       </c>
       <c r="J173" t="n">
-        <v>0.6768534349128322</v>
+        <v>0.5937183448548007</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08522002828128711</v>
+        <v>0.1746682423076535</v>
       </c>
       <c r="L173" t="n">
-        <v>1.050024476557085</v>
+        <v>0.8858679833817235</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08342345421728886</v>
+        <v>0.1744204128850489</v>
       </c>
       <c r="N173" t="n">
-        <v>1.451534933630003</v>
+        <v>1.17543615151307</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08286264954671052</v>
+        <v>0.175042904370398</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1786708209141716</v>
+        <v>0.1436537550416434</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08454659736635316</v>
+        <v>0.173879443751</v>
       </c>
       <c r="J174" t="n">
-        <v>0.6810930472763148</v>
+        <v>0.6044642215911645</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08600910261722496</v>
+        <v>0.1762855408475392</v>
       </c>
       <c r="L174" t="n">
-        <v>1.046796774519451</v>
+        <v>0.8973298281554124</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08419589360818969</v>
+        <v>0.1760354167080586</v>
       </c>
       <c r="N174" t="n">
-        <v>1.453668014808866</v>
+        <v>1.191897837616966</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08362989630177266</v>
+        <v>0.1766636720034573</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1764625699018845</v>
+        <v>0.1567604250500209</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08532225422292519</v>
+        <v>0.1754746680055963</v>
       </c>
       <c r="J175" t="n">
-        <v>0.6749292631948722</v>
+        <v>0.6031536087666161</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08679817695316279</v>
+        <v>0.1779028393874249</v>
       </c>
       <c r="L175" t="n">
-        <v>1.046208511152944</v>
+        <v>0.9070093597451289</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0849683329990905</v>
+        <v>0.1776504205310683</v>
       </c>
       <c r="N175" t="n">
-        <v>1.448214659081169</v>
+        <v>1.199343540150739</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08439714305683479</v>
+        <v>0.1782844396365165</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1702367576586234</v>
+        <v>0.1488654638300353</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08609791107949724</v>
+        <v>0.1770698922601926</v>
       </c>
       <c r="J176" t="n">
-        <v>0.6775703050598165</v>
+        <v>0.609495516895613</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08758725128910064</v>
+        <v>0.1795201379273106</v>
       </c>
       <c r="L176" t="n">
-        <v>1.046378001391612</v>
+        <v>0.9088199617058429</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08574077238999134</v>
+        <v>0.1792654243540781</v>
       </c>
       <c r="N176" t="n">
-        <v>1.449110212189322</v>
+        <v>1.212491245215534</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08516438981189693</v>
+        <v>0.1799052072695757</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.168994140354921</v>
+        <v>0.1540312271886139</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08687356793606929</v>
+        <v>0.1786651165147889</v>
       </c>
       <c r="J177" t="n">
-        <v>0.6747243952624588</v>
+        <v>0.6152060548162714</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08837632562503848</v>
+        <v>0.1811374364671962</v>
       </c>
       <c r="L177" t="n">
-        <v>1.040523560169505</v>
+        <v>0.9160034516866843</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08651321178089216</v>
+        <v>0.1808804281770878</v>
       </c>
       <c r="N177" t="n">
-        <v>1.449990019875734</v>
+        <v>1.217558941388898</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08593163656695905</v>
+        <v>0.181525974902635</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1687354741613096</v>
+        <v>0.1482390648246434</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08764922479264134</v>
+        <v>0.1802603407693853</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6751997561941102</v>
+        <v>0.6194150408169506</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08916539996097632</v>
+        <v>0.1827547350070819</v>
       </c>
       <c r="L178" t="n">
-        <v>1.046063502420671</v>
+        <v>0.9271184269381615</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08728565117179297</v>
+        <v>0.1824954320000975</v>
       </c>
       <c r="N178" t="n">
-        <v>1.446089427882816</v>
+        <v>1.219017432026684</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08669888332202119</v>
+        <v>0.1831467425356942</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1634615152483219</v>
+        <v>0.1614496033806766</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08842488164921339</v>
+        <v>0.1818555650239816</v>
       </c>
       <c r="J179" t="n">
-        <v>0.6716046102460824</v>
+        <v>0.6206161864374526</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08995447429691417</v>
+        <v>0.1843720335469676</v>
       </c>
       <c r="L179" t="n">
-        <v>1.04121614307916</v>
+        <v>0.9257911341061899</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0880580905626938</v>
+        <v>0.1841104358231072</v>
       </c>
       <c r="N179" t="n">
-        <v>1.442243781952976</v>
+        <v>1.23471554943544</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08746613007708333</v>
+        <v>0.1847675101687535</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1701730197864904</v>
+        <v>0.1616234694992663</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08920053850578542</v>
+        <v>0.1834507892785779</v>
       </c>
       <c r="J180" t="n">
-        <v>0.6733471798096873</v>
+        <v>0.6247547069314903</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09074354863285201</v>
+        <v>0.1859893320868533</v>
       </c>
       <c r="L180" t="n">
-        <v>1.041799797079019</v>
+        <v>0.9391916673213329</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08883052995359463</v>
+        <v>0.1857254396461169</v>
       </c>
       <c r="N180" t="n">
-        <v>1.437988427828624</v>
+        <v>1.240944324120057</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08823337683214545</v>
+        <v>0.1863882778018127</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1798707439463477</v>
+        <v>0.1617212898229653</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08997619536235749</v>
+        <v>0.1850460135331743</v>
       </c>
       <c r="J181" t="n">
-        <v>0.6716356872762357</v>
+        <v>0.6321758175527754</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09153262296878986</v>
+        <v>0.187606630626739</v>
       </c>
       <c r="L181" t="n">
-        <v>1.0308327793543</v>
+        <v>0.9420901207141531</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08960296934449545</v>
+        <v>0.1873404434691266</v>
       </c>
       <c r="N181" t="n">
-        <v>1.428958711252169</v>
+        <v>1.250194786585424</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08900062358720759</v>
+        <v>0.1880090454348719</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1625554438984264</v>
+        <v>0.1627036909943263</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09075185221892952</v>
+        <v>0.1866412377877706</v>
       </c>
       <c r="J182" t="n">
-        <v>0.672178355037039</v>
+        <v>0.6379247335550206</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09232169730472771</v>
+        <v>0.1892239291666246</v>
       </c>
       <c r="L182" t="n">
-        <v>1.034733404839049</v>
+        <v>0.9449565884152124</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09037540873539626</v>
+        <v>0.1889554472921363</v>
       </c>
       <c r="N182" t="n">
-        <v>1.42988997796602</v>
+        <v>1.260557967336432</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08976787034226973</v>
+        <v>0.1896298130679312</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1622278758132589</v>
+        <v>0.1625312996559021</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09152750907550157</v>
+        <v>0.1882364620423669</v>
       </c>
       <c r="J183" t="n">
-        <v>0.6681834054834093</v>
+        <v>0.6384466701919383</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09311077164066554</v>
+        <v>0.1908412277065103</v>
       </c>
       <c r="L183" t="n">
-        <v>1.032919988467317</v>
+        <v>0.9502611645550744</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0911478481262971</v>
+        <v>0.190570451115146</v>
       </c>
       <c r="N183" t="n">
-        <v>1.416317573712588</v>
+        <v>1.262024896877969</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09053511709733186</v>
+        <v>0.1912505807009904</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1768887958613778</v>
+        <v>0.1571647424502455</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09230316593207362</v>
+        <v>0.1898316862969633</v>
       </c>
       <c r="J184" t="n">
-        <v>0.6666590610066575</v>
+        <v>0.6451868427172408</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09389984597660339</v>
+        <v>0.192458526246396</v>
       </c>
       <c r="L184" t="n">
-        <v>1.029510845173151</v>
+        <v>0.9646739432643011</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09192028751719791</v>
+        <v>0.1921854549381558</v>
       </c>
       <c r="N184" t="n">
-        <v>1.408676844234281</v>
+        <v>1.270286605714925</v>
       </c>
       <c r="O184" t="n">
-        <v>0.091302363852394</v>
+        <v>0.1928713483340496</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1765389602133157</v>
+        <v>0.1636208838647556</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09307882278864567</v>
+        <v>0.1914269105515596</v>
       </c>
       <c r="J185" t="n">
-        <v>0.6693135439980952</v>
+        <v>0.6427904663846409</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09468892031254122</v>
+        <v>0.1940758247862817</v>
       </c>
       <c r="L185" t="n">
-        <v>1.024224289890602</v>
+        <v>0.9672650186734549</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09269272690809874</v>
+        <v>0.1938004587611655</v>
       </c>
       <c r="N185" t="n">
-        <v>1.40600313527351</v>
+        <v>1.27733412435219</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09206961060745614</v>
+        <v>0.1944921159671089</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1701791250396053</v>
+        <v>0.1620555530228014</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09385447964521772</v>
+        <v>0.1930221348061559</v>
       </c>
       <c r="J186" t="n">
-        <v>0.6670550768490336</v>
+        <v>0.6486673484996123</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09547799464847907</v>
+        <v>0.1956931233261674</v>
       </c>
       <c r="L186" t="n">
-        <v>1.016978637553718</v>
+        <v>0.9646530562757257</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09346516629899955</v>
+        <v>0.1954154625841752</v>
       </c>
       <c r="N186" t="n">
-        <v>1.398531792572683</v>
+        <v>1.286224235768958</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09283685736251827</v>
+        <v>0.1961128836001681</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1718100465107787</v>
+        <v>0.1644808112023067</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09463013650178975</v>
+        <v>0.1946173590607523</v>
       </c>
       <c r="J187" t="n">
-        <v>0.6675918819507847</v>
+        <v>0.6490323794701358</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09626706898441691</v>
+        <v>0.197310421866053</v>
       </c>
       <c r="L187" t="n">
-        <v>1.016192203096548</v>
+        <v>0.9677272742743842</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09423760568990039</v>
+        <v>0.1970304664071849</v>
       </c>
       <c r="N187" t="n">
-        <v>1.399098161874209</v>
+        <v>1.292645566080608</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0936041041175804</v>
+        <v>0.1977336512332274</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.172432480797369</v>
+        <v>0.1588965135039885</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09540579335836182</v>
+        <v>0.1962125833153486</v>
       </c>
       <c r="J188" t="n">
-        <v>0.6641321816946595</v>
+        <v>0.6488609557175923</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09705614332035477</v>
+        <v>0.1989277204059387</v>
       </c>
       <c r="L188" t="n">
-        <v>1.00848330145314</v>
+        <v>0.9707471756064617</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0950100450808012</v>
+        <v>0.1986454702301946</v>
       </c>
       <c r="N188" t="n">
-        <v>1.383837588920499</v>
+        <v>1.287994471408002</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09437135087264253</v>
+        <v>0.1993544188662866</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1760471840699084</v>
+        <v>0.1653025150285632</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09618145021493386</v>
+        <v>0.1978078075699449</v>
       </c>
       <c r="J189" t="n">
-        <v>0.6627841984719693</v>
+        <v>0.6510525076131705</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09784521765629262</v>
+        <v>0.2005450189458244</v>
       </c>
       <c r="L189" t="n">
-        <v>1.011670247557545</v>
+        <v>0.9736119141872482</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09578248447170203</v>
+        <v>0.2002604740532043</v>
       </c>
       <c r="N189" t="n">
-        <v>1.389485419453962</v>
+        <v>1.287369814701589</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09513859762770467</v>
+        <v>0.2009751864993458</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1766549124989296</v>
+        <v>0.1716986708767478</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0969571070715059</v>
+        <v>0.1994030318245412</v>
       </c>
       <c r="J190" t="n">
-        <v>0.6602561546740259</v>
+        <v>0.6542064655280589</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09863429199223045</v>
+        <v>0.2021623174857101</v>
       </c>
       <c r="L190" t="n">
-        <v>1.00167135634381</v>
+        <v>0.9761206439320348</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09655492386260285</v>
+        <v>0.201875477876214</v>
       </c>
       <c r="N190" t="n">
-        <v>1.380076999217007</v>
+        <v>1.293470458911818</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09590584438276681</v>
+        <v>0.2025959541324051</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.163256422254965</v>
+        <v>0.1620848361492588</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09773276392807795</v>
+        <v>0.2009982560791376</v>
       </c>
       <c r="J191" t="n">
-        <v>0.6617562726921407</v>
+        <v>0.6537222598334465</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0994233663281683</v>
+        <v>0.2037796160255958</v>
       </c>
       <c r="L191" t="n">
-        <v>1.000504942745986</v>
+        <v>0.9820725187561107</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09732736325350368</v>
+        <v>0.2034904816992237</v>
       </c>
       <c r="N191" t="n">
-        <v>1.373547673952044</v>
+        <v>1.293195266989139</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09667309113782895</v>
+        <v>0.2042167217654643</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1728524695085473</v>
+        <v>0.160460865946813</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09850842078465</v>
+        <v>0.2025934803337339</v>
       </c>
       <c r="J192" t="n">
-        <v>0.6592927749176252</v>
+        <v>0.6562993209005216</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1002124406641061</v>
+        <v>0.2053969145654815</v>
       </c>
       <c r="L192" t="n">
-        <v>1.00128932169812</v>
+        <v>0.9834666925747669</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09809980264440449</v>
+        <v>0.2051054855222335</v>
       </c>
       <c r="N192" t="n">
-        <v>1.369632789401481</v>
+        <v>1.296943101884</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09744033789289108</v>
+        <v>0.2058374893985236</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.170443810430209</v>
+        <v>0.164826615370127</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09928407764122205</v>
+        <v>0.2041887045883302</v>
       </c>
       <c r="J193" t="n">
-        <v>0.6557738837417902</v>
+        <v>0.6562370791004729</v>
       </c>
       <c r="K193" t="n">
-        <v>0.101001515000044</v>
+        <v>0.2070142131053671</v>
       </c>
       <c r="L193" t="n">
-        <v>0.9910428081342618</v>
+        <v>0.9776023193032936</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09887224203530531</v>
+        <v>0.2067204893452431</v>
       </c>
       <c r="N193" t="n">
-        <v>1.352767691307729</v>
+        <v>1.302312826546851</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09820758464795321</v>
+        <v>0.2074582570315828</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1710312011904827</v>
+        <v>0.1651819395199177</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1000597344977941</v>
+        <v>0.2057839288429266</v>
       </c>
       <c r="J194" t="n">
-        <v>0.6556078215559479</v>
+        <v>0.6611349648044894</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1017905893359818</v>
+        <v>0.2086315116452528</v>
       </c>
       <c r="L194" t="n">
-        <v>0.9881837169884603</v>
+        <v>0.9864785528569807</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09964468142620615</v>
+        <v>0.2083354931682529</v>
       </c>
       <c r="N194" t="n">
-        <v>1.354087725413198</v>
+        <v>1.30680330392814</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09897483140301534</v>
+        <v>0.2090790246646421</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1586153979599009</v>
+        <v>0.1715266934969016</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1008353913543661</v>
+        <v>0.2073791530975229</v>
       </c>
       <c r="J195" t="n">
-        <v>0.6569028107514097</v>
+        <v>0.6631924083837593</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1025796636719197</v>
+        <v>0.2102488101851385</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9897303631947644</v>
+        <v>0.9909945471511191</v>
       </c>
       <c r="M195" t="n">
-        <v>0.100417120817107</v>
+        <v>0.2099504969912626</v>
       </c>
       <c r="N195" t="n">
-        <v>1.342128237460295</v>
+        <v>1.313513396978318</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09974207815807748</v>
+        <v>0.2106997922977013</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1571971569089961</v>
+        <v>0.1768607324017956</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1016110482109382</v>
+        <v>0.2089743773521192</v>
       </c>
       <c r="J196" t="n">
-        <v>0.6508670737194864</v>
+        <v>0.6651088402094715</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1033687380078575</v>
+        <v>0.2118661087250241</v>
       </c>
       <c r="L196" t="n">
-        <v>0.9904010616872231</v>
+        <v>0.9875494561009986</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1011895602080078</v>
+        <v>0.2115655008142723</v>
       </c>
       <c r="N196" t="n">
-        <v>1.335724573191431</v>
+        <v>1.307941968647832</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1005093249131396</v>
+        <v>0.2123205599307605</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.166777234208301</v>
+        <v>0.1711839113353163</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1023867050675102</v>
+        <v>0.2105696016067155</v>
       </c>
       <c r="J197" t="n">
-        <v>0.65210883285149</v>
+        <v>0.6607836906528144</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1041578123437954</v>
+        <v>0.2134834072649098</v>
       </c>
       <c r="L197" t="n">
-        <v>0.9809141273998853</v>
+        <v>0.99554243362191</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1019619995989086</v>
+        <v>0.213180504637282</v>
       </c>
       <c r="N197" t="n">
-        <v>1.333112078349016</v>
+        <v>1.317687881887133</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1012765716682018</v>
+        <v>0.2139413275638198</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.167356386028348</v>
+        <v>0.1654960853981804</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1031623619240823</v>
+        <v>0.2121648258613119</v>
       </c>
       <c r="J198" t="n">
-        <v>0.6546363105387317</v>
+        <v>0.664216390084977</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1049468866797332</v>
+        <v>0.2151007058047955</v>
       </c>
       <c r="L198" t="n">
-        <v>0.9869878752667999</v>
+        <v>0.9873726336291432</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1027344389898094</v>
+        <v>0.2147955084602917</v>
       </c>
       <c r="N198" t="n">
-        <v>1.324426098675458</v>
+        <v>1.31874999964667</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1020438184232639</v>
+        <v>0.215562095196879</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1609353685396697</v>
+        <v>0.1657971096911046</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1039380187806543</v>
+        <v>0.2137600501159082</v>
       </c>
       <c r="J199" t="n">
-        <v>0.6513577291725231</v>
+        <v>0.666506368877148</v>
       </c>
       <c r="K199" t="n">
-        <v>0.105735961015671</v>
+        <v>0.2167180043446812</v>
       </c>
       <c r="L199" t="n">
-        <v>0.9816406202220159</v>
+        <v>0.9971392100379884</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1035068783807103</v>
+        <v>0.2164105122833014</v>
       </c>
       <c r="N199" t="n">
-        <v>1.314701979913168</v>
+        <v>1.323327184876891</v>
       </c>
       <c r="O199" t="n">
-        <v>0.102811065178326</v>
+        <v>0.2171828628299383</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1585149379127987</v>
+        <v>0.1720868393148057</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1047136756372264</v>
+        <v>0.2153552743705045</v>
       </c>
       <c r="J200" t="n">
-        <v>0.6522813111441755</v>
+        <v>0.6654530574005155</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1065250353516089</v>
+        <v>0.2183353028845669</v>
       </c>
       <c r="L200" t="n">
-        <v>0.9803906771995824</v>
+        <v>0.9948413167637357</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1042793177716111</v>
+        <v>0.2180255161063112</v>
       </c>
       <c r="N200" t="n">
-        <v>1.310675067804554</v>
+        <v>1.320818300528245</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1035783119333882</v>
+        <v>0.2188036304629975</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1690958503182675</v>
+        <v>0.1733651293700004</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1054893324937984</v>
+        <v>0.2169504986251009</v>
       </c>
       <c r="J201" t="n">
-        <v>0.6511152788450004</v>
+        <v>0.6660558860262686</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1073141096875467</v>
+        <v>0.2199526014244526</v>
       </c>
       <c r="L201" t="n">
-        <v>0.9753563611335482</v>
+        <v>0.9957781077216766</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1050517571625119</v>
+        <v>0.2196405199293208</v>
       </c>
       <c r="N201" t="n">
-        <v>1.305780708092026</v>
+        <v>1.321022209551183</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1043455586884503</v>
+        <v>0.2204243980960567</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1586788619266087</v>
+        <v>0.1746318349574053</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1062649893503705</v>
+        <v>0.2185457228796972</v>
       </c>
       <c r="J202" t="n">
-        <v>0.6498678546663093</v>
+        <v>0.6674142851255958</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1081031840234846</v>
+        <v>0.2215698999643382</v>
       </c>
       <c r="L202" t="n">
-        <v>0.9725559869579624</v>
+        <v>1.0004487368271</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1058241965534127</v>
+        <v>0.2212555237523305</v>
       </c>
       <c r="N202" t="n">
-        <v>1.304454246517993</v>
+        <v>1.330937774896153</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1051128054435124</v>
+        <v>0.222045165729116</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.165264341365242</v>
+        <v>0.1768868111777372</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1070406462069425</v>
+        <v>0.2201409471342935</v>
       </c>
       <c r="J203" t="n">
-        <v>0.6514472609994136</v>
+        <v>0.6689276850696859</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1088922583594224</v>
+        <v>0.2231871985042239</v>
       </c>
       <c r="L203" t="n">
-        <v>0.9708078696068737</v>
+        <v>1.003552357995297</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1065966359443136</v>
+        <v>0.2228705275753403</v>
       </c>
       <c r="N203" t="n">
-        <v>1.296731028824865</v>
+        <v>1.325263859513604</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1058800521985746</v>
+        <v>0.2236659333621752</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1558416394762319</v>
+        <v>0.1681299131317127</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1078163030635146</v>
+        <v>0.2217361713888899</v>
       </c>
       <c r="J204" t="n">
-        <v>0.6530617202356246</v>
+        <v>0.6693955162297274</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1096813326953603</v>
+        <v>0.2248044970441096</v>
       </c>
       <c r="L204" t="n">
-        <v>0.9721303240143312</v>
+        <v>1.002788125141557</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1073690753352144</v>
+        <v>0.22448553139835</v>
       </c>
       <c r="N204" t="n">
-        <v>1.295046400755052</v>
+        <v>1.329399326353986</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1066472989536367</v>
+        <v>0.2252867009952345</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1584057362173564</v>
+        <v>0.1613609959200487</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1085919599200866</v>
+        <v>0.2233313956434862</v>
       </c>
       <c r="J205" t="n">
-        <v>0.6496612351288654</v>
+        <v>0.672217208976909</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1104704070312981</v>
+        <v>0.2264217955839953</v>
       </c>
       <c r="L205" t="n">
-        <v>0.9695416651143837</v>
+        <v>0.9994551921811715</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1081415147261152</v>
+        <v>0.2261005352213597</v>
       </c>
       <c r="N205" t="n">
-        <v>1.298735708050962</v>
+        <v>1.329043038367747</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1074145457086988</v>
+        <v>0.2269074686282937</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1629567293384928</v>
+        <v>0.1735799146434617</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1093676167766587</v>
+        <v>0.2249266198980825</v>
       </c>
       <c r="J206" t="n">
-        <v>0.6512628122543911</v>
+        <v>0.6761921936824193</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1112594813672359</v>
+        <v>0.228039094123881</v>
       </c>
       <c r="L206" t="n">
-        <v>0.9699602078410806</v>
+        <v>1.00225271302943</v>
       </c>
       <c r="M206" t="n">
-        <v>0.108913954117016</v>
+        <v>0.2277155390443694</v>
       </c>
       <c r="N206" t="n">
-        <v>1.294234296455006</v>
+        <v>1.337593858505337</v>
       </c>
       <c r="O206" t="n">
-        <v>0.108181792463761</v>
+        <v>0.228528236261353</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1574947165895183</v>
+        <v>0.1667865244026686</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1101432736332307</v>
+        <v>0.2265218441526789</v>
       </c>
       <c r="J207" t="n">
-        <v>0.6489663698458661</v>
+        <v>0.6730199007174469</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1120485557031738</v>
+        <v>0.2296563926637666</v>
       </c>
       <c r="L207" t="n">
-        <v>0.9661042671284704</v>
+        <v>1.009479841601623</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1096863935079168</v>
+        <v>0.2293305428673792</v>
       </c>
       <c r="N207" t="n">
-        <v>1.289177511709592</v>
+        <v>1.332350649717204</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1089490392188231</v>
+        <v>0.2301490038944122</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1700197957203101</v>
+        <v>0.1699806802983859</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1109189304898028</v>
+        <v>0.2281170684072752</v>
       </c>
       <c r="J208" t="n">
-        <v>0.6470726353227979</v>
+        <v>0.6723997604531807</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1128376300391116</v>
+        <v>0.2312736912036523</v>
       </c>
       <c r="L208" t="n">
-        <v>0.9643933238365344</v>
+        <v>1.008935731813041</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1104588328988177</v>
+        <v>0.2309455466903889</v>
       </c>
       <c r="N208" t="n">
-        <v>1.291097962653854</v>
+        <v>1.3386122749538</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1097162859738852</v>
+        <v>0.2317697715274714</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1655320644807458</v>
+        <v>0.1761622374313305</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1116945873463748</v>
+        <v>0.2297122926618715</v>
       </c>
       <c r="J209" t="n">
-        <v>0.6469823361046942</v>
+        <v>0.6761312032608092</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1136267043750495</v>
+        <v>0.232890989743538</v>
       </c>
       <c r="L209" t="n">
-        <v>0.966493724164485</v>
+        <v>1.010419537578974</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1112312722897185</v>
+        <v>0.2325605505133986</v>
       </c>
       <c r="N209" t="n">
-        <v>1.285274117024121</v>
+        <v>1.33677759716557</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1104835327289474</v>
+        <v>0.2333905391605307</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1520316206207022</v>
+        <v>0.1683310509022191</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1124702442029469</v>
+        <v>0.2313075169164679</v>
       </c>
       <c r="J210" t="n">
-        <v>0.6511961996110627</v>
+        <v>0.6779136595115209</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1144157787109873</v>
+        <v>0.2345082882834237</v>
       </c>
       <c r="L210" t="n">
-        <v>0.9698949770914981</v>
+        <v>1.007430412814712</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1120037116806193</v>
+        <v>0.2341755543364083</v>
       </c>
       <c r="N210" t="n">
-        <v>1.27986721602668</v>
+        <v>1.346545479302967</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1112507794840095</v>
+        <v>0.2350113067935899</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1605185618900569</v>
+        <v>0.1644869758117682</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1132459010595189</v>
+        <v>0.2329027411710642</v>
       </c>
       <c r="J211" t="n">
-        <v>0.6481149532614109</v>
+        <v>0.6736465595765048</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1152048530469252</v>
+        <v>0.2361255868233094</v>
       </c>
       <c r="L211" t="n">
-        <v>0.964897570254687</v>
+        <v>1.014967511435546</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1127761510715201</v>
+        <v>0.235790558159418</v>
       </c>
       <c r="N211" t="n">
-        <v>1.283177513189329</v>
+        <v>1.345014784316438</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1120180262390716</v>
+        <v>0.2366320744266492</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.153992986038687</v>
+        <v>0.1786298672606947</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1140215579160909</v>
+        <v>0.2344979654256605</v>
       </c>
       <c r="J212" t="n">
-        <v>0.6510393244752464</v>
+        <v>0.6747293338269491</v>
       </c>
       <c r="K212" t="n">
-        <v>0.115993927382863</v>
+        <v>0.237742885363195</v>
       </c>
       <c r="L212" t="n">
-        <v>0.9723019912911665</v>
+        <v>1.011429987356766</v>
       </c>
       <c r="M212" t="n">
-        <v>0.113548590462421</v>
+        <v>0.2374055619824277</v>
       </c>
       <c r="N212" t="n">
-        <v>1.283405262039864</v>
+        <v>1.347284375156433</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1127852729941338</v>
+        <v>0.2382528420597084</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.15245499081647</v>
+        <v>0.1677595803497152</v>
       </c>
       <c r="G213" t="n">
-        <v>0.114797214772663</v>
+        <v>0.2360931896802568</v>
       </c>
       <c r="J213" t="n">
-        <v>0.6509700406720765</v>
+        <v>0.681061412634043</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1167830017188008</v>
+        <v>0.2393601839030807</v>
       </c>
       <c r="L213" t="n">
-        <v>0.9726087278380499</v>
+        <v>1.009916994493663</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1143210298533218</v>
+        <v>0.2390205658054374</v>
       </c>
       <c r="N213" t="n">
-        <v>1.28455071610608</v>
+        <v>1.3469531147734</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1135525197491959</v>
+        <v>0.2398736096927676</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1579046739732829</v>
+        <v>0.1638759701795465</v>
       </c>
       <c r="G214" t="n">
-        <v>0.115572871629235</v>
+        <v>0.2376884139348532</v>
       </c>
       <c r="J214" t="n">
-        <v>0.6476078292714095</v>
+        <v>0.6775422263689747</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1175720760547387</v>
+        <v>0.2409774824429664</v>
       </c>
       <c r="L214" t="n">
-        <v>0.9710182675324516</v>
+        <v>1.011027686761525</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1150934692442226</v>
+        <v>0.2406355696284471</v>
       </c>
       <c r="N214" t="n">
-        <v>1.287814128915775</v>
+        <v>1.34071986611779</v>
       </c>
       <c r="O214" t="n">
-        <v>0.114319766504258</v>
+        <v>0.2414943773258268</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.152342133259003</v>
+        <v>0.1779788918509053</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1163485284858071</v>
+        <v>0.2392836381894495</v>
       </c>
       <c r="J215" t="n">
-        <v>0.6517534176927524</v>
+        <v>0.6816712054029328</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1183611503906765</v>
+        <v>0.2425947809828521</v>
       </c>
       <c r="L215" t="n">
-        <v>0.9682310980114855</v>
+        <v>1.013861218075645</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1158659086351234</v>
+        <v>0.2422505734514568</v>
       </c>
       <c r="N215" t="n">
-        <v>1.280295753996745</v>
+        <v>1.351183492140051</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1150870132593202</v>
+        <v>0.2431151449588861</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1517674664235077</v>
+        <v>0.1720682004645083</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1171241853423791</v>
+        <v>0.2408788624440458</v>
       </c>
       <c r="J216" t="n">
-        <v>0.6498075333556131</v>
+        <v>0.6822477801071063</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1191502247266144</v>
+        <v>0.2442120795227378</v>
       </c>
       <c r="L216" t="n">
-        <v>0.9680477069122656</v>
+        <v>1.016616742351311</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1166383480260243</v>
+        <v>0.2438655772744665</v>
       </c>
       <c r="N216" t="n">
-        <v>1.279595844876787</v>
+        <v>1.344542855790632</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1158542600143823</v>
+        <v>0.2447359125919454</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1621807712166743</v>
+        <v>0.1761437511210722</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1178998421989512</v>
+        <v>0.2424740866986421</v>
       </c>
       <c r="J217" t="n">
-        <v>0.6536709036794991</v>
+        <v>0.6825713808526835</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1199392990625522</v>
+        <v>0.2458293780626234</v>
       </c>
       <c r="L217" t="n">
-        <v>0.9694685818719057</v>
+        <v>1.014193413503816</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1174107874169251</v>
+        <v>0.2454805810974763</v>
       </c>
       <c r="N217" t="n">
-        <v>1.281214655083696</v>
+        <v>1.349396820019983</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1166215067694445</v>
+        <v>0.2463566802250046</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1605821453883799</v>
+        <v>0.1712053989213136</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1186754990555232</v>
+        <v>0.2440693109532385</v>
       </c>
       <c r="J218" t="n">
-        <v>0.650244256083918</v>
+        <v>0.6803414380108536</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1207283733984901</v>
+        <v>0.2474466766025091</v>
       </c>
       <c r="L218" t="n">
-        <v>0.9656942105275205</v>
+        <v>1.018690385448448</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1181832268078259</v>
+        <v>0.247095584920486</v>
       </c>
       <c r="N218" t="n">
-        <v>1.27545243814527</v>
+        <v>1.351244247778552</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1173887535245066</v>
+        <v>0.2479774478580639</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1479716866885019</v>
+        <v>0.1692529989659495</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1194511559120953</v>
+        <v>0.2456645352078348</v>
       </c>
       <c r="J219" t="n">
-        <v>0.6523283179883774</v>
+        <v>0.6826573819528047</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1215174477344279</v>
+        <v>0.2490639751423948</v>
       </c>
       <c r="L219" t="n">
-        <v>0.9737250805162231</v>
+        <v>1.011406812100498</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1189556661987267</v>
+        <v>0.2487105887434957</v>
       </c>
       <c r="N219" t="n">
-        <v>1.277509447589305</v>
+        <v>1.35268400201679</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1181560002795687</v>
+        <v>0.2495982154911231</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1453494928669175</v>
+        <v>0.1652864063556962</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1202268127686673</v>
+        <v>0.2472597594624311</v>
       </c>
       <c r="J220" t="n">
-        <v>0.6496238168123851</v>
+        <v>0.6819186430497257</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1223065220703657</v>
+        <v>0.2506812736822805</v>
       </c>
       <c r="L220" t="n">
-        <v>0.9677616794751279</v>
+        <v>1.013841847375256</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1197281055896275</v>
+        <v>0.2503255925665054</v>
       </c>
       <c r="N220" t="n">
-        <v>1.272985936943597</v>
+        <v>1.349114945685144</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1189232470346308</v>
+        <v>0.2512189831241823</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1487156616735039</v>
+        <v>0.1633054761912708</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1210024696252394</v>
+        <v>0.2488549837170275</v>
       </c>
       <c r="J221" t="n">
-        <v>0.6505314799754482</v>
+        <v>0.6779246516728052</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1230955964063036</v>
+        <v>0.2522985722221662</v>
       </c>
       <c r="L221" t="n">
-        <v>0.9687044950413487</v>
+        <v>1.013794645188013</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1205005449805284</v>
+        <v>0.2519405963895151</v>
       </c>
       <c r="N221" t="n">
-        <v>1.276182159735942</v>
+        <v>1.350235941734064</v>
       </c>
       <c r="O221" t="n">
-        <v>0.119690493789693</v>
+        <v>0.2528397507572415</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1600702908581386</v>
+        <v>0.1663024628105516</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1217781264818114</v>
+        <v>0.2504502079716238</v>
       </c>
       <c r="J222" t="n">
-        <v>0.6533520348970751</v>
+        <v>0.6781748381932317</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1238846707422415</v>
+        <v>0.2539158707620519</v>
       </c>
       <c r="L222" t="n">
-        <v>0.9662540148519999</v>
+        <v>1.012064359454059</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1212729843714292</v>
+        <v>0.2535556002125248</v>
       </c>
       <c r="N222" t="n">
-        <v>1.269798369494138</v>
+        <v>1.355845853114</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1204577405447551</v>
+        <v>0.2544605183903008</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1514134781706986</v>
+        <v>0.1699984941074434</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1225537833383835</v>
+        <v>0.2520454322262202</v>
       </c>
       <c r="J223" t="n">
-        <v>0.6505862089967726</v>
+        <v>0.6813534838861541</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1246737450781793</v>
+        <v>0.2555331693019375</v>
       </c>
       <c r="L223" t="n">
-        <v>0.9744107265441954</v>
+        <v>1.012987115075681</v>
       </c>
       <c r="M223" t="n">
-        <v>0.12204542376233</v>
+        <v>0.2551706040355345</v>
       </c>
       <c r="N223" t="n">
-        <v>1.27403481974598</v>
+        <v>1.349984547495218</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1212249872998173</v>
+        <v>0.2560812860233601</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1577453213610614</v>
+        <v>0.1632860183669794</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1233294401949555</v>
+        <v>0.2536406564808165</v>
       </c>
       <c r="J224" t="n">
-        <v>0.6509347296940488</v>
+        <v>0.6814830573454469</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1254628194141171</v>
+        <v>0.2571504678418232</v>
       </c>
       <c r="L224" t="n">
-        <v>0.9688751177550489</v>
+        <v>1.009664936920018</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1228178631532308</v>
+        <v>0.2567856078585442</v>
       </c>
       <c r="N224" t="n">
-        <v>1.274991764019265</v>
+        <v>1.350243637195526</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1219922340548794</v>
+        <v>0.2577020536564193</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1440659181791041</v>
+        <v>0.1722102069818556</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1241050970515276</v>
+        <v>0.2552358807354128</v>
       </c>
       <c r="J225" t="n">
-        <v>0.6516983244084109</v>
+        <v>0.6755068296373393</v>
       </c>
       <c r="K225" t="n">
-        <v>0.126251893750055</v>
+        <v>0.2587677663817089</v>
       </c>
       <c r="L225" t="n">
-        <v>0.9716476761216745</v>
+        <v>1.004017965470022</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1235903025441316</v>
+        <v>0.2584006116815539</v>
       </c>
       <c r="N225" t="n">
-        <v>1.266369455841789</v>
+        <v>1.334473046971327</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1227594808099415</v>
+        <v>0.2593228212894785</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1443753663747041</v>
+        <v>0.1708162313447681</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1248807539080996</v>
+        <v>0.2568311049900092</v>
       </c>
       <c r="J226" t="n">
-        <v>0.653177720559367</v>
+        <v>0.6696023787742555</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1270409680859928</v>
+        <v>0.2603850649215946</v>
       </c>
       <c r="L226" t="n">
-        <v>0.9682288892811864</v>
+        <v>1.003909962034984</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1243627419350325</v>
+        <v>0.2600156155045637</v>
       </c>
       <c r="N226" t="n">
-        <v>1.26446814874135</v>
+        <v>1.336427244495679</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1235267275650036</v>
+        <v>0.2609435889225377</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1586737636977385</v>
+        <v>0.1741492628484131</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1256564107646717</v>
+        <v>0.2584263292446055</v>
       </c>
       <c r="J227" t="n">
-        <v>0.6543736455664243</v>
+        <v>0.6666472827686191</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1278300424219307</v>
+        <v>0.2620023634614803</v>
       </c>
       <c r="L227" t="n">
-        <v>0.9698192448706983</v>
+        <v>0.9921046879241949</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1251351813259333</v>
+        <v>0.2616306193275734</v>
       </c>
       <c r="N227" t="n">
-        <v>1.267488096245742</v>
+        <v>1.315160697441637</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1242939743200658</v>
+        <v>0.262564356555597</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1579612078980847</v>
+        <v>0.1622544728854868</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1264320676212437</v>
+        <v>0.2600215534992018</v>
       </c>
       <c r="J228" t="n">
-        <v>0.6514868268490906</v>
+        <v>0.6554191196328535</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1286191167578685</v>
+        <v>0.2636196620013659</v>
       </c>
       <c r="L228" t="n">
-        <v>0.9670192305273247</v>
+        <v>0.9832659044469486</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1259076207168341</v>
+        <v>0.2632456231505831</v>
       </c>
       <c r="N228" t="n">
-        <v>1.261829551882764</v>
+        <v>1.305227873482258</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1250612210751279</v>
+        <v>0.2641851241886563</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.15623779672562</v>
+        <v>0.1721770328486852</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1272077244778157</v>
+        <v>0.2616167777537981</v>
       </c>
       <c r="J229" t="n">
-        <v>0.6534179918268735</v>
+        <v>0.6526954673793828</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1294081910938064</v>
+        <v>0.2652369605412516</v>
       </c>
       <c r="L229" t="n">
-        <v>0.9670293338881791</v>
+        <v>0.9719573729125356</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1266800601077349</v>
+        <v>0.2648606269735928</v>
       </c>
       <c r="N229" t="n">
-        <v>1.26619276918021</v>
+        <v>1.2837832402906</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1258284678301901</v>
+        <v>0.2658058918217155</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1515036279302216</v>
+        <v>0.1539621141307045</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1279833813343878</v>
+        <v>0.2632120020083944</v>
       </c>
       <c r="J230" t="n">
-        <v>0.6544678679192806</v>
+        <v>0.6428539040206307</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1301972654297442</v>
+        <v>0.2668542590811373</v>
       </c>
       <c r="L230" t="n">
-        <v>0.9718500425903754</v>
+        <v>0.9614428546302488</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1274524994986358</v>
+        <v>0.2664756307966025</v>
       </c>
       <c r="N230" t="n">
-        <v>1.258178001665879</v>
+        <v>1.268881265539719</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1265957145852522</v>
+        <v>0.2674266594547747</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1487587992617667</v>
+        <v>0.1676548881242408</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1287590381909599</v>
+        <v>0.2648072262629907</v>
       </c>
       <c r="J231" t="n">
-        <v>0.6538371825458195</v>
+        <v>0.6304720075690204</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1309863397656821</v>
+        <v>0.268471557621023</v>
       </c>
       <c r="L231" t="n">
-        <v>0.9698818442710283</v>
+        <v>0.9447861109093788</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1282249388895366</v>
+        <v>0.2680906346196122</v>
       </c>
       <c r="N231" t="n">
-        <v>1.259585502867565</v>
+        <v>1.255976416902672</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1273629613403143</v>
+        <v>0.269047427087834</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1460034084701327</v>
+        <v>0.1533005262219903</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1295346950475319</v>
+        <v>0.2664024505175871</v>
       </c>
       <c r="J232" t="n">
-        <v>0.6494266631259975</v>
+        <v>0.6265273560369762</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1317754141016199</v>
+        <v>0.2700888561609087</v>
       </c>
       <c r="L232" t="n">
-        <v>0.9711252265672513</v>
+        <v>0.9279509030592189</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1289973782804374</v>
+        <v>0.269705638442622</v>
       </c>
       <c r="N232" t="n">
-        <v>1.262215526313065</v>
+        <v>1.235023162052516</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1281302080953765</v>
+        <v>0.2706681947208932</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1492375533051969</v>
+        <v>0.159944199816649</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1303103519041039</v>
+        <v>0.2679976747721834</v>
       </c>
       <c r="J233" t="n">
-        <v>0.6547370370793226</v>
+        <v>0.6169975274369217</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1325644884375577</v>
+        <v>0.2717061547007943</v>
       </c>
       <c r="L233" t="n">
-        <v>0.9743806771161582</v>
+        <v>0.9181009923890607</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1297698176713382</v>
+        <v>0.2713206422656316</v>
       </c>
       <c r="N233" t="n">
-        <v>1.261268325530177</v>
+        <v>1.221975968662308</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1288974548504386</v>
+        <v>0.2722889623539524</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1484613315168364</v>
+        <v>0.1426310803009132</v>
       </c>
       <c r="G234" t="n">
-        <v>0.131086008760676</v>
+        <v>0.2695928990267797</v>
       </c>
       <c r="J234" t="n">
-        <v>0.6538690318253024</v>
+        <v>0.6036600997812803</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1333535627734956</v>
+        <v>0.27332345324068</v>
       </c>
       <c r="L234" t="n">
-        <v>0.9670486835548634</v>
+        <v>0.9031001402081961</v>
       </c>
       <c r="M234" t="n">
-        <v>0.130542257062239</v>
+        <v>0.2729356460886413</v>
       </c>
       <c r="N234" t="n">
-        <v>1.259544154046696</v>
+        <v>1.209289304405104</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1296647016055007</v>
+        <v>0.2739097299870117</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1386748408549285</v>
+        <v>0.1534063390674789</v>
       </c>
       <c r="G235" t="n">
-        <v>0.131861665617248</v>
+        <v>0.2711881232813761</v>
       </c>
       <c r="J235" t="n">
-        <v>0.6547233747834442</v>
+        <v>0.5981926510824761</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1341426371094334</v>
+        <v>0.2749407517805657</v>
       </c>
       <c r="L235" t="n">
-        <v>0.9661297335204809</v>
+        <v>0.8910121078259164</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1313146964531399</v>
+        <v>0.2745506499116511</v>
       </c>
       <c r="N235" t="n">
-        <v>1.259043265390418</v>
+        <v>1.19161763695396</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1304319483605628</v>
+        <v>0.2755304976200709</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1498781790693506</v>
+        <v>0.1463151475090424</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1326373224738201</v>
+        <v>0.2727833475359724</v>
       </c>
       <c r="J236" t="n">
-        <v>0.656900793373256</v>
+        <v>0.5888727593529326</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1349317114453712</v>
+        <v>0.2765580503204514</v>
       </c>
       <c r="L236" t="n">
-        <v>0.9713243146501244</v>
+        <v>0.8751006565515144</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1320871358440407</v>
+        <v>0.2761656537346608</v>
       </c>
       <c r="N236" t="n">
-        <v>1.258765913089142</v>
+        <v>1.169515433981934</v>
       </c>
       <c r="O236" t="n">
-        <v>0.131199195115625</v>
+        <v>0.2771512652531302</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1350714439099798</v>
+        <v>0.136398686066202</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1334129793303921</v>
+        <v>0.2743785717905687</v>
       </c>
       <c r="J237" t="n">
-        <v>0.6575020150142451</v>
+        <v>0.5815780026050738</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1357207857813091</v>
+        <v>0.2781753488603371</v>
       </c>
       <c r="L237" t="n">
-        <v>0.9708329145809081</v>
+        <v>0.8705295476942817</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1328595752349415</v>
+        <v>0.2777806575576705</v>
       </c>
       <c r="N237" t="n">
-        <v>1.252212350670661</v>
+        <v>1.155637163162083</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1319664418706871</v>
+        <v>0.2787720328861894</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1412547331266935</v>
+        <v>0.1345446022647116</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1341886361869642</v>
+        <v>0.2759737960451651</v>
       </c>
       <c r="J238" t="n">
-        <v>0.6520277671259191</v>
+        <v>0.5756821368311833</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1365098601172469</v>
+        <v>0.2797926474002227</v>
       </c>
       <c r="L238" t="n">
-        <v>0.9723560209499459</v>
+        <v>0.8547663137592018</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1336320146258423</v>
+        <v>0.2793956613806802</v>
       </c>
       <c r="N238" t="n">
-        <v>1.262582831662774</v>
+        <v>1.136916046957038</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1327336886257492</v>
+        <v>0.2803928005192486</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.135428144469369</v>
+        <v>0.1376836680485347</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1349642930435362</v>
+        <v>0.2775690202997614</v>
       </c>
       <c r="J239" t="n">
-        <v>0.6531787771277857</v>
+        <v>0.5640740534581401</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1372989344531848</v>
+        <v>0.2814099459401084</v>
       </c>
       <c r="L239" t="n">
-        <v>0.968494121394352</v>
+        <v>0.847877030724956</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1344044540167432</v>
+        <v>0.2810106652036899</v>
       </c>
       <c r="N239" t="n">
-        <v>1.252277609593276</v>
+        <v>1.126091000203896</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1335009353808114</v>
+        <v>0.2820135681523079</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1315917756878835</v>
+        <v>0.1398157764049669</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1357399499001083</v>
+        <v>0.2791642445543577</v>
       </c>
       <c r="J240" t="n">
-        <v>0.6562557724393526</v>
+        <v>0.5588391358697555</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1380880087891226</v>
+        <v>0.2830272444799941</v>
       </c>
       <c r="L240" t="n">
-        <v>0.96964770355124</v>
+        <v>0.8320478112935593</v>
       </c>
       <c r="M240" t="n">
-        <v>0.135176893407644</v>
+        <v>0.2826256690266997</v>
       </c>
       <c r="N240" t="n">
-        <v>1.250896937989965</v>
+        <v>1.1186125486227</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1342681821358735</v>
+        <v>0.2836343357853671</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1397457245321142</v>
+        <v>0.1299408203213037</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1365156067566803</v>
+        <v>0.2807594688089541</v>
       </c>
       <c r="J241" t="n">
-        <v>0.6560594804801272</v>
+        <v>0.549976963377133</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1388770831250605</v>
+        <v>0.2846445430198798</v>
       </c>
       <c r="L241" t="n">
-        <v>0.9718172550577243</v>
+        <v>0.8294780306046888</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1359493327985448</v>
+        <v>0.2842406728497093</v>
       </c>
       <c r="N241" t="n">
-        <v>1.250641070380635</v>
+        <v>1.098479852466387</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1350354288909357</v>
+        <v>0.2852551034184264</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1408900887519385</v>
+        <v>0.1380586927848408</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1372912636132524</v>
+        <v>0.2823546930635504</v>
       </c>
       <c r="J242" t="n">
-        <v>0.6550906286696173</v>
+        <v>0.5432871152913759</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1396661574609983</v>
+        <v>0.2862618415597655</v>
       </c>
       <c r="L242" t="n">
-        <v>0.971303263550919</v>
+        <v>0.8174670637980214</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1367217721894456</v>
+        <v>0.2858556766727191</v>
       </c>
       <c r="N242" t="n">
-        <v>1.259910260293085</v>
+        <v>1.087292071987895</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1358026756459978</v>
+        <v>0.2868758710514856</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1400249660972335</v>
+        <v>0.1421692867828736</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1380669204698244</v>
+        <v>0.2839499173181467</v>
       </c>
       <c r="J243" t="n">
-        <v>0.6593499444273303</v>
+        <v>0.5360691709235873</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1404552317969362</v>
+        <v>0.2878791400996512</v>
       </c>
       <c r="L243" t="n">
-        <v>0.9695062166679375</v>
+        <v>0.8081142860132341</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1374942115803464</v>
+        <v>0.2874706804957288</v>
       </c>
       <c r="N243" t="n">
-        <v>1.25970476125511</v>
+        <v>1.067248367440161</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1365699224010599</v>
+        <v>0.2884966386845448</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1411504543178766</v>
+        <v>0.1382724953026979</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1388425773263965</v>
+        <v>0.2855451415727431</v>
       </c>
       <c r="J244" t="n">
-        <v>0.6554381551727739</v>
+        <v>0.5314227095848709</v>
       </c>
       <c r="K244" t="n">
-        <v>0.141244306132874</v>
+        <v>0.2894964386395368</v>
       </c>
       <c r="L244" t="n">
-        <v>0.9687266020458941</v>
+        <v>0.7923190723900041</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1382666509712473</v>
+        <v>0.2890856843187384</v>
       </c>
       <c r="N244" t="n">
-        <v>1.257824826794507</v>
+        <v>1.048747899076123</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1373371691561221</v>
+        <v>0.2901174063176041</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1432666511637451</v>
+        <v>0.1223682113316093</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1396182341829685</v>
+        <v>0.2871403658273394</v>
       </c>
       <c r="J245" t="n">
-        <v>0.6580559883254558</v>
+        <v>0.5239473105863297</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1420333804688119</v>
+        <v>0.2911137371794225</v>
       </c>
       <c r="L245" t="n">
-        <v>0.970764907321903</v>
+        <v>0.7830807980680082</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1390390903621481</v>
+        <v>0.2907006881417482</v>
       </c>
       <c r="N245" t="n">
-        <v>1.253270710439071</v>
+        <v>1.04268982714872</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1381044159111842</v>
+        <v>0.2917381739506634</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1273736543847162</v>
+        <v>0.1284563278569033</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1403938910395406</v>
+        <v>0.2887355900819357</v>
       </c>
       <c r="J246" t="n">
-        <v>0.6588041713048834</v>
+        <v>0.5152425532390674</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1428224548047497</v>
+        <v>0.2927310357193082</v>
       </c>
       <c r="L246" t="n">
-        <v>0.9728216201330783</v>
+        <v>0.7731988381869243</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1398115297530489</v>
+        <v>0.2923156919647579</v>
       </c>
       <c r="N246" t="n">
-        <v>1.246542665716601</v>
+        <v>1.019073311910888</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1388716626662463</v>
+        <v>0.2933589415837226</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1254715617306671</v>
+        <v>0.1335367378658754</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1411695478961126</v>
+        <v>0.290330814336532</v>
       </c>
       <c r="J247" t="n">
-        <v>0.6586834315305644</v>
+        <v>0.5091080168541871</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1436115291406875</v>
+        <v>0.2943483342591939</v>
       </c>
       <c r="L247" t="n">
-        <v>0.9722972281165333</v>
+        <v>0.757672567886429</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1405839691439497</v>
+        <v>0.2939306957877676</v>
       </c>
       <c r="N247" t="n">
-        <v>1.253340946154892</v>
+        <v>1.014597513615564</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1396389094213085</v>
+        <v>0.2949797092167818</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1395604709514752</v>
+        <v>0.1246093343458213</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1419452047526847</v>
+        <v>0.2919260385911284</v>
       </c>
       <c r="J248" t="n">
-        <v>0.6638944964220066</v>
+        <v>0.5002432807427923</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1444006034766254</v>
+        <v>0.2959656327990796</v>
       </c>
       <c r="L248" t="n">
-        <v>0.9730922189093828</v>
+        <v>0.7485013623061992</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1413564085348506</v>
+        <v>0.2955456996107773</v>
       </c>
       <c r="N248" t="n">
-        <v>1.24706580528174</v>
+        <v>0.9966615925156874</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1404061561763706</v>
+        <v>0.296600476849841</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1226404797970177</v>
+        <v>0.1166740102840366</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1427208616092567</v>
+        <v>0.2935212628457247</v>
       </c>
       <c r="J249" t="n">
-        <v>0.6613380933987173</v>
+        <v>0.4958479242159864</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1451896778125632</v>
+        <v>0.2975829313389652</v>
       </c>
       <c r="L249" t="n">
-        <v>0.97260708014874</v>
+        <v>0.7358845965859121</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1421288479257514</v>
+        <v>0.2971607034337871</v>
       </c>
       <c r="N249" t="n">
-        <v>1.257517496624942</v>
+        <v>0.9864647088641949</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1411734029314327</v>
+        <v>0.2982212444829003</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1377116860171719</v>
+        <v>0.1127306586678168</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1434965184658287</v>
+        <v>0.295116487100321</v>
       </c>
       <c r="J250" t="n">
-        <v>0.6597149498802043</v>
+        <v>0.4885215265848727</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1459787521485011</v>
+        <v>0.2992002298788509</v>
       </c>
       <c r="L250" t="n">
-        <v>0.9781422994717198</v>
+        <v>0.7284216458652452</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1429012873166522</v>
+        <v>0.2987757072567968</v>
       </c>
       <c r="N250" t="n">
-        <v>1.255396273712295</v>
+        <v>0.9734060229140242</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1419406496864949</v>
+        <v>0.2998420121159596</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1347741873618151</v>
+        <v>0.1207791724844576</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1442721753224008</v>
+        <v>0.2967117113549174</v>
       </c>
       <c r="J251" t="n">
-        <v>0.6633257932859751</v>
+        <v>0.4786636671605543</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1467678264844389</v>
+        <v>0.3008175284187366</v>
       </c>
       <c r="L251" t="n">
-        <v>0.9717983645154354</v>
+        <v>0.7204118852838753</v>
       </c>
       <c r="M251" t="n">
-        <v>0.143673726707553</v>
+        <v>0.3003907110798065</v>
       </c>
       <c r="N251" t="n">
-        <v>1.247002390071594</v>
+        <v>0.956384694918113</v>
       </c>
       <c r="O251" t="n">
-        <v>0.142707896441557</v>
+        <v>0.3014627797490188</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1208280815808244</v>
+        <v>0.1228194447212546</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1450478321789729</v>
+        <v>0.2983069356095137</v>
       </c>
       <c r="J252" t="n">
-        <v>0.6639713510355374</v>
+        <v>0.4695739252541352</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1475569008203768</v>
+        <v>0.3024348269586223</v>
       </c>
       <c r="L252" t="n">
-        <v>0.9809757629170014</v>
+        <v>0.7057546899814796</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1444461660984539</v>
+        <v>0.3020057149028162</v>
       </c>
       <c r="N252" t="n">
-        <v>1.255036099230637</v>
+        <v>0.9339998851293991</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1434751431966191</v>
+        <v>0.303083547382078</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1358734664240773</v>
+        <v>0.1198513683655032</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1458234890355449</v>
+        <v>0.29990215986411</v>
       </c>
       <c r="J253" t="n">
-        <v>0.6618523505483986</v>
+        <v>0.463351880176718</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1483459751563146</v>
+        <v>0.304052125498508</v>
       </c>
       <c r="L253" t="n">
-        <v>0.9752749823135313</v>
+        <v>0.6885494350977351</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1452186054893547</v>
+        <v>0.3036207187258259</v>
       </c>
       <c r="N253" t="n">
-        <v>1.246497654717219</v>
+        <v>0.9226507538008202</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1442423899516813</v>
+        <v>0.3047043150151372</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.127910439641451</v>
+        <v>0.1078748364044992</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1465991458921169</v>
+        <v>0.3014973841187064</v>
       </c>
       <c r="J254" t="n">
-        <v>0.6657695192440665</v>
+        <v>0.4600971112394066</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1491350494922524</v>
+        <v>0.3056694240383936</v>
       </c>
       <c r="L254" t="n">
-        <v>0.9734965103421395</v>
+        <v>0.6787954957723186</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1459910448802555</v>
+        <v>0.3052357225488356</v>
       </c>
       <c r="N254" t="n">
-        <v>1.247087310059138</v>
+        <v>0.9013364611853136</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1450096367067434</v>
+        <v>0.3063250826481965</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1219390989828226</v>
+        <v>0.1088897418255381</v>
       </c>
       <c r="G255" t="n">
-        <v>0.147374802748689</v>
+        <v>0.3030926083733027</v>
       </c>
       <c r="J255" t="n">
-        <v>0.6702235845420486</v>
+        <v>0.4531091977533042</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1499241238281903</v>
+        <v>0.3072867225782793</v>
       </c>
       <c r="L255" t="n">
-        <v>0.9788408346399399</v>
+        <v>0.6754922471449077</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1467634842711563</v>
+        <v>0.3068507263718454</v>
       </c>
       <c r="N255" t="n">
-        <v>1.252305318784189</v>
+        <v>0.8975561675358168</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1457768834618055</v>
+        <v>0.3079458502812558</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1299595421980696</v>
+        <v>0.1028959776159156</v>
       </c>
       <c r="G256" t="n">
-        <v>0.148150459605261</v>
+        <v>0.304687832627899</v>
       </c>
       <c r="J256" t="n">
-        <v>0.6676152738618525</v>
+        <v>0.4441877190295139</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1507131981641281</v>
+        <v>0.308904021118165</v>
       </c>
       <c r="L256" t="n">
-        <v>0.9760084428440462</v>
+        <v>0.6599390643551792</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1475359236620571</v>
+        <v>0.308465730194855</v>
       </c>
       <c r="N256" t="n">
-        <v>1.254451934420169</v>
+        <v>0.8827090331052678</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1465441302168677</v>
+        <v>0.309566617914315</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1149718670370691</v>
+        <v>0.1118934367629271</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1489261164618331</v>
+        <v>0.3062830568824954</v>
       </c>
       <c r="J257" t="n">
-        <v>0.6665453146229859</v>
+        <v>0.4340322543791394</v>
       </c>
       <c r="K257" t="n">
-        <v>0.151502272500066</v>
+        <v>0.3105213196580507</v>
       </c>
       <c r="L257" t="n">
-        <v>0.9775998225915729</v>
+        <v>0.6519353225428106</v>
       </c>
       <c r="M257" t="n">
-        <v>0.148308363052958</v>
+        <v>0.3100807340178647</v>
       </c>
       <c r="N257" t="n">
-        <v>1.250727410494875</v>
+        <v>0.8573942181466043</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1473113769719298</v>
+        <v>0.3111873855473742</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1319761712496984</v>
+        <v>0.1118820122538683</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1497017733184051</v>
+        <v>0.3078782811370917</v>
       </c>
       <c r="J258" t="n">
-        <v>0.6691144342449564</v>
+        <v>0.427342383113284</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1522913468360038</v>
+        <v>0.3121386181979364</v>
       </c>
       <c r="L258" t="n">
-        <v>0.9761154615196331</v>
+        <v>0.6388803968474787</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1490808024438588</v>
+        <v>0.3116957378408745</v>
       </c>
       <c r="N258" t="n">
-        <v>1.242532000536102</v>
+        <v>0.8474108829127638</v>
       </c>
       <c r="O258" t="n">
-        <v>0.148078623726992</v>
+        <v>0.3128081531804335</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1199725525858349</v>
+        <v>0.09986159707603481</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1504774301749772</v>
+        <v>0.309473505391688</v>
       </c>
       <c r="J259" t="n">
-        <v>0.6728233601472715</v>
+        <v>0.4225176845430509</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1530804211719416</v>
+        <v>0.313755916737822</v>
       </c>
       <c r="L259" t="n">
-        <v>0.9858558472653421</v>
+        <v>0.6269736624088601</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1498532418347596</v>
+        <v>0.3133107416638842</v>
       </c>
       <c r="N259" t="n">
-        <v>1.244965958071648</v>
+        <v>0.8322581876566841</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1488458704820541</v>
+        <v>0.3144289208134927</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1299611087953558</v>
+        <v>0.1068320842167222</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1512530870315492</v>
+        <v>0.3110687296462843</v>
       </c>
       <c r="J260" t="n">
-        <v>0.670472819749439</v>
+        <v>0.4134577379795437</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1538694955078795</v>
+        <v>0.3153732152777077</v>
       </c>
       <c r="L260" t="n">
-        <v>0.9820214674658131</v>
+        <v>0.6178144943666329</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1506256812256604</v>
+        <v>0.3149257454868939</v>
       </c>
       <c r="N260" t="n">
-        <v>1.244229536629309</v>
+        <v>0.8154352926313022</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1496131172371162</v>
+        <v>0.316049688446552</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1189419376281382</v>
+        <v>0.09179336666322596</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1520287438881213</v>
+        <v>0.3126639539008807</v>
       </c>
       <c r="J261" t="n">
-        <v>0.6756635404709663</v>
+        <v>0.4027621227338655</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1546585698438173</v>
+        <v>0.3169905138175934</v>
       </c>
       <c r="L261" t="n">
-        <v>0.9777128097581599</v>
+        <v>0.6065022678604737</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1513981206165613</v>
+        <v>0.3165407493099036</v>
       </c>
       <c r="N261" t="n">
-        <v>1.254722989736881</v>
+        <v>0.7959413580895558</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1503803639921784</v>
+        <v>0.3176704560796112</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1129151368340596</v>
+        <v>0.1047453374028419</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1528044007446933</v>
+        <v>0.314259178155477</v>
       </c>
       <c r="J262" t="n">
-        <v>0.6758962497313611</v>
+        <v>0.3922304181171197</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1554476441797552</v>
+        <v>0.3186078123574791</v>
       </c>
       <c r="L262" t="n">
-        <v>0.982530361779497</v>
+        <v>0.5923363580300595</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1521705600074621</v>
+        <v>0.3181557531329133</v>
       </c>
       <c r="N262" t="n">
-        <v>1.24924657092216</v>
+        <v>0.7863755442843836</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1511476107472405</v>
+        <v>0.3192912237126704</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1138808041629972</v>
+        <v>0.09668788942286538</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1535800576012654</v>
+        <v>0.3158544024100733</v>
       </c>
       <c r="J263" t="n">
-        <v>0.6734716749501308</v>
+        <v>0.3879622034404098</v>
       </c>
       <c r="K263" t="n">
-        <v>0.156236718515693</v>
+        <v>0.3202251108973648</v>
       </c>
       <c r="L263" t="n">
-        <v>0.9816746111669387</v>
+        <v>0.5756161400150672</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1529429993983629</v>
+        <v>0.3197707569559231</v>
       </c>
       <c r="N263" t="n">
-        <v>1.251400533712944</v>
+        <v>0.764737011468722</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1519148575023026</v>
+        <v>0.3209119913457297</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1148390373648282</v>
+        <v>0.09862091571059209</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1543557144578374</v>
+        <v>0.3174496266646696</v>
       </c>
       <c r="J264" t="n">
-        <v>0.6754905435467833</v>
+        <v>0.3785570580148391</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1570257928516309</v>
+        <v>0.3218424094372505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.9845460455575979</v>
+        <v>0.5703409889551746</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1537154387892637</v>
+        <v>0.3213857607789327</v>
       </c>
       <c r="N264" t="n">
-        <v>1.254385131637028</v>
+        <v>0.7558249198955098</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1526821042573648</v>
+        <v>0.3225327589787889</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1406.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1406.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3706796089501626</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.07264593803389646</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.07264593803389646</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1162335008542343</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.2875142819227096</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.09153388192270953</v>
+        <v>0.3453045019049171</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002587418147419166</v>
+        <v>0.009760835177609291</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.04358756282033788</v>
+        <v>0.03329694944656253</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008624727158063885</v>
+        <v>0.0006032660118950433</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.11758824</v>
+        <v>0.03329694944656253</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.002326733640000001</v>
+        <v>0.0006032660118950433</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1775882400000001</v>
+        <v>0.08278198812930443</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002174517420560748</v>
+        <v>0.001009643985139186</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1392437952274905</v>
+        <v>0.09784903804845313</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001620767633059241</v>
+        <v>0.001016283402699845</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.09153388192270953</v>
+        <v>0.06552262989684157</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002587418147419166</v>
+        <v>0.001206532023790087</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1609879501504239</v>
+        <v>0.06552262989684157</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003234597079771361</v>
+        <v>0.001206532023790087</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.2634008276260488</v>
+        <v>0.1775882400000001</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003230007646019424</v>
+        <v>0.002115212400000001</v>
       </c>
       <c r="N67" s="171" t="n">
         <v>0.23758824</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.002556850153846154</v>
+        <v>0.002449193305263159</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.1002073413522976</v>
+        <v>0.09523058371599744</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00478567276378899</v>
+        <v>0.00180979803568513</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.2525972888791002</v>
+        <v>0.09523058371599744</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004851895619657042</v>
+        <v>0.00180979803568513</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.4066503200323152</v>
+        <v>0.2297820573523401</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004845011469029136</v>
+        <v>0.003028931955417558</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.4627115598014953</v>
+        <v>0.2763634274015108</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004862302899177723</v>
+        <v>0.003048850208099535</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.1098382141266402</v>
+        <v>0.11758824</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00638089701838532</v>
+        <v>0.002326733640000001</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.3453045019049171</v>
+        <v>0.11758824</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006980200920000002</v>
+        <v>0.002326733640000001</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.515079255048797</v>
+        <v>0.2933707347721327</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006523552261682245</v>
+        <v>0.004038575940556744</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.6015967263956896</v>
+        <v>0.3477330739760379</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006483070532236963</v>
+        <v>0.004065133610799379</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0008624727158063885</v>
+        <v>0.002326733640000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04358756282033788</v>
+        <v>0.11758824</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1111475622156641</v>
+        <v>0.1452717399753846</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00797612127298165</v>
+        <v>0.003016330059475217</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.3687107343651068</v>
+        <v>0.1452717399753846</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008086492699428403</v>
+        <v>0.003016330059475217</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.558088171452222</v>
+        <v>0.3452288203495587</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00807501911504856</v>
+        <v>0.00504821992569593</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.6848540081926768</v>
+        <v>0.4109786485271166</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007670550461538464</v>
+        <v>0.005081417013499225</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1282636305939555</v>
+        <v>0.1695751562122134</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00957134552757798</v>
+        <v>0.00361959607137026</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.3979415765582186</v>
+        <v>0.1695751562122134</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009703791239314084</v>
+        <v>0.00361959607137026</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.6160174565331946</v>
+        <v>0.4015844816959316</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009690022938058273</v>
+        <v>0.006057863910835116</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.7623107324290037</v>
+        <v>0.4751208301358351</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009724605798355445</v>
+        <v>0.006097700416199069</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1243146642361003</v>
+        <v>0.1936168139420265</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01116656978217431</v>
+        <v>0.004222862083265303</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.430787983817433</v>
+        <v>0.1936168139420265</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01132108977919976</v>
+        <v>0.004222862083265303</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.6553746236220714</v>
+        <v>0.4482658864225656</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01130502676106799</v>
+        <v>0.007067507895974302</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.8216371116137451</v>
+        <v>0.5443802978832817</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01134537343141469</v>
+        <v>0.007113983818898914</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1294289081166847</v>
+        <v>0.2170706193745036</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01276179403677064</v>
+        <v>0.004826128095160346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.4617000341291587</v>
+        <v>0.2170706193745036</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01293838831908545</v>
+        <v>0.004826128095160346</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.7040263441846714</v>
+        <v>0.486601202140774</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0129200305840777</v>
+        <v>0.008077151881113487</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.8818143373509302</v>
+        <v>0.5877777308505447</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01296614106447393</v>
+        <v>0.008130267221598758</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1387346072102947</v>
+        <v>0.2396104787193244</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01435701829136697</v>
+        <v>0.005429394107055389</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.4887278054798043</v>
+        <v>0.2396104787193244</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01455568685897113</v>
+        <v>0.005429394107055389</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.7381392896868134</v>
+        <v>0.515079255048797</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01453503440708741</v>
+        <v>0.008764271032344886</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.9326449243124584</v>
+        <v>0.6433338081187121</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01458690869753317</v>
+        <v>0.009146550624298604</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1433600064915165</v>
+        <v>0.2609102981861682</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0159522425459633</v>
+        <v>0.006032660118950433</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.5095213758557783</v>
+        <v>0.2609102981861682</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01617298539885681</v>
+        <v>0.006032660118950433</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.7684801315943161</v>
+        <v>0.5554166074254562</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01615003823009712</v>
+        <v>0.01009643985139186</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.9832313871702285</v>
+        <v>0.6848540081926768</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01620767633059241</v>
+        <v>0.010085515126916</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1464333509349362</v>
+        <v>0.2806439839847148</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01754746680055963</v>
+        <v>0.006635926130845476</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.5291308232434894</v>
+        <v>0.2806439839847148</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01779028393874249</v>
+        <v>0.006635926130845476</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.7989155413729988</v>
+        <v>0.5783301609456747</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01776504205310683</v>
+        <v>0.01110608383653105</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>1.030376240596139</v>
+        <v>0.7220641508007708</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01782844396365165</v>
+        <v>0.01117911742969829</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1540828855151397</v>
+        <v>0.2984854423246439</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01914269105515596</v>
+        <v>0.007239192142740519</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5437062256293458</v>
+        <v>0.2984854423246439</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01940758247862817</v>
+        <v>0.007239192142740519</v>
       </c>
       <c r="L77" t="n">
-        <v>0.8289121904886795</v>
+        <v>0.6099386593281412</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01938004587611655</v>
+        <v>0.01211572782167023</v>
       </c>
       <c r="N77" t="n">
-        <v>1.071181999262091</v>
+        <v>0.7623998767732216</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01944921159671089</v>
+        <v>0.01219540083239814</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1504368552067131</v>
+        <v>0.3141085794156347</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02073791530975229</v>
+        <v>0.007842458154635563</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5653976609997566</v>
+        <v>0.3141085794156347</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02102488101851385</v>
+        <v>0.007842458154635563</v>
       </c>
       <c r="L78" t="n">
-        <v>0.8455367504071784</v>
+        <v>0.6438623367274078</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02099504969912626</v>
+        <v>0.01312537180680942</v>
       </c>
       <c r="N78" t="n">
-        <v>1.09825117783998</v>
+        <v>0.8068615944138182</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02106997922977013</v>
+        <v>0.01321168423509798</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1546235049842426</v>
+        <v>0.3271873014673673</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02233313956434862</v>
+        <v>0.008445724166530605</v>
       </c>
       <c r="J79" t="n">
-        <v>0.57495520734113</v>
+        <v>0.3271873014673673</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02264217955839953</v>
+        <v>0.008445724166530605</v>
       </c>
       <c r="L79" t="n">
-        <v>0.865955892594313</v>
+        <v>0.6730214272980265</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02261005352213597</v>
+        <v>0.0141350157919486</v>
       </c>
       <c r="N79" t="n">
-        <v>1.130386291001708</v>
+        <v>0.8358177643944016</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02269074686282937</v>
+        <v>0.01422796763779783</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1457688320947348</v>
+        <v>0.3373955146895209</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02392836381894495</v>
+        <v>0.009048990178425649</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5930289426398748</v>
+        <v>0.3373955146895209</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02425947809828521</v>
+        <v>0.009048990178425649</v>
       </c>
       <c r="L80" t="n">
-        <v>0.8814362885159027</v>
+        <v>0.7007361651945494</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02422505734514568</v>
+        <v>0.01514465977708779</v>
       </c>
       <c r="N80" t="n">
-        <v>1.164889853419173</v>
+        <v>0.8724368473868136</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02431151449588861</v>
+        <v>0.01524425104049767</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1528890939540462</v>
+        <v>0.3453045019049171</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02552358807354128</v>
+        <v>0.009760835177609291</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5997689448823996</v>
+        <v>0.3453045019049171</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02587677663817089</v>
+        <v>0.009760835177609291</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9027446096377668</v>
+        <v>0.735226784571528</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02584006116815539</v>
+        <v>0.01615430376222697</v>
       </c>
       <c r="N81" t="n">
-        <v>1.185464379764274</v>
+        <v>0.9208873040628958</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02593228212894785</v>
+        <v>0.01626053444319752</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1609475833030069</v>
+        <v>0.3491051742298065</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02711881232813761</v>
+        <v>0.01025552220221574</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6086252920551125</v>
+        <v>0.3491051742298065</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02749407517805657</v>
+        <v>0.01025552220221574</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9160475274257235</v>
+        <v>0.7563135195835141</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02745506499116511</v>
+        <v>0.01716394774736616</v>
       </c>
       <c r="N82" t="n">
-        <v>1.201312384708911</v>
+        <v>0.95383759509449</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02755304976200709</v>
+        <v>0.01727681784589736</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1559310487566273</v>
+        <v>0.3536727948820714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02871403658273394</v>
+        <v>0.01085878821411078</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6214935000441533</v>
+        <v>0.3536727948820714</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02911137371794225</v>
+        <v>0.01085878821411078</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9265056389479825</v>
+        <v>0.78561660438506</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02907006881417482</v>
+        <v>0.01817359173250535</v>
       </c>
       <c r="N83" t="n">
-        <v>1.225146397348104</v>
+        <v>0.986256181153438</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02917381739506633</v>
+        <v>0.01829310124859721</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1588262389299176</v>
+        <v>0.3581669093739525</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03030926083733027</v>
+        <v>0.01146205422600582</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6278903126219392</v>
+        <v>0.3581669093739525</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03072867225782793</v>
+        <v>0.01146205422600582</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9326233389688653</v>
+        <v>0.808456273130718</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03068507263718454</v>
+        <v>0.01918323571764453</v>
       </c>
       <c r="N84" t="n">
-        <v>1.234917399930778</v>
+        <v>1.021311522911581</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03079458502812557</v>
+        <v>0.01930938465129705</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.171619902437888</v>
+        <v>0.3625879515428906</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0319044850919266</v>
+        <v>0.01206532023790087</v>
       </c>
       <c r="J85" t="n">
-        <v>0.6316214346894485</v>
+        <v>0.3625879515428906</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03234597079771361</v>
+        <v>0.01206532023790087</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9495260515353411</v>
+        <v>0.8352527599750396</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03230007646019424</v>
+        <v>0.02019287970278372</v>
       </c>
       <c r="N85" t="n">
-        <v>1.247899249439977</v>
+        <v>1.064872081040761</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03241535266118482</v>
+        <v>0.0203256680539969</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1692987878955488</v>
+        <v>0.3669363552263271</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03349970934652293</v>
+        <v>0.01266858624979591</v>
       </c>
       <c r="J86" t="n">
-        <v>0.6436347723335237</v>
+        <v>0.3669363552263271</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03396326933759929</v>
+        <v>0.01266858624979591</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9620364001830993</v>
+        <v>0.8547262990725762</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03391508028320395</v>
+        <v>0.0212025236879229</v>
       </c>
       <c r="N86" t="n">
-        <v>1.263887959982821</v>
+        <v>1.09970631621282</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03403612029424406</v>
+        <v>0.02134195145669674</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1708496439179102</v>
+        <v>0.3712125542617029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03509493360111926</v>
+        <v>0.01327185226169095</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6482782316410063</v>
+        <v>0.3712125542617029</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03558056787748497</v>
+        <v>0.01327185226169095</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9745770084478286</v>
+        <v>0.8759971245778805</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03553008410621367</v>
+        <v>0.02221216767306209</v>
       </c>
       <c r="N87" t="n">
-        <v>1.283879545666434</v>
+        <v>1.1250826890996</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03565688792730329</v>
+        <v>0.02235823485939659</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1722592191199825</v>
+        <v>0.3754169824864588</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03669015785571559</v>
+        <v>0.01387511827358599</v>
       </c>
       <c r="J88" t="n">
-        <v>0.6528997186987384</v>
+        <v>0.3754169824864588</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03719786641737065</v>
+        <v>0.01387511827358599</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9783704998652186</v>
+        <v>0.8974854706455041</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03714508792922339</v>
+        <v>0.02322181165820128</v>
       </c>
       <c r="N88" t="n">
-        <v>1.297970020597934</v>
+        <v>1.16116966037294</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03727765556036253</v>
+        <v>0.02337451826209644</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1625142621167759</v>
+        <v>0.3795500737380362</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03828538211031192</v>
+        <v>0.01447838428548104</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6584471395935622</v>
+        <v>0.3795500737380362</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03881516495725634</v>
+        <v>0.01447838428548104</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9920394979709574</v>
+        <v>0.9196115714299996</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03876009175223309</v>
+        <v>0.02423145564334046</v>
       </c>
       <c r="N89" t="n">
-        <v>1.309155398884444</v>
+        <v>1.188535690704685</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03889842319342178</v>
+        <v>0.02439080166479628</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1646015215233008</v>
+        <v>0.3836122618538758</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03988060636490825</v>
+        <v>0.01508165029737608</v>
       </c>
       <c r="J90" t="n">
-        <v>0.667668400412319</v>
+        <v>0.3836122618538758</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04043246349714202</v>
+        <v>0.01508165029737608</v>
       </c>
       <c r="L90" t="n">
-        <v>1.001706626300735</v>
+        <v>0.9360956610859178</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0403750955752428</v>
+        <v>0.02524109962847965</v>
       </c>
       <c r="N90" t="n">
-        <v>1.317031694633083</v>
+        <v>1.209449240766675</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04051919082648102</v>
+        <v>0.02540708506749612</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1785077459545673</v>
+        <v>0.3876039806714189</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04147583061950458</v>
+        <v>0.01568491630927113</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6717114072418512</v>
+        <v>0.3876039806714189</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0420497620370277</v>
+        <v>0.01568491630927113</v>
       </c>
       <c r="L91" t="n">
-        <v>1.00009450839024</v>
+        <v>0.9578579737678109</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04199009939825252</v>
+        <v>0.02625074361361883</v>
       </c>
       <c r="N91" t="n">
-        <v>1.328094921950974</v>
+        <v>1.234878771230753</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04213995845954026</v>
+        <v>0.02642336847019597</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1652196840255856</v>
+        <v>0.3915256640281061</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04307105487410091</v>
+        <v>0.01628818232116617</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6757240661690008</v>
+        <v>0.3915256640281061</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04366706057691338</v>
+        <v>0.01628818232116617</v>
       </c>
       <c r="L92" t="n">
-        <v>1.012525767775161</v>
+        <v>0.9662187436302315</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04360510322126223</v>
+        <v>0.02726038759875802</v>
       </c>
       <c r="N92" t="n">
-        <v>1.342341094945236</v>
+        <v>1.269392742768758</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0437607260925995</v>
+        <v>0.02743965187289581</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1667240843513661</v>
+        <v>0.395377745761379</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04466627912869724</v>
+        <v>0.01689144833306121</v>
       </c>
       <c r="J93" t="n">
-        <v>0.6792542832806095</v>
+        <v>0.395377745761379</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04528435911679906</v>
+        <v>0.01689144833306121</v>
       </c>
       <c r="L93" t="n">
-        <v>1.013423027991189</v>
+        <v>0.9839982048277313</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04522010704427194</v>
+        <v>0.02827003158389721</v>
       </c>
       <c r="N93" t="n">
-        <v>1.346266227722992</v>
+        <v>1.281259616052534</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04538149372565874</v>
+        <v>0.02845593527559566</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1830677638454191</v>
+        <v>0.399160659708678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04626150338329357</v>
+        <v>0.01749471434495626</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6850499646635194</v>
+        <v>0.399160659708678</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04690165765668474</v>
+        <v>0.01749471434495626</v>
       </c>
       <c r="L94" t="n">
-        <v>1.019008912574011</v>
+        <v>0.9982165915148619</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04683511086728166</v>
+        <v>0.02927967556903639</v>
       </c>
       <c r="N94" t="n">
-        <v>1.348666334391362</v>
+        <v>1.300547851753922</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04700226135871798</v>
+        <v>0.0294722186782955</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1760626750808091</v>
+        <v>0.4028748397074445</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0478567276378899</v>
+        <v>0.0180979803568513</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6872590164045723</v>
+        <v>0.4028748397074445</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04851895619657042</v>
+        <v>0.0180979803568513</v>
       </c>
       <c r="L95" t="n">
-        <v>1.021506045059316</v>
+        <v>1.000894137846175</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04845011469029137</v>
+        <v>0.03028931955417558</v>
       </c>
       <c r="N95" t="n">
-        <v>1.359437429057467</v>
+        <v>1.317325910544763</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04862302899177722</v>
+        <v>0.03048850208099535</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1819705642814225</v>
+        <v>0.4065207195951193</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04945195189248622</v>
+        <v>0.01870124636874634</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6906090038098344</v>
+        <v>0.4065207195951193</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0501362547364561</v>
+        <v>0.01870124636874634</v>
       </c>
       <c r="L96" t="n">
-        <v>1.030158510097594</v>
+        <v>1.015651077976223</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05006511851330107</v>
+        <v>0.03129896353931477</v>
       </c>
       <c r="N96" t="n">
-        <v>1.369708016385353</v>
+        <v>1.3337622530969</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05024379662483646</v>
+        <v>0.0315047854836952</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1737681797194116</v>
+        <v>0.4100987332091436</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05104717614708256</v>
+        <v>0.01930451238064139</v>
       </c>
       <c r="J97" t="n">
-        <v>0.6838088553084749</v>
+        <v>0.4100987332091436</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05175355327634178</v>
+        <v>0.01930451238064139</v>
       </c>
       <c r="L97" t="n">
-        <v>1.023842002877159</v>
+        <v>1.014607646059558</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05168012233631079</v>
+        <v>0.03230860752445395</v>
       </c>
       <c r="N97" t="n">
-        <v>1.357776638811367</v>
+        <v>1.348425340082174</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05186456425789571</v>
+        <v>0.03252106888639503</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1824625052568146</v>
+        <v>0.4136093143869585</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05264240040167888</v>
+        <v>0.01990777839253643</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6853901729433943</v>
+        <v>0.4136093143869585</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05337085181622746</v>
+        <v>0.01990777839253643</v>
       </c>
       <c r="L98" t="n">
-        <v>1.020559160937438</v>
+        <v>1.030158510097594</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0532951261593205</v>
+        <v>0.03331825150959314</v>
       </c>
       <c r="N98" t="n">
-        <v>1.357730363167067</v>
+        <v>1.351883632172426</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05348533189095495</v>
+        <v>0.03353735228909488</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.17306052475567</v>
+        <v>0.4170528969660048</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05423762465627522</v>
+        <v>0.02051104440443147</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6885357784703612</v>
+        <v>0.4170528969660048</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05498815035611314</v>
+        <v>0.02051104440443147</v>
       </c>
       <c r="L99" t="n">
-        <v>1.019937955788436</v>
+        <v>1.029800602704296</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05491012998233021</v>
+        <v>0.03432789549473232</v>
       </c>
       <c r="N99" t="n">
-        <v>1.36173083806806</v>
+        <v>1.369708016385353</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05510609952401418</v>
+        <v>0.03455363569179472</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1635692220780162</v>
+        <v>0.4204299147837235</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05583284891087155</v>
+        <v>0.02111431041632652</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6886732025506405</v>
+        <v>0.4204299147837235</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05660544889599882</v>
+        <v>0.02111431041632652</v>
       </c>
       <c r="L100" t="n">
-        <v>1.025819167058256</v>
+        <v>1.01991402717828</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05652513380533992</v>
+        <v>0.03533753947987151</v>
       </c>
       <c r="N100" t="n">
-        <v>1.361998921513606</v>
+        <v>1.356959674355233</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05672686715707343</v>
+        <v>0.03556991909449457</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1759955810858914</v>
+        <v>0.4237408016775556</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05742807316546789</v>
+        <v>0.02171757642822156</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6805299001787714</v>
+        <v>0.4237408016775556</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0582227474358845</v>
+        <v>0.02171757642822156</v>
       </c>
       <c r="L101" t="n">
-        <v>1.022443574375005</v>
+        <v>1.022016135875353</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05814013762834964</v>
+        <v>0.03634718346501069</v>
       </c>
       <c r="N101" t="n">
-        <v>1.355689417068038</v>
+        <v>1.361997577749082</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05834763479013266</v>
+        <v>0.03658620249719442</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.180346585641334</v>
+        <v>0.4269859914849424</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0590232974200642</v>
+        <v>0.0223208424401166</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6801333263492936</v>
+        <v>0.4269859914849424</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05984004597577018</v>
+        <v>0.0223208424401166</v>
       </c>
       <c r="L102" t="n">
-        <v>1.018951957366788</v>
+        <v>1.025185514709397</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05975514145135935</v>
+        <v>0.03735682745014988</v>
       </c>
       <c r="N102" t="n">
-        <v>1.350757128295691</v>
+        <v>1.367691259530238</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0599684024231919</v>
+        <v>0.03760248589989426</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1656292196063824</v>
+        <v>0.4301659180433246</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06061852167466054</v>
+        <v>0.02292410845201165</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6832109360567465</v>
+        <v>0.4301659180433246</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06145734451565586</v>
+        <v>0.02292410845201165</v>
       </c>
       <c r="L103" t="n">
-        <v>1.018185095661709</v>
+        <v>1.02545555841892</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06137014527436907</v>
+        <v>0.03836647143528907</v>
       </c>
       <c r="N103" t="n">
-        <v>1.348856858760899</v>
+        <v>1.354213308950348</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06158917005625115</v>
+        <v>0.03861876930259411</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1758504668430749</v>
+        <v>0.4332810151901434</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06221374592925687</v>
+        <v>0.02352737446390669</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6805901842956696</v>
+        <v>0.4332810151901434</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06307464305554154</v>
+        <v>0.02352737446390669</v>
       </c>
       <c r="L104" t="n">
-        <v>1.009683768887875</v>
+        <v>1.016159661742427</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06298514909737878</v>
+        <v>0.03937611542042825</v>
       </c>
       <c r="N104" t="n">
-        <v>1.343143412027996</v>
+        <v>1.357828838144859</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06320993768931038</v>
+        <v>0.03963505270529395</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1710173112134499</v>
+        <v>0.4363317167628399</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0638089701838532</v>
+        <v>0.02413064047580173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6773985260606022</v>
+        <v>0.4363317167628399</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06469194159542722</v>
+        <v>0.02413064047580173</v>
       </c>
       <c r="L105" t="n">
-        <v>1.003088756673391</v>
+        <v>1.022531219418423</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06460015292038848</v>
+        <v>0.04038575940556744</v>
       </c>
       <c r="N105" t="n">
-        <v>1.335171591661317</v>
+        <v>1.351902959249218</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06483070532236963</v>
+        <v>0.0406513361079938</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1761367365795458</v>
+        <v>0.4393184565988547</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06540419443844953</v>
+        <v>0.02473390648769678</v>
       </c>
       <c r="J106" t="n">
-        <v>0.6723634163460842</v>
+        <v>0.4393184565988547</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06630924013531291</v>
+        <v>0.02473390648769678</v>
       </c>
       <c r="L106" t="n">
-        <v>1.005140838646362</v>
+        <v>1.017803626185418</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0662151567433982</v>
+        <v>0.04139540339070663</v>
       </c>
       <c r="N106" t="n">
-        <v>1.337196201225195</v>
+        <v>1.348900784398872</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06645147295542887</v>
+        <v>0.04166761951069364</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1662157268034008</v>
+        <v>0.4422416685356292</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06699941869304586</v>
+        <v>0.02533717249959182</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6653123101466545</v>
+        <v>0.4422416685356292</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06792653867519859</v>
+        <v>0.02533717249959182</v>
       </c>
       <c r="L107" t="n">
-        <v>0.9953807944348939</v>
+        <v>1.016610276781914</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06783016056640791</v>
+        <v>0.04240504737584581</v>
       </c>
       <c r="N107" t="n">
-        <v>1.324872044283964</v>
+        <v>1.341887425729267</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06807224058848811</v>
+        <v>0.04268390291339349</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1682612657470534</v>
+        <v>0.4451017864106045</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06859464294764218</v>
+        <v>0.02594043851148686</v>
       </c>
       <c r="J108" t="n">
-        <v>0.668372662456853</v>
+        <v>0.4451017864106045</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06954383721508427</v>
+        <v>0.02594043851148686</v>
       </c>
       <c r="L108" t="n">
-        <v>0.9931494036670917</v>
+        <v>1.006184565946421</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06944516438941763</v>
+        <v>0.043414691360985</v>
       </c>
       <c r="N108" t="n">
-        <v>1.318553924401958</v>
+        <v>1.337827995375851</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06969300822154735</v>
+        <v>0.04370018631609333</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1652803372725418</v>
+        <v>0.4478992440612212</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07018986720223852</v>
+        <v>0.02654370452338191</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6630719282712189</v>
+        <v>0.4478992440612212</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07116113575496995</v>
+        <v>0.02654370452338191</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9874874459710609</v>
+        <v>1.007459888417443</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07106016821242733</v>
+        <v>0.04442433534612419</v>
       </c>
       <c r="N109" t="n">
-        <v>1.321596645143513</v>
+        <v>1.337287605474069</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07131377585460659</v>
+        <v>0.04471646971879318</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1692799252419046</v>
+        <v>0.4506344753249205</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07178509145683484</v>
+        <v>0.02714697053527695</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6610375625842917</v>
+        <v>0.4506344753249205</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07277843429485563</v>
+        <v>0.02714697053527695</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9756357009749069</v>
+        <v>1.002369638933487</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07267517203543705</v>
+        <v>0.04543397933126337</v>
       </c>
       <c r="N110" t="n">
-        <v>1.307055010072961</v>
+        <v>1.333131368159369</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07293454348766584</v>
+        <v>0.04573275312149302</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1572670135171799</v>
+        <v>0.4533079140391436</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07338031571143118</v>
+        <v>0.02775023654717199</v>
       </c>
       <c r="J111" t="n">
-        <v>0.6569970203906108</v>
+        <v>0.4533079140391436</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07439573283474131</v>
+        <v>0.02775023654717199</v>
       </c>
       <c r="L111" t="n">
-        <v>0.9714349483067352</v>
+        <v>1.004847212233059</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07429017585844677</v>
+        <v>0.04644362331640256</v>
       </c>
       <c r="N111" t="n">
-        <v>1.299583822754638</v>
+        <v>1.323824395567198</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07455531112072507</v>
+        <v>0.04674903652419287</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1622485859604062</v>
+        <v>0.4559199940413313</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0749755399660275</v>
+        <v>0.02835350255906703</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6506777566847161</v>
+        <v>0.4559199940413313</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07601303137462699</v>
+        <v>0.02835350255906703</v>
       </c>
       <c r="L112" t="n">
-        <v>0.9728259675946508</v>
+        <v>0.9966260030546662</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07590517968145646</v>
+        <v>0.04745326730154174</v>
       </c>
       <c r="N112" t="n">
-        <v>1.292937886752876</v>
+        <v>1.323131799833001</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07617607875378431</v>
+        <v>0.04776531992689272</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1692316264336217</v>
+        <v>0.4584711491689247</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07657076422062384</v>
+        <v>0.02895676857096208</v>
       </c>
       <c r="J113" t="n">
-        <v>0.6502072264611463</v>
+        <v>0.4584711491689247</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07763032991451267</v>
+        <v>0.02895676857096208</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9666495384667592</v>
+        <v>0.9974394061368136</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07752018350446618</v>
+        <v>0.04846291128668093</v>
       </c>
       <c r="N113" t="n">
-        <v>1.290072005632011</v>
+        <v>1.308018693092226</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07779684638684356</v>
+        <v>0.04878160332959255</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.166223118798865</v>
+        <v>0.4609618132593648</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07816598847522017</v>
+        <v>0.02956003458285712</v>
       </c>
       <c r="J114" t="n">
-        <v>0.6401128847144416</v>
+        <v>0.4609618132593648</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07924762845439835</v>
+        <v>0.02956003458285712</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9620464405511661</v>
+        <v>0.9911208162180082</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07913518732747589</v>
+        <v>0.04947255527182012</v>
       </c>
       <c r="N114" t="n">
-        <v>1.280740982956376</v>
+        <v>1.30345018748032</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0794176140199028</v>
+        <v>0.0497978867322924</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1632011558170653</v>
+        <v>0.4633924201500927</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0797612127298165</v>
+        <v>0.03016330059475216</v>
       </c>
       <c r="J115" t="n">
-        <v>0.6385221864391409</v>
+        <v>0.4633924201500927</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08086492699428403</v>
+        <v>0.03016330059475216</v>
       </c>
       <c r="L115" t="n">
-        <v>0.9523574534759766</v>
+        <v>0.9813036280367563</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08075019115048561</v>
+        <v>0.0504821992569593</v>
       </c>
       <c r="N115" t="n">
-        <v>1.274999622290305</v>
+        <v>1.304391395132729</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08103838165296204</v>
+        <v>0.05081417013499225</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1530439899495421</v>
+        <v>0.4657634036785493</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08135643698441282</v>
+        <v>0.03076656660664721</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6370625866297842</v>
+        <v>0.4657634036785493</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08248222553416971</v>
+        <v>0.03076656660664721</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9419233568692961</v>
+        <v>0.9835212363315641</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08236519497349533</v>
+        <v>0.05149184324209849</v>
       </c>
       <c r="N116" t="n">
-        <v>1.259802727198133</v>
+        <v>1.2961074281849</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08265914928602128</v>
+        <v>0.05183045353769209</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1617567030302032</v>
+        <v>0.4680751976821756</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08295166123900916</v>
+        <v>0.03136983261854225</v>
       </c>
       <c r="J117" t="n">
-        <v>0.6336652389593462</v>
+        <v>0.4680751976821756</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0840995240740554</v>
+        <v>0.03136983261854225</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9363056626207339</v>
+        <v>0.9740070358409377</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08398019879650503</v>
+        <v>0.05250148722723767</v>
       </c>
       <c r="N117" t="n">
-        <v>1.254274656747826</v>
+        <v>1.28526339877228</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08427991691908052</v>
+        <v>0.05284673694039194</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.161362049316387</v>
+        <v>0.4703282359984128</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08454688549360549</v>
+        <v>0.0319730986304373</v>
       </c>
       <c r="J118" t="n">
-        <v>0.6247543822838558</v>
+        <v>0.4703282359984128</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08571682261394108</v>
+        <v>0.0319730986304373</v>
       </c>
       <c r="L118" t="n">
-        <v>0.9349677095499181</v>
+        <v>0.9756944213033839</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08559520261951475</v>
+        <v>0.05351113121237686</v>
       </c>
       <c r="N118" t="n">
-        <v>1.250460689579642</v>
+        <v>1.281524419030315</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08590068455213977</v>
+        <v>0.05386302034309178</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1628827830654321</v>
+        <v>0.4725229524647016</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08614210974820181</v>
+        <v>0.03257636464233234</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6209371830310134</v>
+        <v>0.4725229524647016</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08733412115382676</v>
+        <v>0.03257636464233234</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9267041663717061</v>
+        <v>0.9764167874574082</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08721020644252446</v>
+        <v>0.05452077519751605</v>
       </c>
       <c r="N119" t="n">
-        <v>1.237782364686847</v>
+        <v>1.283655601094453</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08752145218519899</v>
+        <v>0.05487930374579162</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.144341658534677</v>
+        <v>0.4746597809184833</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08773733400279815</v>
+        <v>0.03317963065422738</v>
       </c>
       <c r="J120" t="n">
-        <v>0.6193030928548674</v>
+        <v>0.4746597809184833</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08895141969371244</v>
+        <v>0.03317963065422738</v>
       </c>
       <c r="L120" t="n">
-        <v>0.9178478979890662</v>
+        <v>0.9682075290415176</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08882521026553417</v>
+        <v>0.05553041918265523</v>
       </c>
       <c r="N120" t="n">
-        <v>1.230018238632996</v>
+        <v>1.278322057100139</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08914221981825823</v>
+        <v>0.05589558714849147</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.14476142998146</v>
+        <v>0.4767391551971988</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08933255825739447</v>
+        <v>0.03378289666612242</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6087415634094667</v>
+        <v>0.4767391551971988</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09056871823359812</v>
+        <v>0.03378289666612242</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9061317693049683</v>
+        <v>0.9663000407942181</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09044021408854389</v>
+        <v>0.05654006316779442</v>
       </c>
       <c r="N121" t="n">
-        <v>1.210846867981646</v>
+        <v>1.276288899182821</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09076298745131749</v>
+        <v>0.05691187055119131</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1421648516631197</v>
+        <v>0.4787615091382892</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09092778251199081</v>
+        <v>0.03438616267801747</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6025420463488596</v>
+        <v>0.4787615091382892</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0921860167734838</v>
+        <v>0.03438616267801747</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8971886452223817</v>
+        <v>0.9646277174540158</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09205521791155359</v>
+        <v>0.0575497071529336</v>
       </c>
       <c r="N122" t="n">
-        <v>1.207446809296355</v>
+        <v>1.271221239477946</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09238375508437673</v>
+        <v>0.05792815395389116</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1515746778369945</v>
+        <v>0.4807272765791953</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09252300676658713</v>
+        <v>0.03498942868991251</v>
       </c>
       <c r="J123" t="n">
-        <v>0.5962939933270947</v>
+        <v>0.4807272765791953</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09380331531336948</v>
+        <v>0.03498942868991251</v>
       </c>
       <c r="L123" t="n">
-        <v>0.8879513906442756</v>
+        <v>0.9642239537594174</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09367022173456331</v>
+        <v>0.05855935113807278</v>
       </c>
       <c r="N123" t="n">
-        <v>1.197296619140679</v>
+        <v>1.267684190120959</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09400452271743596</v>
+        <v>0.058944437356591</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1550136627604229</v>
+        <v>0.4826368913573583</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09411823102118347</v>
+        <v>0.03559269470180756</v>
       </c>
       <c r="J124" t="n">
-        <v>0.5943868559982202</v>
+        <v>0.4826368913573583</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09542061385325516</v>
+        <v>0.03559269470180756</v>
       </c>
       <c r="L124" t="n">
-        <v>0.8853528704736194</v>
+        <v>0.9561221444489288</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09528522555757302</v>
+        <v>0.05956899512321197</v>
       </c>
       <c r="N124" t="n">
-        <v>1.172774854078175</v>
+        <v>1.261242863247309</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0956252903504952</v>
+        <v>0.05996072075929085</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1395045606907434</v>
+        <v>0.4844907873102193</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09571345527577979</v>
+        <v>0.0361959607137026</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5885100860162849</v>
+        <v>0.4844907873102193</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09703791239314084</v>
+        <v>0.0361959607137026</v>
       </c>
       <c r="L125" t="n">
-        <v>0.8741259496133819</v>
+        <v>0.9617556842610567</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09690022938058274</v>
+        <v>0.06057863910835116</v>
       </c>
       <c r="N125" t="n">
-        <v>1.172860070672401</v>
+        <v>1.255962370992441</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09724605798355444</v>
+        <v>0.06097700416199069</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1450643330543361</v>
+        <v>0.4862893982752191</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09730867953037613</v>
+        <v>0.03679922672559764</v>
       </c>
       <c r="J126" t="n">
-        <v>0.579353135035337</v>
+        <v>0.4862893982752191</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09865521093302652</v>
+        <v>0.03679922672559764</v>
       </c>
       <c r="L126" t="n">
-        <v>0.8658034929665334</v>
+        <v>0.9567579679343069</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09851523320359244</v>
+        <v>0.06158828309349035</v>
       </c>
       <c r="N126" t="n">
-        <v>1.159730825486913</v>
+        <v>1.256907825491803</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09886682561661368</v>
+        <v>0.06199328756469054</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1495466480279732</v>
+        <v>0.4880331580897989</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09890390378497245</v>
+        <v>0.03740249273749269</v>
       </c>
       <c r="J127" t="n">
-        <v>0.5767054547094255</v>
+        <v>0.4880331580897989</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1002725094729122</v>
+        <v>0.03740249273749269</v>
       </c>
       <c r="L127" t="n">
-        <v>0.8514183654360422</v>
+        <v>0.9588105682646227</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1001302370266021</v>
+        <v>0.06259792707862953</v>
       </c>
       <c r="N127" t="n">
-        <v>1.149165675085267</v>
+        <v>1.24994433888084</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1004875932496729</v>
+        <v>0.06300957096739039</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1389033301983193</v>
+        <v>0.4897225005913995</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1004991280395688</v>
+        <v>0.03800575874938773</v>
       </c>
       <c r="J128" t="n">
-        <v>0.5717036602232809</v>
+        <v>0.4897225005913995</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1018898080127979</v>
+        <v>0.03800575874938773</v>
       </c>
       <c r="L128" t="n">
-        <v>0.8455041415454506</v>
+        <v>0.9558242745012681</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1017452408496119</v>
+        <v>0.06360757106376873</v>
       </c>
       <c r="N128" t="n">
-        <v>1.136342020540858</v>
+        <v>1.251509139606352</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1021083608827322</v>
+        <v>0.06402585437009023</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1471669522914202</v>
+        <v>0.4913578596174623</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1020943522941651</v>
+        <v>0.03860902476128277</v>
       </c>
       <c r="J129" t="n">
-        <v>0.5638323609435894</v>
+        <v>0.4913578596174623</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1035071065526836</v>
+        <v>0.03860902476128277</v>
       </c>
       <c r="L129" t="n">
-        <v>0.8346089779648181</v>
+        <v>0.9575510814454568</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1033602446726216</v>
+        <v>0.0646172150489079</v>
       </c>
       <c r="N129" t="n">
-        <v>1.118591873156561</v>
+        <v>1.252310068953106</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1037291285157914</v>
+        <v>0.06504213777279007</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1403700870333217</v>
+        <v>0.4929396690054277</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1036895765487614</v>
+        <v>0.03921229077317781</v>
       </c>
       <c r="J130" t="n">
-        <v>0.5599905744146975</v>
+        <v>0.4929396690054277</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1051244050925692</v>
+        <v>0.03921229077317781</v>
       </c>
       <c r="L130" t="n">
-        <v>0.8326504773501312</v>
+        <v>0.9472935597812874</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1049752484956313</v>
+        <v>0.06562685903404708</v>
       </c>
       <c r="N130" t="n">
-        <v>1.1078307274213</v>
+        <v>1.249477429675034</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1053498961488506</v>
+        <v>0.06605842117548992</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1405453071500699</v>
+        <v>0.4944683625927373</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1052848008033578</v>
+        <v>0.03981555678507286</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5520063507055806</v>
+        <v>0.4944683625927373</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1067417036324549</v>
+        <v>0.03981555678507286</v>
       </c>
       <c r="L131" t="n">
-        <v>0.8228188358489129</v>
+        <v>0.9506542801928598</v>
       </c>
       <c r="M131" t="n">
-        <v>0.106590252318641</v>
+        <v>0.06663650301918628</v>
       </c>
       <c r="N131" t="n">
-        <v>1.091414187108114</v>
+        <v>1.262795462431744</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1069706637819099</v>
+        <v>0.06707470457818976</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1377251853677106</v>
+        <v>0.4959443742168318</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1068800250579541</v>
+        <v>0.0404188227969679</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5440077398852138</v>
+        <v>0.4959443742168318</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1083590021723406</v>
+        <v>0.0404188227969679</v>
       </c>
       <c r="L132" t="n">
-        <v>0.8079042496086871</v>
+        <v>0.9545358133642724</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1082052561416507</v>
+        <v>0.06764614700432546</v>
       </c>
       <c r="N132" t="n">
-        <v>1.081697855990046</v>
+        <v>1.250848407882846</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1085914314149691</v>
+        <v>0.06809098798088961</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1219422944122897</v>
+        <v>0.4973681377151525</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1084752493125504</v>
+        <v>0.04102208880886295</v>
       </c>
       <c r="J133" t="n">
-        <v>0.5364227920225727</v>
+        <v>0.4973681377151525</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1099763007122263</v>
+        <v>0.04102208880886295</v>
       </c>
       <c r="L133" t="n">
-        <v>0.7946969147769768</v>
+        <v>0.9450407299796239</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1098202599646604</v>
+        <v>0.06865579098946464</v>
       </c>
       <c r="N133" t="n">
-        <v>1.069837337840133</v>
+        <v>1.254820506687949</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1102121990480284</v>
+        <v>0.06910727138358945</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1282292070098531</v>
+        <v>0.49874008692514</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1100704735671468</v>
+        <v>0.04162535482075799</v>
       </c>
       <c r="J134" t="n">
-        <v>0.5273795571866327</v>
+        <v>0.49874008692514</v>
       </c>
       <c r="K134" t="n">
-        <v>0.111593599252112</v>
+        <v>0.04162535482075799</v>
       </c>
       <c r="L134" t="n">
-        <v>0.783787027501306</v>
+        <v>0.9469716007230132</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1114352637876701</v>
+        <v>0.06966543497460384</v>
       </c>
       <c r="N134" t="n">
-        <v>1.056488236431417</v>
+        <v>1.263995999506662</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1118329666810876</v>
+        <v>0.0701235547862893</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1266184958864468</v>
+        <v>0.5000606556842359</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1116656978217431</v>
+        <v>0.04222862083265303</v>
       </c>
       <c r="J135" t="n">
-        <v>0.5237060854463691</v>
+        <v>0.5000606556842359</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1132108977919976</v>
+        <v>0.04222862083265303</v>
       </c>
       <c r="L135" t="n">
-        <v>0.7819647839291982</v>
+        <v>0.9457309962785391</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1130502676106798</v>
+        <v>0.07067507895974302</v>
       </c>
       <c r="N135" t="n">
-        <v>1.037606155536937</v>
+        <v>1.257259126998595</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1134537343141469</v>
+        <v>0.07113983818898914</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1321427337681167</v>
+        <v>0.5013302778298805</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1132609220763394</v>
+        <v>0.04283188684454807</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5188304268707574</v>
+        <v>0.5013302778298805</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1148281963318833</v>
+        <v>0.04283188684454807</v>
       </c>
       <c r="L136" t="n">
-        <v>0.7701203802081761</v>
+        <v>0.9475214873303007</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1146652714336896</v>
+        <v>0.07168472294488221</v>
       </c>
       <c r="N136" t="n">
-        <v>1.026046698929735</v>
+        <v>1.258694129823355</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1150745019472061</v>
+        <v>0.07215612159168899</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1328344933809086</v>
+        <v>0.5025493871995151</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1148561463309358</v>
+        <v>0.04343515285644312</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5105806315287732</v>
+        <v>0.5025493871995151</v>
       </c>
       <c r="K137" t="n">
-        <v>0.116445494871769</v>
+        <v>0.04343515285644312</v>
       </c>
       <c r="L137" t="n">
-        <v>0.7599440124857645</v>
+        <v>0.9440456445623974</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1162802752566993</v>
+        <v>0.07269436693002139</v>
       </c>
       <c r="N137" t="n">
-        <v>1.019265470382848</v>
+        <v>1.264785248640552</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1166952695802653</v>
+        <v>0.07317240499438883</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1267263474508685</v>
+        <v>0.5037184176305811</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1164513705855321</v>
+        <v>0.04403841886833816</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5020847494893915</v>
+        <v>0.5037184176305811</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1180627934116547</v>
+        <v>0.04403841886833816</v>
       </c>
       <c r="L138" t="n">
-        <v>0.7569258769094861</v>
+        <v>0.9424060386589269</v>
       </c>
       <c r="M138" t="n">
-        <v>0.117895279079709</v>
+        <v>0.07370401091516059</v>
       </c>
       <c r="N138" t="n">
-        <v>1.002318073669319</v>
+        <v>1.267716724109796</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1183160372133246</v>
+        <v>0.07418868839708868</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1168508687040423</v>
+        <v>0.5048378029605191</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1180465948401284</v>
+        <v>0.04464168488023321</v>
       </c>
       <c r="J139" t="n">
-        <v>0.5004708308215878</v>
+        <v>0.5048378029605191</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1196800919515404</v>
+        <v>0.04464168488023321</v>
       </c>
       <c r="L139" t="n">
-        <v>0.7463561696268645</v>
+        <v>0.9456052403039888</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1195102829027187</v>
+        <v>0.07471365490029976</v>
       </c>
       <c r="N139" t="n">
-        <v>0.9928601125621865</v>
+        <v>1.270272796890696</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1199368048463838</v>
+        <v>0.07520497179978852</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1142406298664759</v>
+        <v>0.5059079770267702</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1196418190947247</v>
+        <v>0.04524495089212825</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4957669255943375</v>
+        <v>0.5059079770267702</v>
       </c>
       <c r="K140" t="n">
-        <v>0.121297390491426</v>
+        <v>0.04524495089212825</v>
       </c>
       <c r="L140" t="n">
-        <v>0.7435250867854236</v>
+        <v>0.9463458201816822</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1211252867257284</v>
+        <v>0.07572329888543894</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9855471908344913</v>
+        <v>1.26363770764286</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1215575724794431</v>
+        <v>0.07622125520248837</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1179282036642151</v>
+        <v>0.5069293736667755</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1212370433493211</v>
+        <v>0.04584821690402329</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4940010838766162</v>
+        <v>0.5069293736667755</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1229146890313117</v>
+        <v>0.04584821690402329</v>
       </c>
       <c r="L141" t="n">
-        <v>0.737622824532686</v>
+        <v>0.9414303489761057</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1227402905487381</v>
+        <v>0.07673294287057814</v>
       </c>
       <c r="N141" t="n">
-        <v>0.9802349122592733</v>
+        <v>1.270795697025897</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1231783401125023</v>
+        <v>0.07723753860518821</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1299009416165351</v>
+        <v>0.5079024267179757</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1228322676039174</v>
+        <v>0.04645148291591833</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4896013557373992</v>
+        <v>0.5079024267179757</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1245319875711974</v>
+        <v>0.04645148291591833</v>
       </c>
       <c r="L142" t="n">
-        <v>0.7359395790161759</v>
+        <v>0.941761397371358</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1243552943717478</v>
+        <v>0.07774258685571732</v>
       </c>
       <c r="N142" t="n">
-        <v>0.9797788806095726</v>
+        <v>1.262631005699417</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1247991077455615</v>
+        <v>0.07825382200788807</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1189522664488518</v>
+        <v>0.5088275700178123</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1244274918585137</v>
+        <v>0.04705474892781338</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4933957912456617</v>
+        <v>0.5088275700178123</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1261492861110831</v>
+        <v>0.04705474892781338</v>
       </c>
       <c r="L143" t="n">
-        <v>0.7365636564966743</v>
+        <v>0.9386415360515382</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1259702981947576</v>
+        <v>0.0787522308408565</v>
       </c>
       <c r="N143" t="n">
-        <v>0.9661346996584299</v>
+        <v>1.268827874323029</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1264198753786208</v>
+        <v>0.0792701054105879</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1160502097474138</v>
+        <v>0.5097052374037261</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1260227161131101</v>
+        <v>0.04765801493970842</v>
       </c>
       <c r="J144" t="n">
-        <v>0.489859145745533</v>
+        <v>0.5097052374037261</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1277665846509688</v>
+        <v>0.04765801493970842</v>
       </c>
       <c r="L144" t="n">
-        <v>0.7296197779328472</v>
+        <v>0.9389733357007449</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1275853020177673</v>
+        <v>0.0797618748259957</v>
       </c>
       <c r="N144" t="n">
-        <v>0.9734143921846206</v>
+        <v>1.274370543556341</v>
       </c>
       <c r="O144" t="n">
-        <v>0.12804064301168</v>
+        <v>0.08028638881328776</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1221923780801762</v>
+        <v>0.5105358627131581</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1276179403677064</v>
+        <v>0.04826128095160347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4878182304591946</v>
+        <v>0.5105358627131581</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1293838831908544</v>
+        <v>0.04826128095160347</v>
       </c>
       <c r="L145" t="n">
-        <v>0.7272515117254695</v>
+        <v>0.9390593670030779</v>
       </c>
       <c r="M145" t="n">
-        <v>0.129200305840777</v>
+        <v>0.08077151881113488</v>
       </c>
       <c r="N145" t="n">
-        <v>0.9738359069578348</v>
+        <v>1.274943254058964</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1296614106447393</v>
+        <v>0.0813026722159876</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1143763780150947</v>
+        <v>0.5113198797835493</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1292131646223027</v>
+        <v>0.0488645469634985</v>
       </c>
       <c r="J146" t="n">
-        <v>0.4918548016000682</v>
+        <v>0.5113198797835493</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1310011817307401</v>
+        <v>0.0488645469634985</v>
       </c>
       <c r="L146" t="n">
-        <v>0.7328448823309038</v>
+        <v>0.936502200642635</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1308153096637867</v>
+        <v>0.08178116279627407</v>
       </c>
       <c r="N146" t="n">
-        <v>0.9679157321144953</v>
+        <v>1.274630246490505</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1312821782777985</v>
+        <v>0.08231895561868745</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1145998161201244</v>
+        <v>0.5120577224523407</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1308083888768991</v>
+        <v>0.04946781297539355</v>
       </c>
       <c r="J147" t="n">
-        <v>0.4931594500957303</v>
+        <v>0.5120577224523407</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1326184802706258</v>
+        <v>0.04946781297539355</v>
       </c>
       <c r="L147" t="n">
-        <v>0.7291859142055125</v>
+        <v>0.9403044073035159</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1324303134867964</v>
+        <v>0.08279080678141326</v>
       </c>
       <c r="N147" t="n">
-        <v>0.9693350859824672</v>
+        <v>1.271715761510574</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1329029459108577</v>
+        <v>0.08333523902138729</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1278602989632207</v>
+        <v>0.5127498245569733</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1324036131314954</v>
+        <v>0.0500710789872886</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4949227668737567</v>
+        <v>0.5127498245569733</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1342357788105115</v>
+        <v>0.0500710789872886</v>
       </c>
       <c r="L148" t="n">
-        <v>0.7313606318056579</v>
+        <v>0.9424685576698185</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1340453173098061</v>
+        <v>0.08380045076655245</v>
       </c>
       <c r="N148" t="n">
-        <v>0.9730751868896161</v>
+        <v>1.27208403977878</v>
       </c>
       <c r="O148" t="n">
-        <v>0.134523713543917</v>
+        <v>0.08435152242408712</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.123155433112339</v>
+        <v>0.5133966199348884</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1339988373860917</v>
+        <v>0.05067434499918364</v>
       </c>
       <c r="J149" t="n">
-        <v>0.4967353428617239</v>
+        <v>0.5133966199348884</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1358530773503972</v>
+        <v>0.05067434499918364</v>
       </c>
       <c r="L149" t="n">
-        <v>0.7334550595877024</v>
+        <v>0.9410972224256425</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1356603211328158</v>
+        <v>0.08481009475169161</v>
       </c>
       <c r="N149" t="n">
-        <v>0.9736172531638068</v>
+        <v>1.266619321954733</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1361444811769762</v>
+        <v>0.08536780582678698</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1314828251354347</v>
+        <v>0.5139985424235265</v>
       </c>
       <c r="G150" t="n">
-        <v>0.135594061640688</v>
+        <v>0.05127761101107868</v>
       </c>
       <c r="J150" t="n">
-        <v>0.4962877689872082</v>
+        <v>0.5139985424235265</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1374703758902829</v>
+        <v>0.05127761101107868</v>
       </c>
       <c r="L150" t="n">
-        <v>0.7394552220080083</v>
+        <v>0.9364929722550871</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1372753249558255</v>
+        <v>0.08581973873683081</v>
       </c>
       <c r="N150" t="n">
-        <v>0.9742425031329052</v>
+        <v>1.267705848698041</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1377652488100355</v>
+        <v>0.08638408922948682</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.118840081600463</v>
+        <v>0.514556025860329</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1371892858952844</v>
+        <v>0.05188087702297373</v>
       </c>
       <c r="J151" t="n">
-        <v>0.4937706361777858</v>
+        <v>0.514556025860329</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1390876744301685</v>
+        <v>0.05188087702297373</v>
       </c>
       <c r="L151" t="n">
-        <v>0.7427471435229379</v>
+        <v>0.9397583743487109</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1388903287788353</v>
+        <v>0.08682938272196999</v>
       </c>
       <c r="N151" t="n">
-        <v>0.987232155124776</v>
+        <v>1.269527860668313</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1393860164430947</v>
+        <v>0.08740037263218667</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1242248090753794</v>
+        <v>0.5150695040827369</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1387845101498807</v>
+        <v>0.05248414303486876</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4960745353610329</v>
+        <v>0.5150695040827369</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1407049729700542</v>
+        <v>0.05248414303486876</v>
       </c>
       <c r="L152" t="n">
-        <v>0.7378168485888538</v>
+        <v>0.9445793973174198</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1405053326018449</v>
+        <v>0.08783902670710918</v>
       </c>
       <c r="N152" t="n">
-        <v>0.9849674274672851</v>
+        <v>1.27777231102068</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1410067840761539</v>
+        <v>0.08841665603488651</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1236346141281391</v>
+        <v>0.5155394109281911</v>
       </c>
       <c r="G153" t="n">
-        <v>0.140379734404477</v>
+        <v>0.05308740904676381</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4982900574645257</v>
+        <v>0.5155394109281911</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1423222715099399</v>
+        <v>0.05308740904676381</v>
       </c>
       <c r="L153" t="n">
-        <v>0.7484503616621182</v>
+        <v>0.9366397207517735</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1421203364248547</v>
+        <v>0.08884867069224837</v>
       </c>
       <c r="N153" t="n">
-        <v>0.9819295384882973</v>
+        <v>1.280478439335541</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1426275517092132</v>
+        <v>0.08943293943758636</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.124077828539385</v>
+        <v>0.5159661802341325</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1419749586590734</v>
+        <v>0.05369067505865886</v>
       </c>
       <c r="J154" t="n">
-        <v>0.4993077934158405</v>
+        <v>0.5159661802341325</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1439395700498256</v>
+        <v>0.05369067505865886</v>
       </c>
       <c r="L154" t="n">
-        <v>0.7422337071990933</v>
+        <v>0.9368371088608468</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1437353402478644</v>
+        <v>0.08985831467738756</v>
       </c>
       <c r="N154" t="n">
-        <v>0.9844997065156784</v>
+        <v>1.280167191451101</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1442483193422724</v>
+        <v>0.0904492228402862</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1258260082298402</v>
+        <v>0.5163502458380025</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1435701829136697</v>
+        <v>0.0542939410705539</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4987183341425536</v>
+        <v>0.5163502458380025</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1455568685897113</v>
+        <v>0.0542939410705539</v>
       </c>
       <c r="L155" t="n">
-        <v>0.7475529096561416</v>
+        <v>0.9422693258537148</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1453503440708741</v>
+        <v>0.09086795866252674</v>
       </c>
       <c r="N155" t="n">
-        <v>0.9971591498772931</v>
+        <v>1.267142727654864</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1458690869753317</v>
+        <v>0.09146550624298605</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1329447432851948</v>
+        <v>0.5166920415772419</v>
       </c>
       <c r="G156" t="n">
-        <v>0.145165407168266</v>
+        <v>0.05489720708244894</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5059333889804075</v>
+        <v>0.5166920415772419</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1471741671295969</v>
+        <v>0.05489720708244894</v>
       </c>
       <c r="L156" t="n">
-        <v>0.7473108721688843</v>
+        <v>0.9434341359394521</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1469653478938838</v>
+        <v>0.09187760264766592</v>
       </c>
       <c r="N156" t="n">
-        <v>0.9997773680174757</v>
+        <v>1.270209208234335</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1474898546083909</v>
+        <v>0.09248178964568589</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1213617817687752</v>
+        <v>0.5169920012892915</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1467606314228624</v>
+        <v>0.05550047309434398</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5104553486316583</v>
+        <v>0.5169920012892915</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1487914656694826</v>
+        <v>0.05550047309434398</v>
       </c>
       <c r="L157" t="n">
-        <v>0.7531267469480848</v>
+        <v>0.9439293033271344</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1485803517168935</v>
+        <v>0.09288724663280512</v>
       </c>
       <c r="N157" t="n">
-        <v>1.005004296051212</v>
+        <v>1.274170793477021</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1491106222414501</v>
+        <v>0.09349807304838574</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1330048717439075</v>
+        <v>0.5172505588115925</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1483558556774587</v>
+        <v>0.05610373910623903</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5155686498882464</v>
+        <v>0.5172505588115925</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1504087642093683</v>
+        <v>0.05610373910623903</v>
       </c>
       <c r="L158" t="n">
-        <v>0.7702992697229237</v>
+        <v>0.9441525922258361</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1501953555399032</v>
+        <v>0.0938968906179443</v>
       </c>
       <c r="N158" t="n">
-        <v>1.02013323426317</v>
+        <v>1.265331643670427</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1507313898745094</v>
+        <v>0.09451435645108558</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.140801761273918</v>
+        <v>0.5174681479815861</v>
       </c>
       <c r="G159" t="n">
-        <v>0.149951079932055</v>
+        <v>0.05670700511813407</v>
       </c>
       <c r="J159" t="n">
-        <v>0.5166892555633046</v>
+        <v>0.5174681479815861</v>
       </c>
       <c r="K159" t="n">
-        <v>0.152026062749254</v>
+        <v>0.05670700511813407</v>
       </c>
       <c r="L159" t="n">
-        <v>0.7768065525621576</v>
+        <v>0.938701766844633</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1518103593629129</v>
+        <v>0.09490653460308347</v>
       </c>
       <c r="N159" t="n">
-        <v>1.020897209302787</v>
+        <v>1.272895919102057</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1523521575075686</v>
+        <v>0.09553063985378543</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1426801984221329</v>
+        <v>0.5176452026367131</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1515463041866514</v>
+        <v>0.05731027113002912</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5223331284699657</v>
+        <v>0.5176452026367131</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1536433612891397</v>
+        <v>0.05731027113002912</v>
       </c>
       <c r="L160" t="n">
-        <v>0.782626707534544</v>
+        <v>0.9359745913925998</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1534253631859227</v>
+        <v>0.09591617858822267</v>
       </c>
       <c r="N160" t="n">
-        <v>1.032929247819498</v>
+        <v>1.272567780059416</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1539729251406279</v>
+        <v>0.09654692325648527</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1315679312518786</v>
+        <v>0.5177821566144144</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1531415284412477</v>
+        <v>0.05791353714192415</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5330162314213623</v>
+        <v>0.5177821566144144</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1552606598290253</v>
+        <v>0.05791353714192415</v>
       </c>
       <c r="L161" t="n">
-        <v>0.7956378467088389</v>
+        <v>0.9451688300788111</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1550403670089324</v>
+        <v>0.09692582257336185</v>
       </c>
       <c r="N161" t="n">
-        <v>1.047062376462739</v>
+        <v>1.271451386830011</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1555936927736871</v>
+        <v>0.09756320665918511</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1303927078264812</v>
+        <v>0.5178794437521312</v>
       </c>
       <c r="G162" t="n">
-        <v>0.154736752695844</v>
+        <v>0.05851680315381919</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5361545272306271</v>
+        <v>0.5178794437521312</v>
       </c>
       <c r="K162" t="n">
-        <v>0.156877958368911</v>
+        <v>0.05851680315381919</v>
       </c>
       <c r="L162" t="n">
-        <v>0.8078180821537996</v>
+        <v>0.9390822471123427</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1566553708319421</v>
+        <v>0.09793546655850104</v>
       </c>
       <c r="N162" t="n">
-        <v>1.071629621881945</v>
+        <v>1.262250899701346</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1572144604067463</v>
+        <v>0.09857949006188495</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.136082276209267</v>
+        <v>0.5179374978873047</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1563319769504403</v>
+        <v>0.05912006916571425</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5480639787108929</v>
+        <v>0.5179374978873047</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1584952569087967</v>
+        <v>0.05912006916571425</v>
       </c>
       <c r="L163" t="n">
-        <v>0.8154455259381822</v>
+        <v>0.9376126067022691</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1582703746549518</v>
+        <v>0.09894511054364023</v>
       </c>
       <c r="N163" t="n">
-        <v>1.083364010726551</v>
+        <v>1.266570478960926</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1588352280398056</v>
+        <v>0.0995957734645848</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1425643844635622</v>
+        <v>0.5179567528573755</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1579272012050366</v>
+        <v>0.05972333517760928</v>
       </c>
       <c r="J164" t="n">
-        <v>0.5545605486752919</v>
+        <v>0.5179567528573755</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1601125554486824</v>
+        <v>0.05972333517760928</v>
       </c>
       <c r="L164" t="n">
-        <v>0.8238982901307444</v>
+        <v>0.9458576730576654</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1598853784779615</v>
+        <v>0.09995475452877942</v>
       </c>
       <c r="N164" t="n">
-        <v>1.095198569645994</v>
+        <v>1.263414284896257</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1604559956728648</v>
+        <v>0.1006120568672846</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1458915553535941</v>
+        <v>0.5179567528573756</v>
       </c>
       <c r="G165" t="n">
-        <v>0.159522425459633</v>
+        <v>0.05972333517760928</v>
       </c>
       <c r="J165" t="n">
-        <v>0.5606601999369573</v>
+        <v>0.5179567528573756</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1617298539885681</v>
+        <v>0.05972333517760928</v>
       </c>
       <c r="L165" t="n">
-        <v>0.8373544868002428</v>
+        <v>0.9433152103876074</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1615003823009712</v>
+        <v>0.1009643985139186</v>
       </c>
       <c r="N165" t="n">
-        <v>1.102266325289708</v>
+        <v>1.270986477794844</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1620767633059241</v>
+        <v>0.1016283402699845</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1381861638712299</v>
+        <v>0.5102965975165491</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1611176497142293</v>
+        <v>0.05972306664914527</v>
       </c>
       <c r="J166" t="n">
-        <v>0.5633586167802402</v>
+        <v>0.5102965975165491</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1633471525284537</v>
+        <v>0.05972306664914527</v>
       </c>
       <c r="L166" t="n">
-        <v>0.8451060821971451</v>
+        <v>0.9419829829011689</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1631153861239809</v>
+        <v>0.1019740424990578</v>
       </c>
       <c r="N166" t="n">
-        <v>1.118745976325977</v>
+        <v>1.269391217944193</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1636975309389833</v>
+        <v>0.1026446236726843</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1474507221367054</v>
+        <v>0.5027145621424935</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1627128739688256</v>
+        <v>0.05972279812068126</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5676522148478128</v>
+        <v>0.5027145621424935</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1649644510683394</v>
+        <v>0.05972279812068126</v>
       </c>
       <c r="L167" t="n">
-        <v>0.8516188587978158</v>
+        <v>0.9434587548074257</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1647303899469907</v>
+        <v>0.102983686484197</v>
       </c>
       <c r="N167" t="n">
-        <v>1.121923158252857</v>
+        <v>1.262832665631807</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1653182985720426</v>
+        <v>0.1036609070753842</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1436875221989147</v>
+        <v>0.495213314992043</v>
       </c>
       <c r="G168" t="n">
-        <v>0.164308098223422</v>
+        <v>0.05972252959221723</v>
       </c>
       <c r="J168" t="n">
-        <v>0.5735262497532675</v>
+        <v>0.495213314992043</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1665817496082251</v>
+        <v>0.05972252959221723</v>
       </c>
       <c r="L168" t="n">
-        <v>0.8526556373297208</v>
+        <v>0.9430402903154528</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1663453937700003</v>
+        <v>0.1039933304693362</v>
       </c>
       <c r="N168" t="n">
-        <v>1.130558453901585</v>
+        <v>1.256514981145194</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1669390662051018</v>
+        <v>0.104677190478084</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1418988561067518</v>
+        <v>0.4877955243230087</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1659033224780183</v>
+        <v>0.05972226106375322</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5815897320110623</v>
+        <v>0.4877955243230087</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1681990481481108</v>
+        <v>0.05972226106375322</v>
       </c>
       <c r="L169" t="n">
-        <v>0.8625298013478307</v>
+        <v>0.9417253536343252</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1679603975930101</v>
+        <v>0.1050029744544753</v>
       </c>
       <c r="N169" t="n">
-        <v>1.147069849373306</v>
+        <v>1.257742324771857</v>
       </c>
       <c r="O169" t="n">
-        <v>0.168559833838161</v>
+        <v>0.1056934738807839</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1460870159091107</v>
+        <v>0.4804638583922206</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1674985467326147</v>
+        <v>0.0597219925352892</v>
       </c>
       <c r="J170" t="n">
-        <v>0.5814516721356551</v>
+        <v>0.4804638583922206</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1698163466879965</v>
+        <v>0.0597219925352892</v>
       </c>
       <c r="L170" t="n">
-        <v>0.8716547344071152</v>
+        <v>0.9428117089731182</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1695754014160198</v>
+        <v>0.1060126184396145</v>
       </c>
       <c r="N170" t="n">
-        <v>1.159175330769168</v>
+        <v>1.257618856799303</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1701806014712203</v>
+        <v>0.1067097572834837</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1502542936548853</v>
+        <v>0.4732209854568373</v>
       </c>
       <c r="G171" t="n">
-        <v>0.169093770987211</v>
+        <v>0.05972172400682519</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5858210806415038</v>
+        <v>0.4732209854568373</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1714336452278822</v>
+        <v>0.05972172400682519</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8777438200625455</v>
+        <v>0.9451971205409063</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1711904052390295</v>
+        <v>0.1070222624247537</v>
       </c>
       <c r="N171" t="n">
-        <v>1.168592884190318</v>
+        <v>1.252948737515036</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1718013691042795</v>
+        <v>0.1077260406861836</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1584029813929696</v>
+        <v>0.4660695737737077</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1706889952418073</v>
+        <v>0.05972145547836116</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5889069680430663</v>
+        <v>0.4660695737737077</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1730509437677678</v>
+        <v>0.05972145547836116</v>
       </c>
       <c r="L172" t="n">
-        <v>0.8815104418690912</v>
+        <v>0.9430793525467646</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1728054090620392</v>
+        <v>0.1080319064098929</v>
       </c>
       <c r="N172" t="n">
-        <v>1.174240495737903</v>
+        <v>1.260936127206562</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1734221367373388</v>
+        <v>0.1087423240888834</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1445353711722577</v>
+        <v>0.4590122916006129</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1722842194964036</v>
+        <v>0.05972118694989715</v>
       </c>
       <c r="J173" t="n">
-        <v>0.5937183448548007</v>
+        <v>0.4590122916006129</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1746682423076535</v>
+        <v>0.05972118694989715</v>
       </c>
       <c r="L173" t="n">
-        <v>0.8858679833817235</v>
+        <v>0.9433561691997686</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1744204128850489</v>
+        <v>0.1090415503950321</v>
       </c>
       <c r="N173" t="n">
-        <v>1.17543615151307</v>
+        <v>1.250385186161385</v>
       </c>
       <c r="O173" t="n">
-        <v>0.175042904370398</v>
+        <v>0.1097586074915832</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1436537550416434</v>
+        <v>0.4520518071943977</v>
       </c>
       <c r="G174" t="n">
-        <v>0.173879443751</v>
+        <v>0.05972091842143314</v>
       </c>
       <c r="J174" t="n">
-        <v>0.6044642215911645</v>
+        <v>0.4520518071943977</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1762855408475392</v>
+        <v>0.05972091842143314</v>
       </c>
       <c r="L174" t="n">
-        <v>0.8973298281554124</v>
+        <v>0.9449253347089931</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1760354167080586</v>
+        <v>0.1100511943801713</v>
       </c>
       <c r="N174" t="n">
-        <v>1.191897837616966</v>
+        <v>1.248600074667012</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1766636720034573</v>
+        <v>0.1107748908942831</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1567604250500209</v>
+        <v>0.4451907888122209</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1754746680055963</v>
+        <v>0.05972064989296912</v>
       </c>
       <c r="J175" t="n">
-        <v>0.6031536087666161</v>
+        <v>0.4451907888122209</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1779028393874249</v>
+        <v>0.05972064989296912</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9070093597451289</v>
+        <v>0.9470846132835132</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1776504205310683</v>
+        <v>0.1110608383653105</v>
       </c>
       <c r="N175" t="n">
-        <v>1.199343540150739</v>
+        <v>1.252984953010947</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1782844396365165</v>
+        <v>0.1117911742969829</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1488654638300353</v>
+        <v>0.4384319047109486</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1770698922601926</v>
+        <v>0.0597203813645051</v>
       </c>
       <c r="J176" t="n">
-        <v>0.609495516895613</v>
+        <v>0.4384319047109486</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1795201379273106</v>
+        <v>0.0597203813645051</v>
       </c>
       <c r="L176" t="n">
-        <v>0.9088199617058429</v>
+        <v>0.949931769132404</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1792654243540781</v>
+        <v>0.1120704823504496</v>
       </c>
       <c r="N176" t="n">
-        <v>1.212491245215534</v>
+        <v>1.243843981480696</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1799052072695757</v>
+        <v>0.1128074576996828</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1540312271886139</v>
+        <v>0.4317778231483276</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1786651165147889</v>
+        <v>0.05972011283604108</v>
       </c>
       <c r="J177" t="n">
-        <v>0.6152060548162714</v>
+        <v>0.4317778231483276</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1811374364671962</v>
+        <v>0.05972011283604108</v>
       </c>
       <c r="L177" t="n">
-        <v>0.9160034516866843</v>
+        <v>0.9506645664647403</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1808804281770878</v>
+        <v>0.1130801263355888</v>
       </c>
       <c r="N177" t="n">
-        <v>1.217558941388898</v>
+        <v>1.250081320363764</v>
       </c>
       <c r="O177" t="n">
-        <v>0.181525974902635</v>
+        <v>0.1138237411023826</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1482390648246434</v>
+        <v>0.4252312123812199</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1802603407693853</v>
+        <v>0.05971984430757706</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6194150408169506</v>
+        <v>0.4252312123812199</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1827547350070819</v>
+        <v>0.05971984430757706</v>
       </c>
       <c r="L178" t="n">
-        <v>0.9271184269381615</v>
+        <v>0.9456807694895973</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1824954320000975</v>
+        <v>0.114089770320728</v>
       </c>
       <c r="N178" t="n">
-        <v>1.219017432026684</v>
+        <v>1.237701129947656</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1831467425356942</v>
+        <v>0.1148400245050825</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1614496033806766</v>
+        <v>0.4187947406667838</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1818555650239816</v>
+        <v>0.05971957577911305</v>
       </c>
       <c r="J179" t="n">
-        <v>0.6206161864374526</v>
+        <v>0.4187947406667838</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1843720335469676</v>
+        <v>0.05971957577911305</v>
       </c>
       <c r="L179" t="n">
-        <v>0.9257911341061899</v>
+        <v>0.95107814241605</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1841104358231072</v>
+        <v>0.1150994143058672</v>
       </c>
       <c r="N179" t="n">
-        <v>1.23471554943544</v>
+        <v>1.238007570519877</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1847675101687535</v>
+        <v>0.1158563079077823</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1616234694992663</v>
+        <v>0.4124710762619049</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1834507892785779</v>
+        <v>0.05971930725064902</v>
       </c>
       <c r="J180" t="n">
-        <v>0.6247547069314903</v>
+        <v>0.4124710762619049</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1859893320868533</v>
+        <v>0.05971930725064902</v>
       </c>
       <c r="L180" t="n">
-        <v>0.9391916673213329</v>
+        <v>0.9463544494531738</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1857254396461169</v>
+        <v>0.1161090582910064</v>
       </c>
       <c r="N180" t="n">
-        <v>1.240944324120057</v>
+        <v>1.244004802367933</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1863882778018127</v>
+        <v>0.1168725913104822</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1617212898229653</v>
+        <v>0.4062628874242922</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1850460135331743</v>
+        <v>0.05971903872218501</v>
       </c>
       <c r="J181" t="n">
-        <v>0.6321758175527754</v>
+        <v>0.4062628874242922</v>
       </c>
       <c r="K181" t="n">
-        <v>0.187606630626739</v>
+        <v>0.05971903872218501</v>
       </c>
       <c r="L181" t="n">
-        <v>0.9420901207141531</v>
+        <v>0.9489074548100432</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1873404434691266</v>
+        <v>0.1171187022761456</v>
       </c>
       <c r="N181" t="n">
-        <v>1.250194786585424</v>
+        <v>1.236796985779328</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1880090454348719</v>
+        <v>0.117888874713182</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1627036909943263</v>
+        <v>0.4001728424108263</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1866412377877706</v>
+        <v>0.05971877019372099</v>
       </c>
       <c r="J182" t="n">
-        <v>0.6379247335550206</v>
+        <v>0.4001728424108263</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1892239291666246</v>
+        <v>0.05971877019372099</v>
       </c>
       <c r="L182" t="n">
-        <v>0.9449565884152124</v>
+        <v>0.9474349226957334</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1889554472921363</v>
+        <v>0.1181283462612848</v>
       </c>
       <c r="N182" t="n">
-        <v>1.260557967336432</v>
+        <v>1.230688281041569</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1896298130679312</v>
+        <v>0.1189051581158819</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1625312996559021</v>
+        <v>0.3942036094786653</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1882364620423669</v>
+        <v>0.05971850166525698</v>
       </c>
       <c r="J183" t="n">
-        <v>0.6384466701919383</v>
+        <v>0.3942036094786653</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1908412277065103</v>
+        <v>0.05971850166525698</v>
       </c>
       <c r="L183" t="n">
-        <v>0.9502611645550744</v>
+        <v>0.9499346173193196</v>
       </c>
       <c r="M183" t="n">
-        <v>0.190570451115146</v>
+        <v>0.1191379902464239</v>
       </c>
       <c r="N183" t="n">
-        <v>1.262024896877969</v>
+        <v>1.234682848442159</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1912505807009904</v>
+        <v>0.1199214415185817</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1571647424502455</v>
+        <v>0.3883578568847162</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1898316862969633</v>
+        <v>0.05971823313679295</v>
       </c>
       <c r="J184" t="n">
-        <v>0.6451868427172408</v>
+        <v>0.3883578568847162</v>
       </c>
       <c r="K184" t="n">
-        <v>0.192458526246396</v>
+        <v>0.05971823313679295</v>
       </c>
       <c r="L184" t="n">
-        <v>0.9646739432643011</v>
+        <v>0.9448043028898768</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1921854549381558</v>
+        <v>0.1201476342315631</v>
       </c>
       <c r="N184" t="n">
-        <v>1.270286605714925</v>
+        <v>1.238784848268606</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1928713483340496</v>
+        <v>0.1209377249212816</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1636208838647556</v>
+        <v>0.382638252886646</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1914269105515596</v>
+        <v>0.05971796460832894</v>
       </c>
       <c r="J185" t="n">
-        <v>0.6427904663846409</v>
+        <v>0.382638252886646</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1940758247862817</v>
+        <v>0.05971796460832894</v>
       </c>
       <c r="L185" t="n">
-        <v>0.9672650186734549</v>
+        <v>0.9446417436164801</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1938004587611655</v>
+        <v>0.1211572782167023</v>
       </c>
       <c r="N185" t="n">
-        <v>1.27733412435219</v>
+        <v>1.233298440808413</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1944921159671089</v>
+        <v>0.1219540083239814</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1620555530228014</v>
+        <v>0.3770474657413563</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1930221348061559</v>
+        <v>0.05971769607986493</v>
       </c>
       <c r="J186" t="n">
-        <v>0.6486673484996123</v>
+        <v>0.3770474657413563</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1956931233261674</v>
+        <v>0.05971769607986493</v>
       </c>
       <c r="L186" t="n">
-        <v>0.9646530562757257</v>
+        <v>0.9457447037082046</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1954154625841752</v>
+        <v>0.1221669222018415</v>
       </c>
       <c r="N186" t="n">
-        <v>1.286224235768958</v>
+        <v>1.227027786349086</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1961128836001681</v>
+        <v>0.1229702917266812</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1644808112023067</v>
+        <v>0.371588163706005</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1946173590607523</v>
+        <v>0.05971742755140091</v>
       </c>
       <c r="J187" t="n">
-        <v>0.6490323794701358</v>
+        <v>0.371588163706005</v>
       </c>
       <c r="K187" t="n">
-        <v>0.197310421866053</v>
+        <v>0.05971742755140091</v>
       </c>
       <c r="L187" t="n">
-        <v>0.9677272742743842</v>
+        <v>0.952410947374125</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1970304664071849</v>
+        <v>0.1231765661869807</v>
       </c>
       <c r="N187" t="n">
-        <v>1.292645566080608</v>
+        <v>1.231777045178131</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1977336512332274</v>
+        <v>0.1239865751293811</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1588965135039885</v>
+        <v>0.3662630150375218</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1962125833153486</v>
+        <v>0.05971715902293689</v>
       </c>
       <c r="J188" t="n">
-        <v>0.6488609557175923</v>
+        <v>0.3662630150375218</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1989277204059387</v>
+        <v>0.05971715902293689</v>
       </c>
       <c r="L188" t="n">
-        <v>0.9707471756064617</v>
+        <v>0.9471382388233166</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1986454702301946</v>
+        <v>0.1241862101721199</v>
       </c>
       <c r="N188" t="n">
-        <v>1.287994471408002</v>
+        <v>1.226750377583052</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1993544188662866</v>
+        <v>0.1250028585320809</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1653025150285632</v>
+        <v>0.3610746879935288</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1978078075699449</v>
+        <v>0.05971689049447287</v>
       </c>
       <c r="J189" t="n">
-        <v>0.6510525076131705</v>
+        <v>0.3610746879935288</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2005450189458244</v>
+        <v>0.05971689049447287</v>
       </c>
       <c r="L189" t="n">
-        <v>0.9736119141872482</v>
+        <v>0.9480912424105904</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2002604740532043</v>
+        <v>0.1251958541572591</v>
       </c>
       <c r="N189" t="n">
-        <v>1.287369814701589</v>
+        <v>1.22884318796237</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2009751864993458</v>
+        <v>0.1260191419347808</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1716986708767478</v>
+        <v>0.3560149554475536</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1994030318245412</v>
+        <v>0.05971662196600885</v>
       </c>
       <c r="J190" t="n">
-        <v>0.6542064655280589</v>
+        <v>0.3560149554475536</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2021623174857101</v>
+        <v>0.05971662196600885</v>
       </c>
       <c r="L190" t="n">
-        <v>0.9761206439320348</v>
+        <v>0.9506581082326341</v>
       </c>
       <c r="M190" t="n">
-        <v>0.201875477876214</v>
+        <v>0.1262054981423983</v>
       </c>
       <c r="N190" t="n">
-        <v>1.293470458911818</v>
+        <v>1.220847188427463</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2025959541324051</v>
+        <v>0.1270354253374806</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1620848361492588</v>
+        <v>0.3510211133563748</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2009982560791376</v>
+        <v>0.05971635343754484</v>
       </c>
       <c r="J191" t="n">
-        <v>0.6537222598334465</v>
+        <v>0.3510211133563748</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2037796160255958</v>
+        <v>0.05971635343754484</v>
       </c>
       <c r="L191" t="n">
-        <v>0.9820725187561107</v>
+        <v>0.9452722534397874</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2034904816992237</v>
+        <v>0.1272151421275375</v>
       </c>
       <c r="N191" t="n">
-        <v>1.293195266989139</v>
+        <v>1.223935142883812</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2042167217654643</v>
+        <v>0.1280517087401805</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.160460865946813</v>
+        <v>0.3460849345935392</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2025934803337339</v>
+        <v>0.05971608490908081</v>
       </c>
       <c r="J192" t="n">
-        <v>0.6562993209005216</v>
+        <v>0.3460849345935392</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2053969145654815</v>
+        <v>0.05971608490908081</v>
       </c>
       <c r="L192" t="n">
-        <v>0.9834666925747669</v>
+        <v>0.9419772165486976</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2051054855222335</v>
+        <v>0.1282247861126766</v>
       </c>
       <c r="N192" t="n">
-        <v>1.296943101884</v>
+        <v>1.221714989103285</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2058374893985236</v>
+        <v>0.1290679921428803</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.164826615370127</v>
+        <v>0.3412090874166349</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2041887045883302</v>
+        <v>0.0597158163806168</v>
       </c>
       <c r="J193" t="n">
-        <v>0.6562370791004729</v>
+        <v>0.3412090874166349</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2070142131053671</v>
+        <v>0.0597158163806168</v>
       </c>
       <c r="L193" t="n">
-        <v>0.9776023193032936</v>
+        <v>0.9375165360760133</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2067204893452431</v>
+        <v>0.1292344300978158</v>
       </c>
       <c r="N193" t="n">
-        <v>1.302312826546851</v>
+        <v>1.215494664857747</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2074582570315828</v>
+        <v>0.1300842755455801</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1651819395199177</v>
+        <v>0.3363962400826044</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2057839288429266</v>
+        <v>0.05971554785215279</v>
       </c>
       <c r="J194" t="n">
-        <v>0.6611349648044894</v>
+        <v>0.3363962400826044</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2086315116452528</v>
+        <v>0.05971554785215279</v>
       </c>
       <c r="L194" t="n">
-        <v>0.9864785528569807</v>
+        <v>0.9371337505383822</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2083354931682529</v>
+        <v>0.130244074082955</v>
       </c>
       <c r="N194" t="n">
-        <v>1.30680330392814</v>
+        <v>1.217082107919065</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2090790246646421</v>
+        <v>0.13110055894828</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1715266934969016</v>
+        <v>0.3316490608486059</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2073791530975229</v>
+        <v>0.05971527932368877</v>
       </c>
       <c r="J195" t="n">
-        <v>0.6631924083837593</v>
+        <v>0.3316490608486059</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2102488101851385</v>
+        <v>0.05971527932368877</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9909945471511191</v>
+        <v>0.9383723984524516</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2099504969912626</v>
+        <v>0.1312537180680942</v>
       </c>
       <c r="N195" t="n">
-        <v>1.313513396978318</v>
+        <v>1.212485256059104</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2106997922977013</v>
+        <v>0.1321168423509798</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1768607324017956</v>
+        <v>0.3269702179715958</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2089743773521192</v>
+        <v>0.05971501079522475</v>
       </c>
       <c r="J196" t="n">
-        <v>0.6651088402094715</v>
+        <v>0.3269702179715958</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2118661087250241</v>
+        <v>0.05971501079522475</v>
       </c>
       <c r="L196" t="n">
-        <v>0.9875494561009986</v>
+        <v>0.9311760183348697</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2115655008142723</v>
+        <v>0.1322633620532334</v>
       </c>
       <c r="N196" t="n">
-        <v>1.307941968647832</v>
+        <v>1.20531204704973</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2123205599307605</v>
+        <v>0.1331331257536797</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1711839113353163</v>
+        <v>0.3223623797091395</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2105696016067155</v>
+        <v>0.05971474226676073</v>
       </c>
       <c r="J197" t="n">
-        <v>0.6607836906528144</v>
+        <v>0.3223623797091395</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2134834072649098</v>
+        <v>0.05971474226676073</v>
       </c>
       <c r="L197" t="n">
-        <v>0.99554243362191</v>
+        <v>0.9286881487022837</v>
       </c>
       <c r="M197" t="n">
-        <v>0.213180504637282</v>
+        <v>0.1332730060383726</v>
       </c>
       <c r="N197" t="n">
-        <v>1.317687881887133</v>
+        <v>1.210970418662809</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2139413275638198</v>
+        <v>0.1341494091563795</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1654960853981804</v>
+        <v>0.3178282143181904</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2121648258613119</v>
+        <v>0.05971447373829672</v>
       </c>
       <c r="J198" t="n">
-        <v>0.664216390084977</v>
+        <v>0.3178282143181904</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2151007058047955</v>
+        <v>0.05971447373829672</v>
       </c>
       <c r="L198" t="n">
-        <v>0.9873726336291432</v>
+        <v>0.9178523280713421</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2147955084602917</v>
+        <v>0.1342826500235118</v>
       </c>
       <c r="N198" t="n">
-        <v>1.31874999964667</v>
+        <v>1.207268308670207</v>
       </c>
       <c r="O198" t="n">
-        <v>0.215562095196879</v>
+        <v>0.1351656925590794</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1657971096911046</v>
+        <v>0.3133703900559069</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2137600501159082</v>
+        <v>0.05971420520983271</v>
       </c>
       <c r="J199" t="n">
-        <v>0.666506368877148</v>
+        <v>0.3133703900559069</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2167180043446812</v>
+        <v>0.05971420520983271</v>
       </c>
       <c r="L199" t="n">
-        <v>0.9971392100379884</v>
+        <v>0.9157120949586922</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2164105122833014</v>
+        <v>0.1352922940086509</v>
       </c>
       <c r="N199" t="n">
-        <v>1.323327184876891</v>
+        <v>1.19891365484379</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2171828628299383</v>
+        <v>0.1361819759617792</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1720868393148057</v>
+        <v>0.3089915751792586</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2153552743705045</v>
+        <v>0.05971393668136868</v>
       </c>
       <c r="J200" t="n">
-        <v>0.6654530574005155</v>
+        <v>0.3089915751792586</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2183353028845669</v>
+        <v>0.05971393668136868</v>
       </c>
       <c r="L200" t="n">
-        <v>0.9948413167637357</v>
+        <v>0.9129109878809819</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2180255161063112</v>
+        <v>0.1363019379937901</v>
       </c>
       <c r="N200" t="n">
-        <v>1.320818300528245</v>
+        <v>1.205814394955424</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2188036304629975</v>
+        <v>0.137198259364479</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1733651293700004</v>
+        <v>0.3046944379457849</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2169504986251009</v>
+        <v>0.05971366815290467</v>
       </c>
       <c r="J201" t="n">
-        <v>0.6660558860262686</v>
+        <v>0.3046944379457849</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2199526014244526</v>
+        <v>0.05971366815290467</v>
       </c>
       <c r="L201" t="n">
-        <v>0.9957781077216766</v>
+        <v>0.9027925453548592</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2196405199293208</v>
+        <v>0.1373115819789293</v>
       </c>
       <c r="N201" t="n">
-        <v>1.321022209551183</v>
+        <v>1.196278466776975</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2204243980960567</v>
+        <v>0.1382145427671789</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1746318349574053</v>
+        <v>0.3004816466124519</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2185457228796972</v>
+        <v>0.05971339962444065</v>
       </c>
       <c r="J202" t="n">
-        <v>0.6674142851255958</v>
+        <v>0.3004816466124519</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2215698999643382</v>
+        <v>0.05971339962444065</v>
       </c>
       <c r="L202" t="n">
-        <v>1.0004487368271</v>
+        <v>0.8987003058969717</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2212555237523305</v>
+        <v>0.1383212259640685</v>
       </c>
       <c r="N202" t="n">
-        <v>1.330937774896153</v>
+        <v>1.192013808080308</v>
       </c>
       <c r="O202" t="n">
-        <v>0.222045165729116</v>
+        <v>0.1392308261698788</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1768868111777372</v>
+        <v>0.2963558694364179</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2201409471342935</v>
+        <v>0.05971313109597663</v>
       </c>
       <c r="J203" t="n">
-        <v>0.6689276850696859</v>
+        <v>0.2963558694364179</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2231871985042239</v>
+        <v>0.05971313109597663</v>
       </c>
       <c r="L203" t="n">
-        <v>1.003552357995297</v>
+        <v>0.8949778080239666</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2228705275753403</v>
+        <v>0.1393308699492077</v>
       </c>
       <c r="N203" t="n">
-        <v>1.325263859513604</v>
+        <v>1.19802835663729</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2236659333621752</v>
+        <v>0.1402471095725786</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1681299131317127</v>
+        <v>0.2923197746746676</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2217361713888899</v>
+        <v>0.0597128625675126</v>
       </c>
       <c r="J204" t="n">
-        <v>0.6693955162297274</v>
+        <v>0.2923197746746676</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2248044970441096</v>
+        <v>0.0597128625675126</v>
       </c>
       <c r="L204" t="n">
-        <v>1.002788125141557</v>
+        <v>0.8873685902524927</v>
       </c>
       <c r="M204" t="n">
-        <v>0.22448553139835</v>
+        <v>0.1403405139343468</v>
       </c>
       <c r="N204" t="n">
-        <v>1.329399326353986</v>
+        <v>1.184030050219787</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2252867009952345</v>
+        <v>0.1412633929752784</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1613609959200487</v>
+        <v>0.288376030584711</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2233313956434862</v>
+        <v>0.05971259403904859</v>
       </c>
       <c r="J205" t="n">
-        <v>0.672217208976909</v>
+        <v>0.288376030584711</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2264217955839953</v>
+        <v>0.05971259403904859</v>
       </c>
       <c r="L205" t="n">
-        <v>0.9994551921811715</v>
+        <v>0.8813161910991975</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2261005352213597</v>
+        <v>0.141350157919486</v>
       </c>
       <c r="N205" t="n">
-        <v>1.329043038367747</v>
+        <v>1.182226826599664</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2269074686282937</v>
+        <v>0.1422796763779783</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1735799146434617</v>
+        <v>0.2845273054235284</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2249266198980825</v>
+        <v>0.05971232551058458</v>
       </c>
       <c r="J206" t="n">
-        <v>0.6761921936824193</v>
+        <v>0.2845273054235284</v>
       </c>
       <c r="K206" t="n">
-        <v>0.228039094123881</v>
+        <v>0.05971232551058458</v>
       </c>
       <c r="L206" t="n">
-        <v>1.00225271302943</v>
+        <v>0.8783641490807287</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2277155390443694</v>
+        <v>0.1423598019046252</v>
       </c>
       <c r="N206" t="n">
-        <v>1.337593858505337</v>
+        <v>1.179426623548788</v>
       </c>
       <c r="O206" t="n">
-        <v>0.228528236261353</v>
+        <v>0.1432959597806781</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1667865244026686</v>
+        <v>0.2807762674482787</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2265218441526789</v>
+        <v>0.05971205698212056</v>
       </c>
       <c r="J207" t="n">
-        <v>0.6730199007174469</v>
+        <v>0.2807762674482787</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2296563926637666</v>
+        <v>0.05971205698212056</v>
       </c>
       <c r="L207" t="n">
-        <v>1.009479841601623</v>
+        <v>0.8703560027137337</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2293305428673792</v>
+        <v>0.1433694458897644</v>
       </c>
       <c r="N207" t="n">
-        <v>1.332350649717204</v>
+        <v>1.177337378839024</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2301490038944122</v>
+        <v>0.144312243183378</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1699806802983859</v>
+        <v>0.277125584915963</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2281170684072752</v>
+        <v>0.05971178845365654</v>
       </c>
       <c r="J208" t="n">
-        <v>0.6723997604531807</v>
+        <v>0.277125584915963</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2312736912036523</v>
+        <v>0.05971178845365654</v>
       </c>
       <c r="L208" t="n">
-        <v>1.008935731813041</v>
+        <v>0.8583352905148608</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2309455466903889</v>
+        <v>0.1443790898749036</v>
       </c>
       <c r="N208" t="n">
-        <v>1.3386122749538</v>
+        <v>1.178367030242238</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2317697715274714</v>
+        <v>0.1453285265860778</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1761622374313305</v>
+        <v>0.2735779260840578</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2297122926618715</v>
+        <v>0.05971151992519252</v>
       </c>
       <c r="J209" t="n">
-        <v>0.6761312032608092</v>
+        <v>0.2735779260840578</v>
       </c>
       <c r="K209" t="n">
-        <v>0.232890989743538</v>
+        <v>0.05971151992519252</v>
       </c>
       <c r="L209" t="n">
-        <v>1.010419537578974</v>
+        <v>0.8575455510007571</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2325605505133986</v>
+        <v>0.1453887338600428</v>
       </c>
       <c r="N209" t="n">
-        <v>1.33677759716557</v>
+        <v>1.174723515530296</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2333905391605307</v>
+        <v>0.1463448099887777</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1683310509022191</v>
+        <v>0.2701359592095605</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2313075169164679</v>
+        <v>0.05971125139672851</v>
       </c>
       <c r="J210" t="n">
-        <v>0.6779136595115209</v>
+        <v>0.2701359592095605</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2345082882834237</v>
+        <v>0.05971125139672851</v>
       </c>
       <c r="L210" t="n">
-        <v>1.007430412814712</v>
+        <v>0.8473303226880714</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2341755543364083</v>
+        <v>0.146398377845182</v>
       </c>
       <c r="N210" t="n">
-        <v>1.346545479302967</v>
+        <v>1.172914772475065</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2350113067935899</v>
+        <v>0.1473610933914775</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1644869758117682</v>
+        <v>0.2668023525496291</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2329027411710642</v>
+        <v>0.0597109828682645</v>
       </c>
       <c r="J211" t="n">
-        <v>0.6736465595765048</v>
+        <v>0.2668023525496291</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2361255868233094</v>
+        <v>0.0597109828682645</v>
       </c>
       <c r="L211" t="n">
-        <v>1.014967511435546</v>
+        <v>0.8488331440934508</v>
       </c>
       <c r="M211" t="n">
-        <v>0.235790558159418</v>
+        <v>0.1474080218303212</v>
       </c>
       <c r="N211" t="n">
-        <v>1.345014784316438</v>
+        <v>1.17134873884841</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2366320744266492</v>
+        <v>0.1483773767941774</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1786298672606947</v>
+        <v>0.2635797743612845</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2344979654256605</v>
+        <v>0.05971071433980047</v>
       </c>
       <c r="J212" t="n">
-        <v>0.6747293338269491</v>
+        <v>0.2635797743612845</v>
       </c>
       <c r="K212" t="n">
-        <v>0.237742885363195</v>
+        <v>0.05971071433980047</v>
       </c>
       <c r="L212" t="n">
-        <v>1.011429987356766</v>
+        <v>0.8427975537335431</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2374055619824277</v>
+        <v>0.1484176658154603</v>
       </c>
       <c r="N212" t="n">
-        <v>1.347284375156433</v>
+        <v>1.166533352422197</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2382528420597084</v>
+        <v>0.1493936601968772</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1677595803497152</v>
+        <v>0.2604708929019656</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2360931896802568</v>
+        <v>0.05971044581133646</v>
       </c>
       <c r="J213" t="n">
-        <v>0.681061412634043</v>
+        <v>0.2604708929019656</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2393601839030807</v>
+        <v>0.05971044581133646</v>
       </c>
       <c r="L213" t="n">
-        <v>1.009916994493663</v>
+        <v>0.8322670901249961</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2390205658054374</v>
+        <v>0.1494273098005995</v>
       </c>
       <c r="N213" t="n">
-        <v>1.3469531147734</v>
+        <v>1.172276550968292</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2398736096927676</v>
+        <v>0.150409943599577</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1638759701795465</v>
+        <v>0.2574783764286878</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2376884139348532</v>
+        <v>0.05971017728287244</v>
       </c>
       <c r="J214" t="n">
-        <v>0.6775422263689747</v>
+        <v>0.2574783764286878</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2409774824429664</v>
+        <v>0.05971017728287244</v>
       </c>
       <c r="L214" t="n">
-        <v>1.011027686761525</v>
+        <v>0.8350852917844581</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2406355696284471</v>
+        <v>0.1504369537857387</v>
       </c>
       <c r="N214" t="n">
-        <v>1.34071986611779</v>
+        <v>1.15678627225856</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2414943773258268</v>
+        <v>0.1514262270022769</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1779788918509053</v>
+        <v>0.2574783764286878</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2392836381894495</v>
+        <v>0.05971017728287244</v>
       </c>
       <c r="J215" t="n">
-        <v>0.6816712054029328</v>
+        <v>0.2574783764286878</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2425947809828521</v>
+        <v>0.05971017728287244</v>
       </c>
       <c r="L215" t="n">
-        <v>1.013861218075645</v>
+        <v>0.8252956972285762</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2422505734514568</v>
+        <v>0.1514465977708779</v>
       </c>
       <c r="N215" t="n">
-        <v>1.351183492140051</v>
+        <v>1.167170454064869</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2431151449588861</v>
+        <v>0.1524425104049767</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1720682004645083</v>
+        <v>0.2510140348927091</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2408788624440458</v>
+        <v>0.05966833682743183</v>
       </c>
       <c r="J216" t="n">
-        <v>0.6822477801071063</v>
+        <v>0.2510140348927091</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2442120795227378</v>
+        <v>0.05966833682743183</v>
       </c>
       <c r="L216" t="n">
-        <v>1.016616742351311</v>
+        <v>0.8252418449739983</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2438655772744665</v>
+        <v>0.1524562417560171</v>
       </c>
       <c r="N216" t="n">
-        <v>1.344542855790632</v>
+        <v>1.153237034159084</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2447359125919454</v>
+        <v>0.1534587938076766</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1761437511210722</v>
+        <v>0.2445980071990178</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2424740866986421</v>
+        <v>0.05962649637199123</v>
       </c>
       <c r="J217" t="n">
-        <v>0.6825713808526835</v>
+        <v>0.2445980071990178</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2458293780626234</v>
+        <v>0.05962649637199123</v>
       </c>
       <c r="L217" t="n">
-        <v>1.014193413503816</v>
+        <v>0.8137672735373728</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2454805810974763</v>
+        <v>0.1534658857411563</v>
       </c>
       <c r="N217" t="n">
-        <v>1.349396820019983</v>
+        <v>1.15379395031307</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2463566802250046</v>
+        <v>0.1544750772103764</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1712053989213136</v>
+        <v>0.2382311584697016</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2440693109532385</v>
+        <v>0.05958465591655063</v>
       </c>
       <c r="J218" t="n">
-        <v>0.6803414380108536</v>
+        <v>0.2382311584697016</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2474466766025091</v>
+        <v>0.05958465591655063</v>
       </c>
       <c r="L218" t="n">
-        <v>1.018690385448448</v>
+        <v>0.8164155214353467</v>
       </c>
       <c r="M218" t="n">
-        <v>0.247095584920486</v>
+        <v>0.1544755297262955</v>
       </c>
       <c r="N218" t="n">
-        <v>1.351244247778552</v>
+        <v>1.159249140298694</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2479774478580639</v>
+        <v>0.1554913606130763</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1692529989659495</v>
+        <v>0.2319143538268486</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2456645352078348</v>
+        <v>0.05954281546111002</v>
       </c>
       <c r="J219" t="n">
-        <v>0.6826573819528047</v>
+        <v>0.2319143538268486</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2490639751423948</v>
+        <v>0.05954281546111002</v>
       </c>
       <c r="L219" t="n">
-        <v>1.011406812100498</v>
+        <v>0.8157301271845682</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2487105887434957</v>
+        <v>0.1554851737114346</v>
       </c>
       <c r="N219" t="n">
-        <v>1.35268400201679</v>
+        <v>1.158510541887821</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2495982154911231</v>
+        <v>0.1565076440157761</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1652864063556962</v>
+        <v>0.2256484583925467</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2472597594624311</v>
+        <v>0.05950097500566942</v>
       </c>
       <c r="J220" t="n">
-        <v>0.6819186430497257</v>
+        <v>0.2256484583925467</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2506812736822805</v>
+        <v>0.05950097500566942</v>
       </c>
       <c r="L220" t="n">
-        <v>1.013841847375256</v>
+        <v>0.8134546293016848</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2503255925665054</v>
+        <v>0.1564948176965738</v>
       </c>
       <c r="N220" t="n">
-        <v>1.349114945685144</v>
+        <v>1.146586092852318</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2512189831241823</v>
+        <v>0.157523927418476</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1633054761912708</v>
+        <v>0.2194343372888837</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2488549837170275</v>
+        <v>0.05945913455022882</v>
       </c>
       <c r="J221" t="n">
-        <v>0.6779246516728052</v>
+        <v>0.2194343372888837</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2522985722221662</v>
+        <v>0.05945913455022882</v>
       </c>
       <c r="L221" t="n">
-        <v>1.013794645188013</v>
+        <v>0.8075325663033447</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2519405963895151</v>
+        <v>0.157504461681713</v>
       </c>
       <c r="N221" t="n">
-        <v>1.350235941734064</v>
+        <v>1.15048373096405</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2528397507572415</v>
+        <v>0.1585402108211758</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1663024628105516</v>
+        <v>0.2132728556379477</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2504502079716238</v>
+        <v>0.05941729409478821</v>
       </c>
       <c r="J222" t="n">
-        <v>0.6781748381932317</v>
+        <v>0.2132728556379477</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2539158707620519</v>
+        <v>0.05941729409478821</v>
       </c>
       <c r="L222" t="n">
-        <v>1.012064359454059</v>
+        <v>0.8070945891091187</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2535556002125248</v>
+        <v>0.1585141056668522</v>
       </c>
       <c r="N222" t="n">
-        <v>1.355845853114</v>
+        <v>1.153011393994883</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2544605183903008</v>
+        <v>0.1595564942238756</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1699984941074434</v>
+        <v>0.2071648785618264</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2520454322262202</v>
+        <v>0.05937545363934761</v>
       </c>
       <c r="J223" t="n">
-        <v>0.6813534838861541</v>
+        <v>0.2071648785618264</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2555331693019375</v>
+        <v>0.05937545363934761</v>
       </c>
       <c r="L223" t="n">
-        <v>1.012987115075681</v>
+        <v>0.8081949847885729</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2551706040355345</v>
+        <v>0.1595237496519914</v>
       </c>
       <c r="N223" t="n">
-        <v>1.349984547495218</v>
+        <v>1.147421200352867</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2560812860233601</v>
+        <v>0.1605727776265755</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1632860183669794</v>
+        <v>0.201111271182608</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2536406564808165</v>
+        <v>0.05933361318390701</v>
       </c>
       <c r="J224" t="n">
-        <v>0.6814830573454469</v>
+        <v>0.201111271182608</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2571504678418232</v>
+        <v>0.05933361318390701</v>
       </c>
       <c r="L224" t="n">
-        <v>1.009664936920018</v>
+        <v>0.8156970713200223</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2567856078585442</v>
+        <v>0.1605333936371306</v>
       </c>
       <c r="N224" t="n">
-        <v>1.350243637195526</v>
+        <v>1.143538859326275</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2577020536564193</v>
+        <v>0.1615890610292753</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1722102069818556</v>
+        <v>0.1951128986223803</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2552358807354128</v>
+        <v>0.0592917727284664</v>
       </c>
       <c r="J225" t="n">
-        <v>0.6755068296373393</v>
+        <v>0.1951128986223803</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2587677663817089</v>
+        <v>0.0592917727284664</v>
       </c>
       <c r="L225" t="n">
-        <v>1.004017965470022</v>
+        <v>0.815202272858394</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2584006116815539</v>
+        <v>0.1615430376222698</v>
       </c>
       <c r="N225" t="n">
-        <v>1.334473046971327</v>
+        <v>1.139664818670734</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2593228212894785</v>
+        <v>0.1626053444319752</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1708162313447681</v>
+        <v>0.1891706260032312</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2568311049900092</v>
+        <v>0.05924993227302579</v>
       </c>
       <c r="J226" t="n">
-        <v>0.6696023787742555</v>
+        <v>0.1891706260032312</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2603850649215946</v>
+        <v>0.05924993227302579</v>
       </c>
       <c r="L226" t="n">
-        <v>1.003909962034984</v>
+        <v>0.8131120135586142</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2600156155045637</v>
+        <v>0.1625526816074089</v>
       </c>
       <c r="N226" t="n">
-        <v>1.336427244495679</v>
+        <v>1.147600041246239</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2609435889225377</v>
+        <v>0.163621627834675</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1741492628484131</v>
+        <v>0.1832853184472486</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2584263292446055</v>
+        <v>0.05920809181758519</v>
       </c>
       <c r="J227" t="n">
-        <v>0.6666472827686191</v>
+        <v>0.1832853184472486</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2620023634614803</v>
+        <v>0.05920809181758519</v>
       </c>
       <c r="L227" t="n">
-        <v>0.9921046879241949</v>
+        <v>0.8086277175756106</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2616306193275734</v>
+        <v>0.1635623255925481</v>
       </c>
       <c r="N227" t="n">
-        <v>1.315160697441637</v>
+        <v>1.141245489912785</v>
       </c>
       <c r="O227" t="n">
-        <v>0.262564356555597</v>
+        <v>0.1646379112373749</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1622544728854868</v>
+        <v>0.1774578410765205</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2600215534992018</v>
+        <v>0.05916625136214459</v>
       </c>
       <c r="J228" t="n">
-        <v>0.6554191196328535</v>
+        <v>0.1774578410765205</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2636196620013659</v>
+        <v>0.05916625136214459</v>
       </c>
       <c r="L228" t="n">
-        <v>0.9832659044469486</v>
+        <v>0.8110508090643095</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2632456231505831</v>
+        <v>0.1645719695776873</v>
       </c>
       <c r="N228" t="n">
-        <v>1.305227873482258</v>
+        <v>1.142102127530365</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2641851241886563</v>
+        <v>0.1656541946400747</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1721770328486852</v>
+        <v>0.1716890590131349</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2616167777537981</v>
+        <v>0.05912441090670398</v>
       </c>
       <c r="J229" t="n">
-        <v>0.6526954673793828</v>
+        <v>0.1716890590131349</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2652369605412516</v>
+        <v>0.05912441090670398</v>
       </c>
       <c r="L229" t="n">
-        <v>0.9719573729125356</v>
+        <v>0.8121827121796384</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2648606269735928</v>
+        <v>0.1655816135628265</v>
       </c>
       <c r="N229" t="n">
-        <v>1.2837832402906</v>
+        <v>1.142070916958975</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2658058918217155</v>
+        <v>0.1666704780427746</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1539621141307045</v>
+        <v>0.1659798373791795</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2632120020083944</v>
+        <v>0.05908257045126338</v>
       </c>
       <c r="J230" t="n">
-        <v>0.6428539040206307</v>
+        <v>0.1659798373791795</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2668542590811373</v>
+        <v>0.05908257045126338</v>
       </c>
       <c r="L230" t="n">
-        <v>0.9614428546302488</v>
+        <v>0.808624851076524</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2664756307966025</v>
+        <v>0.1665912575479657</v>
       </c>
       <c r="N230" t="n">
-        <v>1.268881265539719</v>
+        <v>1.140752821058608</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2674266594547747</v>
+        <v>0.1676867614454744</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1676548881242408</v>
+        <v>0.1603310412967424</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2648072262629907</v>
+        <v>0.05904072999582278</v>
       </c>
       <c r="J231" t="n">
-        <v>0.6304720075690204</v>
+        <v>0.1603310412967424</v>
       </c>
       <c r="K231" t="n">
-        <v>0.268471557621023</v>
+        <v>0.05904072999582278</v>
       </c>
       <c r="L231" t="n">
-        <v>0.9447861109093788</v>
+        <v>0.8090786499098931</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2680906346196122</v>
+        <v>0.1676009015331049</v>
       </c>
       <c r="N231" t="n">
-        <v>1.255976416902672</v>
+        <v>1.12964880268926</v>
       </c>
       <c r="O231" t="n">
-        <v>0.269047427087834</v>
+        <v>0.1687030448481742</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1533005262219903</v>
+        <v>0.1547435358879115</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2664024505175871</v>
+        <v>0.05899888954038218</v>
       </c>
       <c r="J232" t="n">
-        <v>0.6265273560369762</v>
+        <v>0.1547435358879115</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2700888561609087</v>
+        <v>0.05899888954038218</v>
       </c>
       <c r="L232" t="n">
-        <v>0.9279509030592189</v>
+        <v>0.8146455328346726</v>
       </c>
       <c r="M232" t="n">
-        <v>0.269705638442622</v>
+        <v>0.1686105455182441</v>
       </c>
       <c r="N232" t="n">
-        <v>1.235023162052516</v>
+        <v>1.136259824710925</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2706681947208932</v>
+        <v>0.1697193282508741</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.159944199816649</v>
+        <v>0.1492181862747748</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2679976747721834</v>
+        <v>0.05895704908494157</v>
       </c>
       <c r="J233" t="n">
-        <v>0.6169975274369217</v>
+        <v>0.1492181862747748</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2717061547007943</v>
+        <v>0.05895704908494157</v>
       </c>
       <c r="L233" t="n">
-        <v>0.9181009923890607</v>
+        <v>0.8136269240057895</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2713206422656316</v>
+        <v>0.1696201895033832</v>
       </c>
       <c r="N233" t="n">
-        <v>1.221975968662308</v>
+        <v>1.126686849983596</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2722889623539524</v>
+        <v>0.170735611653574</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1426310803009132</v>
+        <v>0.14375585757942</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2695928990267797</v>
+        <v>0.05891520862950097</v>
       </c>
       <c r="J234" t="n">
-        <v>0.6036600997812803</v>
+        <v>0.14375585757942</v>
       </c>
       <c r="K234" t="n">
-        <v>0.27332345324068</v>
+        <v>0.05891520862950097</v>
       </c>
       <c r="L234" t="n">
-        <v>0.9031001402081961</v>
+        <v>0.8106242475781708</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2729356460886413</v>
+        <v>0.1706298334885224</v>
       </c>
       <c r="N234" t="n">
-        <v>1.209289304405104</v>
+        <v>1.131830841367269</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2739097299870117</v>
+        <v>0.1717518950562738</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1534063390674789</v>
+        <v>0.1383574149239352</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2711881232813761</v>
+        <v>0.05887336817406036</v>
       </c>
       <c r="J235" t="n">
-        <v>0.5981926510824761</v>
+        <v>0.1383574149239352</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2749407517805657</v>
+        <v>0.05887336817406036</v>
       </c>
       <c r="L235" t="n">
-        <v>0.8910121078259164</v>
+        <v>0.8122389277067431</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2745506499116511</v>
+        <v>0.1716394774736616</v>
       </c>
       <c r="N235" t="n">
-        <v>1.19161763695396</v>
+        <v>1.130492761721938</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2755304976200709</v>
+        <v>0.1727681784589736</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1463151475090424</v>
+        <v>0.1330237234304085</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2727833475359724</v>
+        <v>0.05883152771861976</v>
       </c>
       <c r="J236" t="n">
-        <v>0.5888727593529326</v>
+        <v>0.1330237234304085</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2765580503204514</v>
+        <v>0.05883152771861976</v>
       </c>
       <c r="L236" t="n">
-        <v>0.8751006565515144</v>
+        <v>0.8069723885464336</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2761656537346608</v>
+        <v>0.1726491214588008</v>
       </c>
       <c r="N236" t="n">
-        <v>1.169515433981934</v>
+        <v>1.132173573907597</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2771512652531302</v>
+        <v>0.1737844618616735</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.136398686066202</v>
+        <v>0.1277556482209274</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2743785717905687</v>
+        <v>0.05878968726317915</v>
       </c>
       <c r="J237" t="n">
-        <v>0.5815780026050738</v>
+        <v>0.1277556482209274</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2781753488603371</v>
+        <v>0.05878968726317915</v>
       </c>
       <c r="L237" t="n">
-        <v>0.8705295476942817</v>
+        <v>0.8153260542521693</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2777806575576705</v>
+        <v>0.17365876544394</v>
       </c>
       <c r="N237" t="n">
-        <v>1.155637163162083</v>
+        <v>1.131374240784242</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2787720328861894</v>
+        <v>0.1748007452643733</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1345446022647116</v>
+        <v>0.1225540544175801</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2759737960451651</v>
+        <v>0.05874784680773855</v>
       </c>
       <c r="J238" t="n">
-        <v>0.5756821368311833</v>
+        <v>0.1225540544175801</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2797926474002227</v>
+        <v>0.05874784680773855</v>
       </c>
       <c r="L238" t="n">
-        <v>0.8547663137592018</v>
+        <v>0.8088013489788769</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2793956613806802</v>
+        <v>0.1746684094290792</v>
       </c>
       <c r="N238" t="n">
-        <v>1.136916046957038</v>
+        <v>1.123795725211865</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2803928005192486</v>
+        <v>0.1758170286670732</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1376836680485347</v>
+        <v>0.1174198071424546</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2775690202997614</v>
+        <v>0.05870600635229795</v>
       </c>
       <c r="J239" t="n">
-        <v>0.5640740534581401</v>
+        <v>0.1174198071424546</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2814099459401084</v>
+        <v>0.05870600635229795</v>
       </c>
       <c r="L239" t="n">
-        <v>0.847877030724956</v>
+        <v>0.8166996968814834</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2810106652036899</v>
+        <v>0.1756780534142184</v>
       </c>
       <c r="N239" t="n">
-        <v>1.126091000203896</v>
+        <v>1.128038990050462</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2820135681523079</v>
+        <v>0.176833312069773</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1398157764049669</v>
+        <v>0.1123502389357795</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2791642445543577</v>
+        <v>0.05866416589685734</v>
       </c>
       <c r="J240" t="n">
-        <v>0.5588391358697555</v>
+        <v>0.1123502389357795</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2830272444799941</v>
+        <v>0.05866416589685734</v>
       </c>
       <c r="L240" t="n">
-        <v>0.8320478112935593</v>
+        <v>0.8172225221149155</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2826256690266997</v>
+        <v>0.1766876973993576</v>
       </c>
       <c r="N240" t="n">
-        <v>1.1186125486227</v>
+        <v>1.118504998160028</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2836343357853671</v>
+        <v>0.1778495954724729</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1299408203213037</v>
+        <v>0.1073250194284874</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2807594688089541</v>
+        <v>0.05862232544141673</v>
       </c>
       <c r="J241" t="n">
-        <v>0.549976963377133</v>
+        <v>0.1073250194284874</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2846445430198798</v>
+        <v>0.05862232544141673</v>
       </c>
       <c r="L241" t="n">
-        <v>0.8294780306046888</v>
+        <v>0.8088712488341007</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2842406728497093</v>
+        <v>0.1776973413844967</v>
       </c>
       <c r="N241" t="n">
-        <v>1.098479852466387</v>
+        <v>1.126394712400555</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2852551034184264</v>
+        <v>0.1788658788751727</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1380586927848408</v>
+        <v>0.1023414811608098</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2823546930635504</v>
+        <v>0.05858048498597612</v>
       </c>
       <c r="J242" t="n">
-        <v>0.5432871152913759</v>
+        <v>0.1023414811608098</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2862618415597655</v>
+        <v>0.05858048498597612</v>
       </c>
       <c r="L242" t="n">
-        <v>0.8174670637980214</v>
+        <v>0.8156473011939652</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2858556766727191</v>
+        <v>0.1787069853696359</v>
       </c>
       <c r="N242" t="n">
-        <v>1.087292071987895</v>
+        <v>1.12400909563204</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2868758710514856</v>
+        <v>0.1798821622778725</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1421692867828736</v>
+        <v>0.09740048925483338</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2839499173181467</v>
+        <v>0.05853864453053552</v>
       </c>
       <c r="J243" t="n">
-        <v>0.5360691709235873</v>
+        <v>0.09740048925483338</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2878791400996512</v>
+        <v>0.05853864453053552</v>
       </c>
       <c r="L243" t="n">
-        <v>0.8081142860132341</v>
+        <v>0.8111521033494363</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2874706804957288</v>
+        <v>0.1797166293547751</v>
       </c>
       <c r="N243" t="n">
-        <v>1.067248367440161</v>
+        <v>1.113349110714477</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2884966386845448</v>
+        <v>0.1808984456805724</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1382724953026979</v>
+        <v>0.09250290883264597</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2855451415727431</v>
+        <v>0.05849680407509492</v>
       </c>
       <c r="J244" t="n">
-        <v>0.5314227095848709</v>
+        <v>0.09250290883264597</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2894964386395368</v>
+        <v>0.05849680407509492</v>
       </c>
       <c r="L244" t="n">
-        <v>0.7923190723900041</v>
+        <v>0.8088870794554409</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2890856843187384</v>
+        <v>0.1807262733399143</v>
       </c>
       <c r="N244" t="n">
-        <v>1.048747899076123</v>
+        <v>1.122115720507859</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2901174063176041</v>
+        <v>0.1819147290832722</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1223682113316093</v>
+        <v>0.08764960501633554</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2871403658273394</v>
+        <v>0.05845496361965431</v>
       </c>
       <c r="J245" t="n">
-        <v>0.5239473105863297</v>
+        <v>0.08764960501633554</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2911137371794225</v>
+        <v>0.05845496361965431</v>
       </c>
       <c r="L245" t="n">
-        <v>0.7830807980680082</v>
+        <v>0.8088536536669059</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2907006881417482</v>
+        <v>0.1817359173250535</v>
       </c>
       <c r="N245" t="n">
-        <v>1.04268982714872</v>
+        <v>1.111709887872182</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2917381739506634</v>
+        <v>0.1829310124859721</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1284563278569033</v>
+        <v>0.08284144292798987</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2887355900819357</v>
+        <v>0.05841312316421371</v>
       </c>
       <c r="J246" t="n">
-        <v>0.5152425532390674</v>
+        <v>0.08284144292798987</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2927310357193082</v>
+        <v>0.05841312316421371</v>
       </c>
       <c r="L246" t="n">
-        <v>0.7731988381869243</v>
+        <v>0.8158532501387582</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2923156919647579</v>
+        <v>0.1827455613101927</v>
       </c>
       <c r="N246" t="n">
-        <v>1.019073311910888</v>
+        <v>1.121732575667439</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2933589415837226</v>
+        <v>0.1839472958886719</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1335367378658754</v>
+        <v>0.07807928768969705</v>
       </c>
       <c r="G247" t="n">
-        <v>0.290330814336532</v>
+        <v>0.0583712827087731</v>
       </c>
       <c r="J247" t="n">
-        <v>0.5091080168541871</v>
+        <v>0.07807928768969705</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2943483342591939</v>
+        <v>0.0583712827087731</v>
       </c>
       <c r="L247" t="n">
-        <v>0.757672567886429</v>
+        <v>0.8136872930259248</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2939306957877676</v>
+        <v>0.1837552052953318</v>
       </c>
       <c r="N247" t="n">
-        <v>1.014597513615564</v>
+        <v>1.109884746753626</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2949797092167818</v>
+        <v>0.1849635792913718</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1246093343458213</v>
+        <v>0.07336400442354499</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2919260385911284</v>
+        <v>0.0583294422533325</v>
       </c>
       <c r="J248" t="n">
-        <v>0.5002432807427923</v>
+        <v>0.07336400442354499</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2959656327990796</v>
+        <v>0.0583294422533325</v>
       </c>
       <c r="L248" t="n">
-        <v>0.7485013623061992</v>
+        <v>0.8168572064833323</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2955456996107773</v>
+        <v>0.184764849280471</v>
       </c>
       <c r="N248" t="n">
-        <v>0.9966615925156874</v>
+        <v>1.119467363990736</v>
       </c>
       <c r="O248" t="n">
-        <v>0.296600476849841</v>
+        <v>0.1859798626940716</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1166740102840366</v>
+        <v>0.06869645825162154</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2935212628457247</v>
+        <v>0.05828760179789189</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4958479242159864</v>
+        <v>0.06869645825162154</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2975829313389652</v>
+        <v>0.05828760179789189</v>
       </c>
       <c r="L249" t="n">
-        <v>0.7358845965859121</v>
+        <v>0.8182644146659083</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2971607034337871</v>
+        <v>0.1857744932656102</v>
       </c>
       <c r="N249" t="n">
-        <v>0.9864647088641949</v>
+        <v>1.111981390238765</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2982212444829003</v>
+        <v>0.1869961460967715</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1127306586678168</v>
+        <v>0.06407751429601469</v>
       </c>
       <c r="G250" t="n">
-        <v>0.295116487100321</v>
+        <v>0.05824576134245129</v>
       </c>
       <c r="J250" t="n">
-        <v>0.4885215265848727</v>
+        <v>0.06407751429601469</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2992002298788509</v>
+        <v>0.05824576134245129</v>
       </c>
       <c r="L250" t="n">
-        <v>0.7284216458652452</v>
+        <v>0.8169103417285789</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2987757072567968</v>
+        <v>0.1867841372507494</v>
       </c>
       <c r="N250" t="n">
-        <v>0.9734060229140242</v>
+        <v>1.106027788357705</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2998420121159596</v>
+        <v>0.1880124294994713</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1207791724844576</v>
+        <v>0.05950803767881238</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2967117113549174</v>
+        <v>0.05820392088701069</v>
       </c>
       <c r="J251" t="n">
-        <v>0.4786636671605543</v>
+        <v>0.05950803767881238</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3008175284187366</v>
+        <v>0.05820392088701069</v>
       </c>
       <c r="L251" t="n">
-        <v>0.7204118852838753</v>
+        <v>0.8179964118262714</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3003907110798065</v>
+        <v>0.1877937812358886</v>
       </c>
       <c r="N251" t="n">
-        <v>0.956384694918113</v>
+        <v>1.115107521207554</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3014627797490188</v>
+        <v>0.1890287129021712</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1228194447212546</v>
+        <v>0.05498889352210248</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2983069356095137</v>
+        <v>0.05816208043157008</v>
       </c>
       <c r="J252" t="n">
-        <v>0.4695739252541352</v>
+        <v>0.05498889352210248</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3024348269586223</v>
+        <v>0.05816208043157008</v>
       </c>
       <c r="L252" t="n">
-        <v>0.7057546899814796</v>
+        <v>0.8193240491139125</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3020057149028162</v>
+        <v>0.1888034252210278</v>
       </c>
       <c r="N252" t="n">
-        <v>0.9339998851293991</v>
+        <v>1.112721551648303</v>
       </c>
       <c r="O252" t="n">
-        <v>0.303083547382078</v>
+        <v>0.190044996304871</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1198513683655032</v>
+        <v>0.05052094694797302</v>
       </c>
       <c r="G253" t="n">
-        <v>0.29990215986411</v>
+        <v>0.05812023997612948</v>
       </c>
       <c r="J253" t="n">
-        <v>0.463351880176718</v>
+        <v>0.05052094694797302</v>
       </c>
       <c r="K253" t="n">
-        <v>0.304052125498508</v>
+        <v>0.05812023997612948</v>
       </c>
       <c r="L253" t="n">
-        <v>0.6885494350977351</v>
+        <v>0.8222946777464296</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3036207187258259</v>
+        <v>0.1898130692061669</v>
       </c>
       <c r="N253" t="n">
-        <v>0.9226507538008202</v>
+        <v>1.109070842539948</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3047043150151372</v>
+        <v>0.1910612797075709</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1078748364044992</v>
+        <v>0.04610506307851175</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3014973841187064</v>
+        <v>0.05807839952068888</v>
       </c>
       <c r="J254" t="n">
-        <v>0.4600971112394066</v>
+        <v>0.04610506307851175</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3056694240383936</v>
+        <v>0.05807839952068888</v>
       </c>
       <c r="L254" t="n">
-        <v>0.6787954957723186</v>
+        <v>0.8231097218787494</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3052357225488356</v>
+        <v>0.1908227131913062</v>
       </c>
       <c r="N254" t="n">
-        <v>0.9013364611853136</v>
+        <v>1.101856356742484</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3063250826481965</v>
+        <v>0.1920775631102707</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1088897418255381</v>
+        <v>0.04174210703580677</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3030926083733027</v>
+        <v>0.05803655906524827</v>
       </c>
       <c r="J255" t="n">
-        <v>0.4531091977533042</v>
+        <v>0.04174210703580677</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3072867225782793</v>
+        <v>0.05803655906524827</v>
       </c>
       <c r="L255" t="n">
-        <v>0.6754922471449077</v>
+        <v>0.8170706056657985</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3068507263718454</v>
+        <v>0.1918323571764453</v>
       </c>
       <c r="N255" t="n">
-        <v>0.8975561675358168</v>
+        <v>1.103879057115904</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3079458502812558</v>
+        <v>0.1930938465129705</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1028959776159156</v>
+        <v>0.03743294394194596</v>
       </c>
       <c r="G256" t="n">
-        <v>0.304687832627899</v>
+        <v>0.05799471860980767</v>
       </c>
       <c r="J256" t="n">
-        <v>0.4441877190295139</v>
+        <v>0.03743294394194596</v>
       </c>
       <c r="K256" t="n">
-        <v>0.308904021118165</v>
+        <v>0.05799471860980767</v>
       </c>
       <c r="L256" t="n">
-        <v>0.6599390643551792</v>
+        <v>0.8211787532625042</v>
       </c>
       <c r="M256" t="n">
-        <v>0.308465730194855</v>
+        <v>0.1928420011615845</v>
       </c>
       <c r="N256" t="n">
-        <v>0.8827090331052678</v>
+        <v>1.101739906520203</v>
       </c>
       <c r="O256" t="n">
-        <v>0.309566617914315</v>
+        <v>0.1941101299156704</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1118934367629271</v>
+        <v>0.0331784389190172</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3062830568824954</v>
+        <v>0.05795287815436706</v>
       </c>
       <c r="J257" t="n">
-        <v>0.4340322543791394</v>
+        <v>0.0331784389190172</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3105213196580507</v>
+        <v>0.05795287815436706</v>
       </c>
       <c r="L257" t="n">
-        <v>0.6519353225428106</v>
+        <v>0.8217355888237935</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3100807340178647</v>
+        <v>0.1938516451467237</v>
       </c>
       <c r="N257" t="n">
-        <v>0.8573942181466043</v>
+        <v>1.106339867815376</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3111873855473742</v>
+        <v>0.1951264133183702</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1118820122538683</v>
+        <v>0.02897945708910843</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3078782811370917</v>
+        <v>0.05791103769892646</v>
       </c>
       <c r="J258" t="n">
-        <v>0.427342383113284</v>
+        <v>0.02897945708910843</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3121386181979364</v>
+        <v>0.05791103769892646</v>
       </c>
       <c r="L258" t="n">
-        <v>0.6388803968474787</v>
+        <v>0.8179425365045926</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3116957378408745</v>
+        <v>0.1948612891318629</v>
       </c>
       <c r="N258" t="n">
-        <v>0.8474108829127638</v>
+        <v>1.101879903861418</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3128081531804335</v>
+        <v>0.1961426967210701</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.09986159707603481</v>
+        <v>0.02483686357430764</v>
       </c>
       <c r="G259" t="n">
-        <v>0.309473505391688</v>
+        <v>0.05786919724348585</v>
       </c>
       <c r="J259" t="n">
-        <v>0.4225176845430509</v>
+        <v>0.02483686357430764</v>
       </c>
       <c r="K259" t="n">
-        <v>0.313755916737822</v>
+        <v>0.05786919724348585</v>
       </c>
       <c r="L259" t="n">
-        <v>0.6269736624088601</v>
+        <v>0.8218010204598293</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3133107416638842</v>
+        <v>0.1958709331170021</v>
       </c>
       <c r="N259" t="n">
-        <v>0.8322581876566841</v>
+        <v>1.098460977518321</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3144289208134927</v>
+        <v>0.1971589801237699</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1068320842167222</v>
+        <v>0.02075152349670265</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3110687296462843</v>
+        <v>0.05782735678804525</v>
       </c>
       <c r="J260" t="n">
-        <v>0.4134577379795437</v>
+        <v>0.02075152349670265</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3153732152777077</v>
+        <v>0.05782735678804525</v>
       </c>
       <c r="L260" t="n">
-        <v>0.6178144943666329</v>
+        <v>0.8283124648444297</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3149257454868939</v>
+        <v>0.1968805771021413</v>
       </c>
       <c r="N260" t="n">
-        <v>0.8154352926313022</v>
+        <v>1.105584051646082</v>
       </c>
       <c r="O260" t="n">
-        <v>0.316049688446552</v>
+        <v>0.1981752635264697</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.09179336666322596</v>
+        <v>0.01672430197838148</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3126639539008807</v>
+        <v>0.05778551633260465</v>
       </c>
       <c r="J261" t="n">
-        <v>0.4027621227338655</v>
+        <v>0.01672430197838148</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3169905138175934</v>
+        <v>0.05778551633260465</v>
       </c>
       <c r="L261" t="n">
-        <v>0.6065022678604737</v>
+        <v>0.8271782938133215</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3165407493099036</v>
+        <v>0.1978902210872805</v>
       </c>
       <c r="N261" t="n">
-        <v>0.7959413580895558</v>
+        <v>1.103850089104694</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3176704560796112</v>
+        <v>0.1991915469291696</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1047453374028419</v>
+        <v>0.01275606414143204</v>
       </c>
       <c r="G262" t="n">
-        <v>0.314259178155477</v>
+        <v>0.05774367587716404</v>
       </c>
       <c r="J262" t="n">
-        <v>0.3922304181171197</v>
+        <v>0.01275606414143204</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3186078123574791</v>
+        <v>0.05774367587716404</v>
       </c>
       <c r="L262" t="n">
-        <v>0.5923363580300595</v>
+        <v>0.8261999315214311</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3181557531329133</v>
+        <v>0.1988998650724196</v>
       </c>
       <c r="N262" t="n">
-        <v>0.7863755442843836</v>
+        <v>1.106160052754152</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3192912237126704</v>
+        <v>0.2002078303318695</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.09668788942286538</v>
+        <v>0.008847675107942238</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3158544024100733</v>
+        <v>0.05770183542172344</v>
       </c>
       <c r="J263" t="n">
-        <v>0.3879622034404098</v>
+        <v>0.008847675107942238</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3202251108973648</v>
+        <v>0.05770183542172344</v>
       </c>
       <c r="L263" t="n">
-        <v>0.5756161400150672</v>
+        <v>0.8244788021236858</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3197707569559231</v>
+        <v>0.1999095090575588</v>
       </c>
       <c r="N263" t="n">
-        <v>0.764737011468722</v>
+        <v>1.108914905454449</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3209119913457297</v>
+        <v>0.2012241137345693</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.09862091571059209</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3174496266646696</v>
+        <v>0.05765999496628284</v>
       </c>
       <c r="J264" t="n">
-        <v>0.3785570580148391</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3218424094372505</v>
+        <v>0.05765999496628284</v>
       </c>
       <c r="L264" t="n">
-        <v>0.5703409889551746</v>
+        <v>0.8238163297750122</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3213857607789327</v>
+        <v>0.200919153042698</v>
       </c>
       <c r="N264" t="n">
-        <v>0.7558249198955098</v>
+        <v>1.102915610065582</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3225327589787889</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.2022403971372691</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05764683707154599</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05764683707154599</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.01084615427168353</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05764710560001</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.01084615427168353</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05764710560001</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.0166712216254333</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05764737412847402</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.0166712216254333</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05764737412847402</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.02247506459295709</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05764764265693804</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.02247506459295709</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05764764265693804</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.02825754570520544</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05764791118540206</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.02825754570520544</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05764791118540206</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.03401852749388712</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05764817971386607</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.03401852749388712</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05764817971386607</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.03975787249045779</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05764844824233008</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.03975787249045779</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05764844824233008</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.04547544322662153</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05764871677079411</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.04547544322662153</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05764871677079411</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.05117110223333637</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05764898529925813</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.05117110223333637</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05764898529925813</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.05684471204230732</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05764925382772215</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.05684471204230732</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05764925382772215</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.06249613518499006</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05764952235618616</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.06249613518499006</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05764952235618616</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.06812523419308483</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05764979088465019</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.06812523419308483</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05764979088465019</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.07373187159755731</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0576500594131142</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.07373187159755731</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0576500594131142</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0793159099301087</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05765032794157821</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.0793159099301087</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05765032794157821</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.08487721172219462</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05765059647004223</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.08487721172219462</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05765059647004223</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.09041563950551149</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05765086499850625</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.09041563950551149</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05765086499850625</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.09593105581103276</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05765113352697027</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.09593105581103276</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05765113352697027</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.1014233231704557</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05765140205543428</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.1014233231704557</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05765140205543428</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.106892304115236</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05765167058389829</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.106892304115236</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05765167058389829</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.1123378611770659</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05765193911236232</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.1123378611770659</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05765193911236232</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.1177598568869271</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05765220764082633</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.1177598568869271</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05765220764082633</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.1231581537765128</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05765247616929035</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.1231581537765128</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05765247616929035</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.1285326143772787</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05765274469775437</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.1285326143772787</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05765274469775437</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.1338831012209128</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05765301322621839</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.1338831012209128</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05765301322621839</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.139209476838405</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05765328175468241</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.139209476838405</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05765328175468241</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.1445121650913338</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05765355028314642</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.1445121650913338</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05765355028314642</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.14979439649049</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05765381881161043</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.14979439649049</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05765381881161043</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.1550565948974474</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05765408734007446</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.1550565948974474</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05765408734007446</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.1602986228432036</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05765435586853847</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.1602986228432036</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05765435586853847</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.1655203428594438</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05765462439700249</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.1655203428594438</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05765462439700249</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.1707216174776235</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0576548929254665</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.1707216174776235</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.0576548929254665</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.1759023092294236</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05765516145393053</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.1759023092294236</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05765516145393053</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.1810622806458488</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05765542998239454</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.1810622806458488</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05765542998239454</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.1862013942585808</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05765569851085856</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.1862013942585808</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05765569851085856</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.1913195125990751</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05765596703932258</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.1913195125990751</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05765596703932258</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.1964164981990089</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0576562355677866</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.1964164981990089</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.0576562355677866</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.2014922135893943</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05765650409625062</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.2014922135893943</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05765650409625062</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.2065465213019091</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05765677262471463</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.2065465213019091</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05765677262471463</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.2115792838680093</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05765704115317864</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.2115792838680093</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.05765704115317864</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.2165903638193679</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05765730968164267</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.2165903638193679</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05765730968164267</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.2215796236870046</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05765757821010668</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.2215796236870046</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05765757821010668</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.2265469260025935</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0576578467385707</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.2265469260025935</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.0576578467385707</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.2314921332975905</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05765811526703471</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.2314921332975905</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05765811526703471</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.2364151081036649</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05765838379549874</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.2364151081036649</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05765838379549874</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.241315712951844</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05765865232396275</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.241315712951844</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05765865232396275</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.2461938103737983</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05765892085242676</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.2461938103737983</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05765892085242676</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.2510492629009832</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05765918938089078</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.2510492629009832</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05765918938089078</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.2558819330650646</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0576594579093548</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.2558819330650646</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.0576594579093548</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.2606916833970773</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05765972643781882</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.2606916833970773</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05765972643781882</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.2654783764286879</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05765999496628284</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.2654783764286879</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05765999496628284</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.2654783764286878</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05764683707154599</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.2654783764286878</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05764683707154599</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.2715302625882464</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05768921458391463</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.2715302625882464</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05768921458391463</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.2775462663826022</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05773159209628326</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.2775462663826022</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05773159209628326</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.2835259392710053</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05777396960865191</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.2835259392710053</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05777396960865191</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.2894688327126994</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05781634712102054</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.2894688327126994</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05781634712102054</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.2953744981669347</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05785872463338919</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.2953744981669347</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05785872463338919</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.301242487092955</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05790110214575782</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.301242487092955</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05790110214575782</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.3070723509500103</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05794347965812646</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.3070723509500103</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05794347965812646</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.3128636411973444</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0579858571704951</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.3128636411973444</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.0579858571704951</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.3186159092942074</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05802823468286374</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.3186159092942074</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05802823468286374</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.3243287066998432</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05807061219523237</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.3243287066998432</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05807061219523237</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.3300015848735016</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05811298970760102</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.3300015848735016</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05811298970760102</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.3356340952744268</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05815536721996965</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.3356340952744268</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05815536721996965</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.3412257893618684</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0581977447323383</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.3412257893618684</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.0581977447323383</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.3467762185950707</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05824012224470693</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.3467762185950707</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05824012224470693</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.3522849344332833</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05828249975707558</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.3522849344332833</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05828249975707558</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.3577514883357505</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05832487726944421</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.3577514883357505</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05832487726944421</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.363175431761722</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05836725478181285</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.363175431761722</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05836725478181285</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.3685563161704417</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05840963229418148</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.3685563161704417</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05840963229418148</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.3738936930211595</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05845200980655013</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.3738936930211595</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05845200980655013</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.3791871137731196</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05849438731891876</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.3791871137731196</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05849438731891876</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.3844361298855717</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05853676483128741</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.3844361298855717</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05853676483128741</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.38964029281776</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05857914234365604</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.38964029281776</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05857914234365604</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.3947991540289342</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05862151985602469</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.3947991540289342</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05862151985602469</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.3999122649783381</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05866389736839332</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.3999122649783381</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05866389736839332</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.4049810086666303</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05870627488076196</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.4049810086666303</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05870627488076196</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.4100159258015048</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0587486523931306</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.4100159258015048</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.0587486523931306</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.4150183993836194</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05879102990549924</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.4150183993836194</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05879102990549924</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.4199879808722188</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05883340741786787</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.4199879808722188</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05883340741786787</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.4249242217265519</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05887578493023651</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.4249242217265519</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05887578493023651</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.4298266734058638</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05891816244260515</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.4298266734058638</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05891816244260515</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.4346948873694033</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05896053995497379</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.4346948873694033</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05896053995497379</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.4395284150764155</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05900291746734242</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.4395284150764155</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05900291746734242</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.4443268079861493</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05904529497971107</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.4443268079861493</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05904529497971107</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.4490896175578493</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0590876724920797</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.4490896175578493</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.0590876724920797</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.4538163952507651</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05913005000444835</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.4538163952507651</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05913005000444835</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.458506692524141</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05917242751681698</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.458506692524141</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05917242751681698</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.4631600608372263</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05921480502918562</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.4631600608372263</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05921480502918562</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.4677760516492656</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05925718254155426</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.4677760516492656</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05925718254155426</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.4723542164195086</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0592995600539229</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.4723542164195086</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.0592995600539229</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.4768941066071992</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05934193756629153</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.4768941066071992</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05934193756629153</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.4813952736715871</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05938431507866018</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.4813952736715871</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05938431507866018</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.4858572690719166</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05942669259102881</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.4858572690719166</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05942669259102881</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.4902796442674376</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05946907010339746</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.4902796442674376</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05946907010339746</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.494661950717394</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05951144761576609</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.494661950717394</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05951144761576609</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.4990037398810354</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05955382512813473</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.4990037398810354</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05955382512813473</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.5033045632176064</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05959620264050337</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.5033045632176064</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05959620264050337</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.5075639721863563</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05963858015287201</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.5075639721863563</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05963858015287201</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.5117815182465296</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05968095766524064</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.5117815182465296</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05968095766524064</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.5159567528573756</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05972333517760928</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.5159567528573756</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05972333517760928</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.5159567528573756</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05972333517760928</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.5159567528573756</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05972333517760928</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.5067831914072868</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06290376152626838</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.5067831914072868</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.06290376152626838</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.4986494947946828</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06608418787492748</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.4986494947946828</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.06608418787492748</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.4914976878650845</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06926461422358658</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.4914976878650845</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06926461422358658</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.4852697954640118</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07244504057224567</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.4852697954640118</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.07244504057224567</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.4799078424369855</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07562546692090477</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.4799078424369855</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.07562546692090477</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.4753538536295256</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07880589326956386</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.4753538536295256</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07880589326956386</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.4715498538871528</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08198631961822296</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.4715498538871528</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.08198631961822296</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.4684378680553872</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08516674596688205</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.4684378680553872</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.08516674596688205</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.4659599209797495</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08834717231554115</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.4659599209797495</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08834717231554115</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.4640580375057598</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09152759866420024</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.4640580375057598</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.09152759866420024</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.4626742424789385</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09470802501285934</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.4626742424789385</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.09470802501285934</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.4617505607448061</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09788845136151844</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.4617505607448061</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09788845136151844</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.4612290171488831</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1010688777101775</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.4612290171488831</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.1010688777101775</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.4610516365366896</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1042493040588366</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.4610516365366896</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1042493040588366</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.4625607568936922</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1074297304074957</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.4625607568936922</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1074297304074957</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.4670782101239315</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1106101567561548</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.4670782101239315</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1106101567561548</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.4736327127014002</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1137905831048139</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.4736327127014002</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1137905831048139</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.481239163864267</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.116971009453473</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.481239163864267</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.116971009453473</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.4889124628507014</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1201514358021321</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.4889124628507014</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1201514358021321</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.4956675088988725</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1233318621507912</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.4956675088988725</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1233318621507912</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.5005192012469489</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1265122884994503</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.5005192012469489</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1265122884994503</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.5024824391331003</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1296927148481094</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.5024824391331003</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1296927148481094</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.5016078269322837</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1328731411967685</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.5016078269322837</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1328731411967685</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.4988939336712929</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1360535675454276</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.4988939336712929</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1360535675454276</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.4945119455861976</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1392339938940867</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.4945119455861976</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1392339938940867</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.4886307697885628</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1424144202427458</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.4886307697885628</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1424144202427458</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.4814193133899534</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1455948465914049</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.4814193133899534</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1455948465914049</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.4730464835019341</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.4730464835019341</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.4636811872360701</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1519556992887231</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.4636811872360701</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1519556992887231</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.453492331703926</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1551361256373822</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.453492331703926</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1551361256373822</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.4426488240170668</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1583165519860412</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.4426488240170668</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1583165519860412</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.4313195712870576</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1614969783347004</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.4313195712870576</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1614969783347004</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.4196734806254628</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1646774046833595</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.4196734806254628</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1646774046833595</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.4068509562242796</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1678578310320185</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.4068509562242796</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1678578310320185</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.3847670414743624</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1710382573806777</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.3847670414743624</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1710382573806777</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.3601025104676207</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1742186837293367</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.3601025104676207</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1742186837293367</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.3434389180903699</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1773991100779958</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.3434389180903699</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1773991100779958</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.3413859991952318</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1805795364266549</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.3413859991952318</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1805795364266549</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.3415100603867985</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.183759962775314</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.3415100603867985</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.183759962775314</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.3417593184413603</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1869403891239731</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.3417593184413603</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1869403891239731</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.3421423046008212</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1901208154726322</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.3421423046008212</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1901208154726322</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.3426675501070853</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1933012418212913</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.3426675501070853</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1933012418212913</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.3433435862020564</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1964816681699504</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.3433435862020564</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1964816681699504</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.3441789441276388</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1996620945186095</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.3441789441276388</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1996620945186095</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.3451821551257364</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2028425208672686</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.3451821551257364</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.2028425208672686</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.3470320026970966</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2060229472159277</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.3470320026970966</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2060229472159277</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.3557701329425514</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2092033735645868</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.3557701329425514</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2092033735645868</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.3680311749390648</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2123837999132459</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.3680311749390648</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2123837999132459</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.377816898313077</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.215564226261905</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.377816898313077</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.215564226261905</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.384831262110175</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2187446526105641</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.384831262110175</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2187446526105641</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.3911572484402043</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2219250789592232</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.3911572484402043</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2219250789592232</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.3969861518578091</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2251055053078822</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.3969861518578091</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2251055053078822</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.4025092669176349</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2282859316565414</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.4025092669176349</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2282859316565414</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.4079178881743262</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2314663580052004</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.4079178881743262</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2314663580052004</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.4133311670444109</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2346467843538596</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.4133311670444109</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2346467843538596</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.4181579656524134</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2378272107025186</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.4181579656524134</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2378272107025186</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.4227344911945101</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2410076370511778</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.4227344911945101</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2410076370511778</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.4277095114754385</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2441880633998368</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.4277095114754385</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2441880633998368</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.4337317942999359</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2473684897484959</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.4337317942999359</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2473684897484959</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.4418639982215757</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.250548916097155</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.4418639982215757</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.250548916097155</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.4525886139147184</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2537293424458141</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.4525886139147184</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2537293424458141</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.4655543729707594</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2569097687944732</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.4655543729707594</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2569097687944732</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.4804091978352728</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2600901951431323</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.4804091978352728</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2600901951431323</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.4968010109538328</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2632706214917914</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.4968010109538328</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2632706214917914</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.5143777347720134</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2664510478404505</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.5143777347720134</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2664510478404505</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.5327872917353886</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2696314741891096</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.5327872917353886</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2696314741891096</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.5516776042895323</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2728119005377687</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.5516776042895323</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2728119005377687</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.5706965948800187</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2759923268864278</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.5706965948800187</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2759923268864278</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.5894921859524219</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2791727532350869</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.5894921859524219</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2791727532350869</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.6077122999523157</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.282353179583746</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.6077122999523157</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.282353179583746</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.6250048593252744</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2855336059324051</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.6250048593252744</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2855336059324051</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.6410177865168716</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2887140322810642</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.6410177865168716</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2887140322810642</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.6553990039726818</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2918944586297233</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.6553990039726818</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2918944586297233</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.6677964341382789</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2950748849783824</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.6677964341382789</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2950748849783824</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.6778579994592365</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2982553113270415</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.6778579994592365</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2982553113270415</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.6852316223811296</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3014357376757005</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.6852316223811296</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.3014357376757005</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.6906090038098344</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3046161640243596</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.6906090038098344</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.3046161640243596</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.6898779108890652</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3077965903730188</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.6898779108890652</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3077965903730188</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.6721364008508938</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3109770167216778</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.6721364008508938</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3109770167216778</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.6355423644797241</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3141574430703369</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.6355423644797241</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3141574430703369</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.5865932161905473</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3173378694189961</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.5865932161905473</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3173378694189961</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.531786370398354</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3205182957676551</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.531786370398354</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3205182957676551</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.4776192415181351</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3236987221163142</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.4776192415181351</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3236987221163142</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.4305892439648809</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3268791484649733</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.4305892439648809</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3268791484649733</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.3971937921535826</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3300595748136324</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.3971937921535826</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3300595748136324</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.3792079980726719</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3332400011622915</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.3792079980726719</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3332400011622915</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.3632510205661345</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3364204275109506</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.3632510205661345</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3364204275109506</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.3480251520113169</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3396008538596098</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.3480251520113169</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3396008538596098</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.3336253081707721</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3427812802082688</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.3336253081707721</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3427812802082688</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.3201464048070528</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3459617065569279</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.3201464048070528</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3459617065569279</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.3076833576827118</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.349142132905587</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.3076833576827118</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.349142132905587</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.2963310825603016</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3523225592542461</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.2963310825603016</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3523225592542461</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.2861844952023751</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3555029856029052</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.2861844952023751</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3555029856029052</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.2773385113714848</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3586834119515643</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.2773385113714848</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3586834119515643</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.2698880468301837</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3618638383002234</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.2698880468301837</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3618638383002234</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.2639280173410244</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3650442646488825</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.2639280173410244</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3650442646488825</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.2595533386665598</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3682246909975416</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.2595533386665598</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3682246909975416</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.2568589265693422</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3714051173462007</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.2568589265693422</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3714051173462007</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.2559396968119246</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3745855436948597</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.2559396968119246</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3745855436948597</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
